--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20078F7F-E810-1F47-B5A2-B35F5F241437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8218A09-72AE-164F-9A48-2F6C3F4AD4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="3360" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Chart</t>
   </si>
@@ -177,6 +177,144 @@
   </si>
   <si>
     <t>percent</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>2020-06-07</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+  </si>
+  <si>
+    <t>2020-06-14</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>2020-06-19</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
   </si>
 </sst>
 </file>
@@ -687,11 +825,11 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1048,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D67" sqref="D67:D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1061,11 +1199,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1091,7 +1229,7 @@
       <c r="C3" s="2">
         <v>33</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <f>C3/B3</f>
         <v>0.7857142857142857</v>
       </c>
@@ -1106,8 +1244,8 @@
       <c r="C4" s="2">
         <v>33</v>
       </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:D46" si="0">C4/B4</f>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D68" si="0">C4/B4</f>
         <v>0.75</v>
       </c>
     </row>
@@ -1121,7 +1259,7 @@
       <c r="C5" s="2">
         <v>22</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>0.6470588235294118</v>
       </c>
@@ -1136,7 +1274,7 @@
       <c r="C6" s="2">
         <v>16</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>0.47058823529411764</v>
       </c>
@@ -1151,7 +1289,7 @@
       <c r="C7" s="2">
         <v>22</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>0.59459459459459463</v>
       </c>
@@ -1166,7 +1304,7 @@
       <c r="C8" s="2">
         <v>26</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>0.76470588235294112</v>
       </c>
@@ -1181,7 +1319,7 @@
       <c r="C9" s="2">
         <v>26</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0.63414634146341464</v>
       </c>
@@ -1196,7 +1334,7 @@
       <c r="C10" s="2">
         <v>27</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>0.55102040816326525</v>
       </c>
@@ -1211,7 +1349,7 @@
       <c r="C11" s="2">
         <v>24</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>0.51063829787234039</v>
       </c>
@@ -1226,7 +1364,7 @@
       <c r="C12" s="2">
         <v>18</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>0.52941176470588236</v>
       </c>
@@ -1241,7 +1379,7 @@
       <c r="C13" s="2">
         <v>21</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>0.48837209302325579</v>
       </c>
@@ -1256,7 +1394,7 @@
       <c r="C14" s="2">
         <v>22</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>0.48888888888888887</v>
       </c>
@@ -1271,7 +1409,7 @@
       <c r="C15" s="2">
         <v>26</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>0.61904761904761907</v>
       </c>
@@ -1286,7 +1424,7 @@
       <c r="C16" s="2">
         <v>16</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>0.45714285714285713</v>
       </c>
@@ -1301,7 +1439,7 @@
       <c r="C17" s="2">
         <v>24</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>0.51063829787234039</v>
       </c>
@@ -1316,7 +1454,7 @@
       <c r="C18" s="2">
         <v>23</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>0.51111111111111107</v>
       </c>
@@ -1331,7 +1469,7 @@
       <c r="C19" s="2">
         <v>21</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>0.61764705882352944</v>
       </c>
@@ -1346,7 +1484,7 @@
       <c r="C20" s="2">
         <v>21</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>0.51219512195121952</v>
       </c>
@@ -1361,7 +1499,7 @@
       <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>0.51282051282051277</v>
       </c>
@@ -1376,7 +1514,7 @@
       <c r="C22" s="2">
         <v>20</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>0.51282051282051277</v>
       </c>
@@ -1391,7 +1529,7 @@
       <c r="C23" s="2">
         <v>27</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>0.6428571428571429</v>
       </c>
@@ -1406,7 +1544,7 @@
       <c r="C24" s="2">
         <v>30</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
@@ -1421,7 +1559,7 @@
       <c r="C25" s="2">
         <v>34</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>0.79069767441860461</v>
       </c>
@@ -1436,7 +1574,7 @@
       <c r="C26" s="2">
         <v>20</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>0.86956521739130432</v>
       </c>
@@ -1451,7 +1589,7 @@
       <c r="C27" s="2">
         <v>25</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>0.86206896551724133</v>
       </c>
@@ -1466,7 +1604,7 @@
       <c r="C28" s="2">
         <v>21</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
@@ -1481,7 +1619,7 @@
       <c r="C29" s="2">
         <v>22</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
@@ -1496,7 +1634,7 @@
       <c r="C30" s="2">
         <v>25</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>0.92592592592592593</v>
       </c>
@@ -1511,7 +1649,7 @@
       <c r="C31" s="2">
         <v>26</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
@@ -1526,7 +1664,7 @@
       <c r="C32" s="2">
         <v>29</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>0.82857142857142863</v>
       </c>
@@ -1541,7 +1679,7 @@
       <c r="C33" s="2">
         <v>21</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <f t="shared" si="0"/>
         <v>0.80769230769230771</v>
       </c>
@@ -1556,7 +1694,7 @@
       <c r="C34" s="2">
         <v>22</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
@@ -1571,7 +1709,7 @@
       <c r="C35" s="2">
         <v>23</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <f t="shared" si="0"/>
         <v>0.88461538461538458</v>
       </c>
@@ -1586,7 +1724,7 @@
       <c r="C36" s="2">
         <v>22</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1601,7 +1739,7 @@
       <c r="C37" s="2">
         <v>24</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
@@ -1616,7 +1754,7 @@
       <c r="C38" s="2">
         <v>31</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <f t="shared" si="0"/>
         <v>0.93939393939393945</v>
       </c>
@@ -1631,7 +1769,7 @@
       <c r="C39" s="2">
         <v>32</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <f t="shared" si="0"/>
         <v>0.82051282051282048</v>
       </c>
@@ -1646,7 +1784,7 @@
       <c r="C40" s="2">
         <v>20</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
@@ -1661,7 +1799,7 @@
       <c r="C41" s="2">
         <v>24</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
@@ -1676,7 +1814,7 @@
       <c r="C42" s="2">
         <v>28</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <f t="shared" si="0"/>
         <v>0.84848484848484851</v>
       </c>
@@ -1691,7 +1829,7 @@
       <c r="C43" s="2">
         <v>25</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <f t="shared" si="0"/>
         <v>0.96153846153846156</v>
       </c>
@@ -1706,7 +1844,7 @@
       <c r="C44" s="2">
         <v>31</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <f t="shared" si="0"/>
         <v>0.86111111111111116</v>
       </c>
@@ -1721,7 +1859,7 @@
       <c r="C45" s="2">
         <v>31</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <f t="shared" si="0"/>
         <v>0.91176470588235292</v>
       </c>
@@ -1736,9 +1874,714 @@
       <c r="C46" s="2">
         <v>34</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <f t="shared" si="0"/>
         <v>0.82926829268292679</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2">
+        <v>34</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82926829268292679</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2">
+        <v>32</v>
+      </c>
+      <c r="C48" s="2">
+        <v>28</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2">
+        <v>24</v>
+      </c>
+      <c r="C49" s="2">
+        <v>22</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2">
+        <v>33</v>
+      </c>
+      <c r="C50" s="2">
+        <v>28</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84848484848484851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2">
+        <v>21</v>
+      </c>
+      <c r="C51" s="2">
+        <v>19</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2">
+        <v>32</v>
+      </c>
+      <c r="C52" s="2">
+        <v>30</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2">
+        <v>29</v>
+      </c>
+      <c r="C53" s="2">
+        <v>26</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89655172413793105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2">
+        <v>43</v>
+      </c>
+      <c r="C54" s="2">
+        <v>38</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>0.88372093023255816</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2">
+        <v>31</v>
+      </c>
+      <c r="C55" s="2">
+        <v>25</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>0.80645161290322576</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2">
+        <v>34</v>
+      </c>
+      <c r="C56" s="2">
+        <v>32</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2">
+        <v>32</v>
+      </c>
+      <c r="C57" s="2">
+        <v>29</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2">
+        <v>33</v>
+      </c>
+      <c r="C58" s="2">
+        <v>31</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2">
+        <v>35</v>
+      </c>
+      <c r="C59" s="2">
+        <v>32</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91428571428571426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2">
+        <v>36</v>
+      </c>
+      <c r="C60" s="2">
+        <v>31</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2">
+        <v>38</v>
+      </c>
+      <c r="C61" s="2">
+        <v>34</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2">
+        <v>31</v>
+      </c>
+      <c r="C62" s="2">
+        <v>29</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93548387096774188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="2">
+        <v>28</v>
+      </c>
+      <c r="C63" s="2">
+        <v>27</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2">
+        <v>38</v>
+      </c>
+      <c r="C64" s="2">
+        <v>33</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="2">
+        <v>30</v>
+      </c>
+      <c r="C65" s="2">
+        <v>27</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2">
+        <v>33</v>
+      </c>
+      <c r="C66" s="2">
+        <v>31</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2">
+        <v>47</v>
+      </c>
+      <c r="C67" s="2">
+        <v>43</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91489361702127658</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="2">
+        <v>39</v>
+      </c>
+      <c r="C68" s="2">
+        <v>37</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94871794871794868</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2">
+        <v>33</v>
+      </c>
+      <c r="C69" s="2">
+        <v>31</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" ref="D69:D93" si="1">C69/B69</f>
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="2">
+        <v>31</v>
+      </c>
+      <c r="C70" s="2">
+        <v>29</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93548387096774188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="2">
+        <v>29</v>
+      </c>
+      <c r="C71" s="2">
+        <v>28</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="2">
+        <v>40</v>
+      </c>
+      <c r="C72" s="2">
+        <v>36</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2">
+        <v>33</v>
+      </c>
+      <c r="C73" s="2">
+        <v>32</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96969696969696972</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="2">
+        <v>42</v>
+      </c>
+      <c r="C74" s="2">
+        <v>40</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="2">
+        <v>41</v>
+      </c>
+      <c r="C75" s="2">
+        <v>38</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92682926829268297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2">
+        <v>34</v>
+      </c>
+      <c r="C76" s="2">
+        <v>32</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2">
+        <v>32</v>
+      </c>
+      <c r="C77" s="2">
+        <v>31</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2">
+        <v>38</v>
+      </c>
+      <c r="C78" s="2">
+        <v>36</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="2">
+        <v>35</v>
+      </c>
+      <c r="C79" s="2">
+        <v>31</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="2">
+        <v>39</v>
+      </c>
+      <c r="C80" s="2">
+        <v>34</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" si="1"/>
+        <v>0.87179487179487181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="2">
+        <v>48</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2">
+        <v>38</v>
+      </c>
+      <c r="C82" s="2">
+        <v>37</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97368421052631582</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2">
+        <v>32</v>
+      </c>
+      <c r="C83" s="2">
+        <v>31</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="2">
+        <v>31</v>
+      </c>
+      <c r="C84" s="2">
+        <v>29</v>
+      </c>
+      <c r="D84" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93548387096774188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="2">
+        <v>34</v>
+      </c>
+      <c r="C85" s="2">
+        <v>31</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91176470588235292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="2">
+        <v>35</v>
+      </c>
+      <c r="C86" s="2">
+        <v>33</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94285714285714284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45</v>
+      </c>
+      <c r="C87" s="2">
+        <v>41</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91111111111111109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="2">
+        <v>50</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="2">
+        <v>37</v>
+      </c>
+      <c r="C89" s="2">
+        <v>32</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86486486486486491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="2">
+        <v>29</v>
+      </c>
+      <c r="C90" s="2">
+        <v>27</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93103448275862066</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="2">
+        <v>33</v>
+      </c>
+      <c r="C91" s="2">
+        <v>32</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96969696969696972</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="2">
+        <v>36</v>
+      </c>
+      <c r="C92" s="2">
+        <v>35</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="2">
+        <v>42</v>
+      </c>
+      <c r="C93" s="2">
+        <v>40</v>
+      </c>
+      <c r="D93" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95238095238095233</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8218A09-72AE-164F-9A48-2F6C3F4AD4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554EB936-BF9C-F742-B9F8-45CD6291003C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="3360" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>Chart</t>
   </si>
@@ -315,6 +315,81 @@
   </si>
   <si>
     <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67:D93"/>
+      <selection activeCell="D92" sqref="D92:D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2220,7 +2295,7 @@
         <v>31</v>
       </c>
       <c r="D69" s="3">
-        <f t="shared" ref="D69:D93" si="1">C69/B69</f>
+        <f t="shared" ref="D69:D118" si="1">C69/B69</f>
         <v>0.93939393939393945</v>
       </c>
     </row>
@@ -2582,6 +2657,381 @@
       <c r="D93" s="3">
         <f t="shared" si="1"/>
         <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="2">
+        <v>38</v>
+      </c>
+      <c r="C94" s="2">
+        <v>38</v>
+      </c>
+      <c r="D94" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2">
+        <v>61</v>
+      </c>
+      <c r="C95" s="2">
+        <v>58</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95081967213114749</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2">
+        <v>55</v>
+      </c>
+      <c r="C96" s="2">
+        <v>54</v>
+      </c>
+      <c r="D96" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98181818181818181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2">
+        <v>43</v>
+      </c>
+      <c r="C97" s="2">
+        <v>41</v>
+      </c>
+      <c r="D97" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95348837209302328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="2">
+        <v>54</v>
+      </c>
+      <c r="C98" s="2">
+        <v>48</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43</v>
+      </c>
+      <c r="C99" s="2">
+        <v>43</v>
+      </c>
+      <c r="D99" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="2">
+        <v>48</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="2">
+        <v>48</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="2">
+        <v>53</v>
+      </c>
+      <c r="C102" s="2">
+        <v>52</v>
+      </c>
+      <c r="D102" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98113207547169812</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="2">
+        <v>54</v>
+      </c>
+      <c r="C103" s="2">
+        <v>54</v>
+      </c>
+      <c r="D103" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="2">
+        <v>40</v>
+      </c>
+      <c r="C104" s="2">
+        <v>39</v>
+      </c>
+      <c r="D104" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="2">
+        <v>53</v>
+      </c>
+      <c r="C105" s="2">
+        <v>53</v>
+      </c>
+      <c r="D105" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="2">
+        <v>47</v>
+      </c>
+      <c r="C106" s="2">
+        <v>47</v>
+      </c>
+      <c r="D106" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="2">
+        <v>47</v>
+      </c>
+      <c r="C107" s="2">
+        <v>46</v>
+      </c>
+      <c r="D107" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97872340425531912</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="2">
+        <v>51</v>
+      </c>
+      <c r="C108" s="2">
+        <v>48</v>
+      </c>
+      <c r="D108" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2">
+        <v>53</v>
+      </c>
+      <c r="C109" s="2">
+        <v>50</v>
+      </c>
+      <c r="D109" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94339622641509435</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="2">
+        <v>54</v>
+      </c>
+      <c r="C110" s="2">
+        <v>53</v>
+      </c>
+      <c r="D110" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98148148148148151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="2">
+        <v>40</v>
+      </c>
+      <c r="C111" s="2">
+        <v>39</v>
+      </c>
+      <c r="D111" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2">
+        <v>54</v>
+      </c>
+      <c r="C112" s="2">
+        <v>49</v>
+      </c>
+      <c r="D112" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90740740740740744</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="2">
+        <v>49</v>
+      </c>
+      <c r="C113" s="2">
+        <v>47</v>
+      </c>
+      <c r="D113" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95918367346938771</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="2">
+        <v>39</v>
+      </c>
+      <c r="C114" s="2">
+        <v>39</v>
+      </c>
+      <c r="D114" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="2">
+        <v>50</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45</v>
+      </c>
+      <c r="D115" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="2">
+        <v>61</v>
+      </c>
+      <c r="C116" s="2">
+        <v>56</v>
+      </c>
+      <c r="D116" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91803278688524592</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="2">
+        <v>48</v>
+      </c>
+      <c r="C117" s="2">
+        <v>46</v>
+      </c>
+      <c r="D117" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2">
+        <v>50</v>
+      </c>
+      <c r="C118" s="2">
+        <v>47</v>
+      </c>
+      <c r="D118" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554EB936-BF9C-F742-B9F8-45CD6291003C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C294ED02-B74B-E041-81E2-3C4A56461EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="3360" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>Chart</t>
   </si>
@@ -390,6 +390,57 @@
   </si>
   <si>
     <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-08-02</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>2020-08-04</t>
+  </si>
+  <si>
+    <t>2020-08-05</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92:D118"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2295,7 +2346,7 @@
         <v>31</v>
       </c>
       <c r="D69" s="3">
-        <f t="shared" ref="D69:D118" si="1">C69/B69</f>
+        <f t="shared" ref="D69:D132" si="1">C69/B69</f>
         <v>0.93939393939393945</v>
       </c>
     </row>
@@ -3032,6 +3083,261 @@
       <c r="D118" s="3">
         <f t="shared" si="1"/>
         <v>0.94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2">
+        <v>51</v>
+      </c>
+      <c r="C119" s="2">
+        <v>47</v>
+      </c>
+      <c r="D119" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92156862745098034</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="2">
+        <v>56</v>
+      </c>
+      <c r="C120" s="2">
+        <v>52</v>
+      </c>
+      <c r="D120" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="2">
+        <v>50</v>
+      </c>
+      <c r="C121" s="2">
+        <v>43</v>
+      </c>
+      <c r="D121" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="2">
+        <v>57</v>
+      </c>
+      <c r="C122" s="2">
+        <v>53</v>
+      </c>
+      <c r="D122" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92982456140350878</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="2">
+        <v>63</v>
+      </c>
+      <c r="C123" s="2">
+        <v>59</v>
+      </c>
+      <c r="D123" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93650793650793651</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="2">
+        <v>52</v>
+      </c>
+      <c r="C124" s="2">
+        <v>49</v>
+      </c>
+      <c r="D124" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94230769230769229</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="2">
+        <v>54</v>
+      </c>
+      <c r="C125" s="2">
+        <v>49</v>
+      </c>
+      <c r="D125" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90740740740740744</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="2">
+        <v>53</v>
+      </c>
+      <c r="C126" s="2">
+        <v>49</v>
+      </c>
+      <c r="D126" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92452830188679247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="2">
+        <v>53</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45</v>
+      </c>
+      <c r="D127" s="3">
+        <f t="shared" si="1"/>
+        <v>0.84905660377358494</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="2">
+        <v>57</v>
+      </c>
+      <c r="C128" s="2">
+        <v>47</v>
+      </c>
+      <c r="D128" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82456140350877194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="2">
+        <v>59</v>
+      </c>
+      <c r="C129" s="2">
+        <v>53</v>
+      </c>
+      <c r="D129" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89830508474576276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="2">
+        <v>64</v>
+      </c>
+      <c r="C130" s="2">
+        <v>59</v>
+      </c>
+      <c r="D130" s="3">
+        <f t="shared" si="1"/>
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="2">
+        <v>64</v>
+      </c>
+      <c r="C131" s="2">
+        <v>59</v>
+      </c>
+      <c r="D131" s="3">
+        <f t="shared" si="1"/>
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="2">
+        <v>54</v>
+      </c>
+      <c r="C132" s="2">
+        <v>47</v>
+      </c>
+      <c r="D132" s="3">
+        <f t="shared" si="1"/>
+        <v>0.87037037037037035</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="2">
+        <v>57</v>
+      </c>
+      <c r="C133" s="2">
+        <v>53</v>
+      </c>
+      <c r="D133" s="3">
+        <f t="shared" ref="D133:D135" si="2">C133/B133</f>
+        <v>0.92982456140350878</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="2">
+        <v>59</v>
+      </c>
+      <c r="C134" s="2">
+        <v>54</v>
+      </c>
+      <c r="D134" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9152542372881356</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="2">
+        <v>48</v>
+      </c>
+      <c r="C135" s="2">
+        <v>46</v>
+      </c>
+      <c r="D135" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95833333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C294ED02-B74B-E041-81E2-3C4A56461EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFFFE7E-C19B-0045-9AA4-F410B82073E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="3360" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
   <si>
     <t>Chart</t>
   </si>
@@ -441,6 +441,48 @@
   </si>
   <si>
     <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2020-08-19</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
+    <t>2020-08-22</t>
+  </si>
+  <si>
+    <t>2020-08-23</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>2020-08-26</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+  <si>
+    <t>2020-08-29</t>
+  </si>
+  <si>
+    <t>2020-08-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
   </si>
 </sst>
 </file>
@@ -1312,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3306,7 +3348,7 @@
         <v>53</v>
       </c>
       <c r="D133" s="3">
-        <f t="shared" ref="D133:D135" si="2">C133/B133</f>
+        <f t="shared" ref="D133:D149" si="2">C133/B133</f>
         <v>0.92982456140350878</v>
       </c>
     </row>
@@ -3338,6 +3380,216 @@
       <c r="D135" s="3">
         <f t="shared" si="2"/>
         <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="2">
+        <v>50</v>
+      </c>
+      <c r="C136" s="2">
+        <v>48</v>
+      </c>
+      <c r="D136" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="2">
+        <v>52</v>
+      </c>
+      <c r="C137" s="2">
+        <v>48</v>
+      </c>
+      <c r="D137" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="2">
+        <v>58</v>
+      </c>
+      <c r="C138" s="2">
+        <v>52</v>
+      </c>
+      <c r="D138" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89655172413793105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="2">
+        <v>51</v>
+      </c>
+      <c r="C139" s="2">
+        <v>48</v>
+      </c>
+      <c r="D139" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="2">
+        <v>48</v>
+      </c>
+      <c r="C140" s="2">
+        <v>44</v>
+      </c>
+      <c r="D140" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="2">
+        <v>56</v>
+      </c>
+      <c r="C141" s="2">
+        <v>52</v>
+      </c>
+      <c r="D141" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="2">
+        <v>45</v>
+      </c>
+      <c r="C142" s="2">
+        <v>42</v>
+      </c>
+      <c r="D142" s="3">
+        <f t="shared" si="2"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="2">
+        <v>52</v>
+      </c>
+      <c r="C143" s="2">
+        <v>46</v>
+      </c>
+      <c r="D143" s="3">
+        <f t="shared" si="2"/>
+        <v>0.88461538461538458</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="2">
+        <v>71</v>
+      </c>
+      <c r="C144" s="2">
+        <v>64</v>
+      </c>
+      <c r="D144" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90140845070422537</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="2">
+        <v>55</v>
+      </c>
+      <c r="C145" s="2">
+        <v>50</v>
+      </c>
+      <c r="D145" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="2">
+        <v>46</v>
+      </c>
+      <c r="C146" s="2">
+        <v>43</v>
+      </c>
+      <c r="D146" s="3">
+        <f t="shared" si="2"/>
+        <v>0.93478260869565222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" s="2">
+        <v>51</v>
+      </c>
+      <c r="C147" s="2">
+        <v>46</v>
+      </c>
+      <c r="D147" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90196078431372551</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="2">
+        <v>52</v>
+      </c>
+      <c r="C148" s="2">
+        <v>49</v>
+      </c>
+      <c r="D148" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94230769230769229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="2">
+        <v>45</v>
+      </c>
+      <c r="C149" s="2">
+        <v>44</v>
+      </c>
+      <c r="D149" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97777777777777775</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFFFE7E-C19B-0045-9AA4-F410B82073E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB3F8EE-50D6-E04A-91FC-EB7978D38C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="3360" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8180" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
   <si>
     <t>Chart</t>
   </si>
@@ -483,6 +483,42 @@
   </si>
   <si>
     <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-09-02</t>
+  </si>
+  <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
+    <t>2020-09-04</t>
+  </si>
+  <si>
+    <t>2020-09-05</t>
+  </si>
+  <si>
+    <t>2020-09-06</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-08</t>
+  </si>
+  <si>
+    <t>2020-09-09</t>
+  </si>
+  <si>
+    <t>2020-09-10</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>2020-09-12</t>
+  </si>
+  <si>
+    <t>2020-09-13</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3348,7 +3384,7 @@
         <v>53</v>
       </c>
       <c r="D133" s="3">
-        <f t="shared" ref="D133:D149" si="2">C133/B133</f>
+        <f t="shared" ref="D133:D161" si="2">C133/B133</f>
         <v>0.92982456140350878</v>
       </c>
     </row>
@@ -3590,6 +3626,186 @@
       <c r="D149" s="3">
         <f t="shared" si="2"/>
         <v>0.97777777777777775</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="2">
+        <v>44</v>
+      </c>
+      <c r="C150" s="2">
+        <v>43</v>
+      </c>
+      <c r="D150" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="2">
+        <v>52</v>
+      </c>
+      <c r="C151" s="2">
+        <v>50</v>
+      </c>
+      <c r="D151" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="2">
+        <v>65</v>
+      </c>
+      <c r="C152" s="2">
+        <v>64</v>
+      </c>
+      <c r="D152" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="2">
+        <v>39</v>
+      </c>
+      <c r="C153" s="2">
+        <v>37</v>
+      </c>
+      <c r="D153" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94871794871794868</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="2">
+        <v>34</v>
+      </c>
+      <c r="C154" s="2">
+        <v>33</v>
+      </c>
+      <c r="D154" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="2">
+        <v>42</v>
+      </c>
+      <c r="C155" s="2">
+        <v>42</v>
+      </c>
+      <c r="D155" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="2">
+        <v>40</v>
+      </c>
+      <c r="C156" s="2">
+        <v>37</v>
+      </c>
+      <c r="D156" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="2">
+        <v>46</v>
+      </c>
+      <c r="C157" s="2">
+        <v>46</v>
+      </c>
+      <c r="D157" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="2">
+        <v>44</v>
+      </c>
+      <c r="C158" s="2">
+        <v>43</v>
+      </c>
+      <c r="D158" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="2">
+        <v>52</v>
+      </c>
+      <c r="C159" s="2">
+        <v>50</v>
+      </c>
+      <c r="D159" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="2">
+        <v>50</v>
+      </c>
+      <c r="C160" s="2">
+        <v>48</v>
+      </c>
+      <c r="D160" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="2">
+        <v>51</v>
+      </c>
+      <c r="C161" s="2">
+        <v>49</v>
+      </c>
+      <c r="D161" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96078431372549022</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB3F8EE-50D6-E04A-91FC-EB7978D38C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D4C2C-5C3B-444C-B87B-AE05325C590D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
   <si>
     <t>Chart</t>
   </si>
@@ -519,6 +519,57 @@
   </si>
   <si>
     <t>2020-09-13</t>
+  </si>
+  <si>
+    <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
+  </si>
+  <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>2020-09-19</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>2020-09-23</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>2020-09-26</t>
+  </si>
+  <si>
+    <t>2020-09-27</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
   </si>
 </sst>
 </file>
@@ -528,7 +579,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1390,26 +1441,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1489,7 @@
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1453,7 +1504,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1468,7 +1519,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +1534,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1498,7 +1549,7 @@
         <v>0.59459459459459463</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1564,7 @@
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1528,7 +1579,7 @@
         <v>0.63414634146341464</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1543,7 +1594,7 @@
         <v>0.55102040816326525</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +1609,7 @@
         <v>0.51063829787234039</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1573,7 +1624,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1588,7 +1639,7 @@
         <v>0.48837209302325579</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1603,7 +1654,7 @@
         <v>0.48888888888888887</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1669,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1633,7 +1684,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1648,7 +1699,7 @@
         <v>0.51063829787234039</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1714,7 @@
         <v>0.51111111111111107</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1678,7 +1729,7 @@
         <v>0.61764705882352944</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1693,7 +1744,7 @@
         <v>0.51219512195121952</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1708,7 +1759,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1723,7 +1774,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1738,7 +1789,7 @@
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1753,7 +1804,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1768,7 +1819,7 @@
         <v>0.79069767441860461</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1783,7 +1834,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1798,7 +1849,7 @@
         <v>0.86206896551724133</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1813,7 +1864,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1828,7 +1879,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1843,7 +1894,7 @@
         <v>0.92592592592592593</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1858,7 +1909,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1873,7 +1924,7 @@
         <v>0.82857142857142863</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1888,7 +1939,7 @@
         <v>0.80769230769230771</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1903,7 +1954,7 @@
         <v>0.84615384615384615</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1918,7 +1969,7 @@
         <v>0.88461538461538458</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1933,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1948,7 +1999,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1963,7 +2014,7 @@
         <v>0.93939393939393945</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1978,7 +2029,7 @@
         <v>0.82051282051282048</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1993,7 +2044,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2008,7 +2059,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2023,7 +2074,7 @@
         <v>0.84848484848484851</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -2038,7 +2089,7 @@
         <v>0.96153846153846156</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -2053,7 +2104,7 @@
         <v>0.86111111111111116</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -2068,7 +2119,7 @@
         <v>0.91176470588235292</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2083,7 +2134,7 @@
         <v>0.82926829268292679</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -2098,7 +2149,7 @@
         <v>0.82926829268292679</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -2113,7 +2164,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,7 +2179,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -2143,7 +2194,7 @@
         <v>0.84848484848484851</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -2158,7 +2209,7 @@
         <v>0.90476190476190477</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2173,7 +2224,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -2188,7 +2239,7 @@
         <v>0.89655172413793105</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2203,7 +2254,7 @@
         <v>0.88372093023255816</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,7 +2269,7 @@
         <v>0.80645161290322576</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -2233,7 +2284,7 @@
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2248,7 +2299,7 @@
         <v>0.90625</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,7 +2314,7 @@
         <v>0.93939393939393945</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -2278,7 +2329,7 @@
         <v>0.91428571428571426</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2293,7 +2344,7 @@
         <v>0.86111111111111116</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -2308,7 +2359,7 @@
         <v>0.89473684210526316</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -2323,7 +2374,7 @@
         <v>0.93548387096774188</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2338,7 +2389,7 @@
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2353,7 +2404,7 @@
         <v>0.86842105263157898</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2368,7 +2419,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2383,7 +2434,7 @@
         <v>0.93939393939393945</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -2398,7 +2449,7 @@
         <v>0.91489361702127658</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2413,7 +2464,7 @@
         <v>0.94871794871794868</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2428,7 +2479,7 @@
         <v>0.93939393939393945</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2443,7 +2494,7 @@
         <v>0.93548387096774188</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2458,7 +2509,7 @@
         <v>0.96551724137931039</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2473,7 +2524,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2488,7 +2539,7 @@
         <v>0.96969696969696972</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2503,7 +2554,7 @@
         <v>0.95238095238095233</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2518,7 +2569,7 @@
         <v>0.92682926829268297</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -2533,7 +2584,7 @@
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -2548,7 +2599,7 @@
         <v>0.96875</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2563,7 +2614,7 @@
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -2578,7 +2629,7 @@
         <v>0.88571428571428568</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -2593,7 +2644,7 @@
         <v>0.87179487179487181</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -2608,7 +2659,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -2623,7 +2674,7 @@
         <v>0.97368421052631582</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -2638,7 +2689,7 @@
         <v>0.96875</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -2653,7 +2704,7 @@
         <v>0.93548387096774188</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -2668,7 +2719,7 @@
         <v>0.91176470588235292</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -2683,7 +2734,7 @@
         <v>0.94285714285714284</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -2698,7 +2749,7 @@
         <v>0.91111111111111109</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -2713,7 +2764,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -2728,7 +2779,7 @@
         <v>0.86486486486486491</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -2743,7 +2794,7 @@
         <v>0.93103448275862066</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -2758,7 +2809,7 @@
         <v>0.96969696969696972</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -2773,7 +2824,7 @@
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -2788,7 +2839,7 @@
         <v>0.95238095238095233</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -2803,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -2818,7 +2869,7 @@
         <v>0.95081967213114749</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -2833,7 +2884,7 @@
         <v>0.98181818181818181</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -2848,7 +2899,7 @@
         <v>0.95348837209302328</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -2863,7 +2914,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -2878,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -2893,7 +2944,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -2908,7 +2959,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -2923,7 +2974,7 @@
         <v>0.98113207547169812</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -2938,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -2953,7 +3004,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -2968,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -2983,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -2998,7 +3049,7 @@
         <v>0.97872340425531912</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -3013,7 +3064,7 @@
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -3028,7 +3079,7 @@
         <v>0.94339622641509435</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -3043,7 +3094,7 @@
         <v>0.98148148148148151</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -3058,7 +3109,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -3073,7 +3124,7 @@
         <v>0.90740740740740744</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -3088,7 +3139,7 @@
         <v>0.95918367346938771</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -3103,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -3118,7 +3169,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -3133,7 +3184,7 @@
         <v>0.91803278688524592</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -3148,7 +3199,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -3163,7 +3214,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -3178,7 +3229,7 @@
         <v>0.92156862745098034</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -3193,7 +3244,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -3208,7 +3259,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -3223,7 +3274,7 @@
         <v>0.92982456140350878</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -3238,7 +3289,7 @@
         <v>0.93650793650793651</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -3253,7 +3304,7 @@
         <v>0.94230769230769229</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -3268,7 +3319,7 @@
         <v>0.90740740740740744</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -3283,7 +3334,7 @@
         <v>0.92452830188679247</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -3298,7 +3349,7 @@
         <v>0.84905660377358494</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -3313,7 +3364,7 @@
         <v>0.82456140350877194</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -3328,7 +3379,7 @@
         <v>0.89830508474576276</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -3343,7 +3394,7 @@
         <v>0.921875</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -3358,7 +3409,7 @@
         <v>0.921875</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -3373,7 +3424,7 @@
         <v>0.87037037037037035</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -3384,11 +3435,11 @@
         <v>53</v>
       </c>
       <c r="D133" s="3">
-        <f t="shared" ref="D133:D161" si="2">C133/B133</f>
+        <f t="shared" ref="D133:D178" si="2">C133/B133</f>
         <v>0.92982456140350878</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -3403,7 +3454,7 @@
         <v>0.9152542372881356</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -3418,7 +3469,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -3433,7 +3484,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -3448,7 +3499,7 @@
         <v>0.92307692307692313</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -3463,7 +3514,7 @@
         <v>0.89655172413793105</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -3478,7 +3529,7 @@
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -3493,7 +3544,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -3508,7 +3559,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -3523,7 +3574,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -3538,7 +3589,7 @@
         <v>0.88461538461538458</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -3553,7 +3604,7 @@
         <v>0.90140845070422537</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -3568,7 +3619,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -3583,7 +3634,7 @@
         <v>0.93478260869565222</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -3598,7 +3649,7 @@
         <v>0.90196078431372551</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -3613,7 +3664,7 @@
         <v>0.94230769230769229</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -3628,7 +3679,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -3643,7 +3694,7 @@
         <v>0.97727272727272729</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -3658,7 +3709,7 @@
         <v>0.96153846153846156</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -3673,7 +3724,7 @@
         <v>0.98461538461538467</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -3688,7 +3739,7 @@
         <v>0.94871794871794868</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -3703,7 +3754,7 @@
         <v>0.97058823529411764</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -3718,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -3733,7 +3784,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -3748,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -3763,7 +3814,7 @@
         <v>0.97727272727272729</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -3778,7 +3829,7 @@
         <v>0.96153846153846156</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -3793,7 +3844,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -3806,6 +3857,261 @@
       <c r="D161" s="3">
         <f t="shared" si="2"/>
         <v>0.96078431372549022</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" s="2">
+        <v>50</v>
+      </c>
+      <c r="C162" s="2">
+        <v>50</v>
+      </c>
+      <c r="D162" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" s="2">
+        <v>44</v>
+      </c>
+      <c r="C163" s="2">
+        <v>42</v>
+      </c>
+      <c r="D163" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="2">
+        <v>53</v>
+      </c>
+      <c r="C164" s="2">
+        <v>51</v>
+      </c>
+      <c r="D164" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96226415094339623</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="2">
+        <v>52</v>
+      </c>
+      <c r="C165" s="2">
+        <v>50</v>
+      </c>
+      <c r="D165" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="2">
+        <v>52</v>
+      </c>
+      <c r="C166" s="2">
+        <v>50</v>
+      </c>
+      <c r="D166" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="2">
+        <v>43</v>
+      </c>
+      <c r="C167" s="2">
+        <v>42</v>
+      </c>
+      <c r="D167" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97674418604651159</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="2">
+        <v>44</v>
+      </c>
+      <c r="C168" s="2">
+        <v>44</v>
+      </c>
+      <c r="D168" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" s="2">
+        <v>50</v>
+      </c>
+      <c r="C169" s="2">
+        <v>48</v>
+      </c>
+      <c r="D169" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" s="2">
+        <v>50</v>
+      </c>
+      <c r="C170" s="2">
+        <v>49</v>
+      </c>
+      <c r="D170" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="2">
+        <v>52</v>
+      </c>
+      <c r="C171" s="2">
+        <v>51</v>
+      </c>
+      <c r="D171" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98076923076923073</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="2">
+        <v>57</v>
+      </c>
+      <c r="C172" s="2">
+        <v>53</v>
+      </c>
+      <c r="D172" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92982456140350878</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" s="2">
+        <v>58</v>
+      </c>
+      <c r="C173" s="2">
+        <v>57</v>
+      </c>
+      <c r="D173" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98275862068965514</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" s="2">
+        <v>47</v>
+      </c>
+      <c r="C174" s="2">
+        <v>44</v>
+      </c>
+      <c r="D174" s="3">
+        <f t="shared" si="2"/>
+        <v>0.93617021276595747</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="2">
+        <v>44</v>
+      </c>
+      <c r="C175" s="2">
+        <v>41</v>
+      </c>
+      <c r="D175" s="3">
+        <f t="shared" si="2"/>
+        <v>0.93181818181818177</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="2">
+        <v>51</v>
+      </c>
+      <c r="C176" s="2">
+        <v>30</v>
+      </c>
+      <c r="D176" s="3">
+        <f t="shared" si="2"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" s="2">
+        <v>56</v>
+      </c>
+      <c r="C177" s="2">
+        <v>50</v>
+      </c>
+      <c r="D177" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8928571428571429</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="2">
+        <v>58</v>
+      </c>
+      <c r="C178" s="2">
+        <v>53</v>
+      </c>
+      <c r="D178" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91379310344827591</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D4C2C-5C3B-444C-B87B-AE05325C590D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB2F625-DF02-4641-90E4-8BB680E3B406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="195">
   <si>
     <t>Chart</t>
   </si>
@@ -570,6 +570,51 @@
   </si>
   <si>
     <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>2020-10-02</t>
+  </si>
+  <si>
+    <t>2020-10-03</t>
+  </si>
+  <si>
+    <t>2020-10-04</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+  </si>
+  <si>
+    <t>2020-10-06</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>2020-10-08</t>
+  </si>
+  <si>
+    <t>2020-10-09</t>
+  </si>
+  <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
+    <t>2020-10-11</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>2020-10-14</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
   </si>
 </sst>
 </file>
@@ -1441,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="I173" sqref="I173"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3435,7 +3480,7 @@
         <v>53</v>
       </c>
       <c r="D133" s="3">
-        <f t="shared" ref="D133:D178" si="2">C133/B133</f>
+        <f t="shared" ref="D133:D192" si="2">C133/B133</f>
         <v>0.92982456140350878</v>
       </c>
     </row>
@@ -4112,6 +4157,227 @@
       <c r="D178" s="3">
         <f t="shared" si="2"/>
         <v>0.91379310344827591</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="2">
+        <v>65</v>
+      </c>
+      <c r="C179" s="2">
+        <v>62</v>
+      </c>
+      <c r="D179" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9538461538461539</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="2">
+        <v>67</v>
+      </c>
+      <c r="C180" s="2">
+        <v>64</v>
+      </c>
+      <c r="D180" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95522388059701491</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="2">
+        <v>38</v>
+      </c>
+      <c r="C181" s="2">
+        <v>38</v>
+      </c>
+      <c r="D181" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="2">
+        <v>54</v>
+      </c>
+      <c r="C182" s="2">
+        <v>49</v>
+      </c>
+      <c r="D182" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90740740740740744</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" s="2">
+        <v>53</v>
+      </c>
+      <c r="C183" s="2">
+        <v>50</v>
+      </c>
+      <c r="D183" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94339622641509435</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" s="2">
+        <v>42</v>
+      </c>
+      <c r="C184" s="2">
+        <v>42</v>
+      </c>
+      <c r="D184" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" s="2">
+        <v>45</v>
+      </c>
+      <c r="C185" s="2">
+        <v>43</v>
+      </c>
+      <c r="D185" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="2">
+        <v>56</v>
+      </c>
+      <c r="C186" s="2">
+        <v>54</v>
+      </c>
+      <c r="D186" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" s="2">
+        <v>62</v>
+      </c>
+      <c r="C187" s="2">
+        <v>59</v>
+      </c>
+      <c r="D187" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95161290322580649</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="2">
+        <v>42</v>
+      </c>
+      <c r="C188" s="2">
+        <v>41</v>
+      </c>
+      <c r="D188" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97619047619047616</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="2">
+        <v>48</v>
+      </c>
+      <c r="C189" s="2">
+        <v>48</v>
+      </c>
+      <c r="D189" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" s="2">
+        <v>59</v>
+      </c>
+      <c r="C190" s="2">
+        <v>56</v>
+      </c>
+      <c r="D190" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94915254237288138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" s="2">
+        <v>57</v>
+      </c>
+      <c r="C191" s="2">
+        <v>55</v>
+      </c>
+      <c r="D191" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96491228070175439</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" s="2">
+        <v>46</v>
+      </c>
+      <c r="C192" s="2">
+        <v>44</v>
+      </c>
+      <c r="D192" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" s="2">
+        <v>65</v>
+      </c>
+      <c r="C193" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB2F625-DF02-4641-90E4-8BB680E3B406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FD292A-8ACC-E640-A742-527D0AEB0E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35900" yWindow="1080" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="214">
   <si>
     <t>Chart</t>
   </si>
@@ -615,6 +615,63 @@
   </si>
   <si>
     <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>2020-10-18</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>2020-10-24</t>
+  </si>
+  <si>
+    <t>2020-10-25</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>2020-10-28</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
   </si>
 </sst>
 </file>
@@ -1486,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="H209" sqref="H209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3480,7 +3537,7 @@
         <v>53</v>
       </c>
       <c r="D133" s="3">
-        <f t="shared" ref="D133:D192" si="2">C133/B133</f>
+        <f t="shared" ref="D133:D196" si="2">C133/B133</f>
         <v>0.92982456140350878</v>
       </c>
     </row>
@@ -4369,7 +4426,7 @@
         <v>0.95652173913043481</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -4378,6 +4435,291 @@
       </c>
       <c r="C193" s="2">
         <v>63</v>
+      </c>
+      <c r="D193" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96923076923076923</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" s="2">
+        <v>56</v>
+      </c>
+      <c r="C194" s="2">
+        <v>54</v>
+      </c>
+      <c r="D194" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" s="2">
+        <v>43</v>
+      </c>
+      <c r="C195" s="2">
+        <v>43</v>
+      </c>
+      <c r="D195" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" s="2">
+        <v>53</v>
+      </c>
+      <c r="C196" s="2">
+        <v>51</v>
+      </c>
+      <c r="D196" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96226415094339623</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" s="2">
+        <v>56</v>
+      </c>
+      <c r="C197" s="2">
+        <v>52</v>
+      </c>
+      <c r="D197" s="3">
+        <f t="shared" ref="D197:D211" si="3">C197/B197</f>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" s="2">
+        <v>45</v>
+      </c>
+      <c r="C198" s="2">
+        <v>43</v>
+      </c>
+      <c r="D198" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" s="2">
+        <v>48</v>
+      </c>
+      <c r="C199" s="2">
+        <v>46</v>
+      </c>
+      <c r="D199" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" s="2">
+        <v>51</v>
+      </c>
+      <c r="C200" s="2">
+        <v>47</v>
+      </c>
+      <c r="D200" s="3">
+        <f t="shared" si="3"/>
+        <v>0.92156862745098034</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" s="2">
+        <v>56</v>
+      </c>
+      <c r="C201" s="2">
+        <v>56</v>
+      </c>
+      <c r="D201" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" s="2">
+        <v>47</v>
+      </c>
+      <c r="C202" s="2">
+        <v>44</v>
+      </c>
+      <c r="D202" s="3">
+        <f t="shared" si="3"/>
+        <v>0.93617021276595747</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" s="2">
+        <v>48</v>
+      </c>
+      <c r="C203" s="2">
+        <v>43</v>
+      </c>
+      <c r="D203" s="3">
+        <f t="shared" si="3"/>
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" s="2">
+        <v>48</v>
+      </c>
+      <c r="C204" s="2">
+        <v>48</v>
+      </c>
+      <c r="D204" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" s="2">
+        <v>45</v>
+      </c>
+      <c r="C205" s="2">
+        <v>43</v>
+      </c>
+      <c r="D205" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" s="2">
+        <v>44</v>
+      </c>
+      <c r="C206" s="2">
+        <v>42</v>
+      </c>
+      <c r="D206" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" s="2">
+        <v>55</v>
+      </c>
+      <c r="C207" s="2">
+        <v>50</v>
+      </c>
+      <c r="D207" s="3">
+        <f t="shared" si="3"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" s="2">
+        <v>55</v>
+      </c>
+      <c r="C208" s="2">
+        <v>53</v>
+      </c>
+      <c r="D208" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96363636363636362</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" s="2">
+        <v>32</v>
+      </c>
+      <c r="C209" s="2">
+        <v>31</v>
+      </c>
+      <c r="D209" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" s="2">
+        <v>42</v>
+      </c>
+      <c r="C210" s="2">
+        <v>39</v>
+      </c>
+      <c r="D210" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" s="2">
+        <v>43</v>
+      </c>
+      <c r="C211" s="2">
+        <v>41</v>
+      </c>
+      <c r="D211" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95348837209302328</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" s="2">
+        <v>43</v>
+      </c>
+      <c r="C212" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FD292A-8ACC-E640-A742-527D0AEB0E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAF33A3-71FF-1640-9E8C-CF0399E0693A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35900" yWindow="1080" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
   <si>
     <t>Chart</t>
   </si>
@@ -672,6 +672,48 @@
   </si>
   <si>
     <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
   </si>
 </sst>
 </file>
@@ -1543,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="H209" sqref="H209"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4497,7 +4539,7 @@
         <v>52</v>
       </c>
       <c r="D197" s="3">
-        <f t="shared" ref="D197:D211" si="3">C197/B197</f>
+        <f t="shared" ref="D197:D226" si="3">C197/B197</f>
         <v>0.9285714285714286</v>
       </c>
     </row>
@@ -4720,6 +4762,220 @@
       </c>
       <c r="C212" s="2">
         <v>41</v>
+      </c>
+      <c r="D212" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95348837209302328</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" s="2">
+        <v>49</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45</v>
+      </c>
+      <c r="D213" s="3">
+        <f t="shared" si="3"/>
+        <v>0.91836734693877553</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" s="2">
+        <v>48</v>
+      </c>
+      <c r="C214" s="2">
+        <v>46</v>
+      </c>
+      <c r="D214" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" s="2">
+        <v>58</v>
+      </c>
+      <c r="C215" s="2">
+        <v>56</v>
+      </c>
+      <c r="D215" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" s="2">
+        <v>40</v>
+      </c>
+      <c r="C216" s="2">
+        <v>39</v>
+      </c>
+      <c r="D216" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" s="2">
+        <v>49</v>
+      </c>
+      <c r="C217" s="2">
+        <v>48</v>
+      </c>
+      <c r="D217" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97959183673469385</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" s="2">
+        <v>52</v>
+      </c>
+      <c r="C218" s="2">
+        <v>52</v>
+      </c>
+      <c r="D218" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" s="2">
+        <v>37</v>
+      </c>
+      <c r="C219" s="2">
+        <v>36</v>
+      </c>
+      <c r="D219" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97297297297297303</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" s="2">
+        <v>48</v>
+      </c>
+      <c r="C220" s="2">
+        <v>46</v>
+      </c>
+      <c r="D220" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" s="2">
+        <v>59</v>
+      </c>
+      <c r="C221" s="2">
+        <v>56</v>
+      </c>
+      <c r="D221" s="3">
+        <f t="shared" si="3"/>
+        <v>0.94915254237288138</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" s="2">
+        <v>58</v>
+      </c>
+      <c r="C222" s="2">
+        <v>55</v>
+      </c>
+      <c r="D222" s="3">
+        <f t="shared" si="3"/>
+        <v>0.94827586206896552</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" s="2">
+        <v>48</v>
+      </c>
+      <c r="C223" s="2">
+        <v>41</v>
+      </c>
+      <c r="D223" s="3">
+        <f t="shared" si="3"/>
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" s="2">
+        <v>44</v>
+      </c>
+      <c r="C224" s="2">
+        <v>43</v>
+      </c>
+      <c r="D224" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" s="2">
+        <v>52</v>
+      </c>
+      <c r="C225" s="2">
+        <v>49</v>
+      </c>
+      <c r="D225" s="3">
+        <f t="shared" si="3"/>
+        <v>0.94230769230769229</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" s="2">
+        <v>49</v>
+      </c>
+      <c r="C226" s="2">
+        <v>45</v>
+      </c>
+      <c r="D226" s="3">
+        <f t="shared" si="3"/>
+        <v>0.91836734693877553</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAF33A3-71FF-1640-9E8C-CF0399E0693A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F5286-F202-8447-B12E-6AB86E28F417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35900" yWindow="1080" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="251">
   <si>
     <t>Chart</t>
   </si>
@@ -714,6 +714,75 @@
   </si>
   <si>
     <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
   </si>
 </sst>
 </file>
@@ -1585,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D226"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="I245" sqref="I245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4539,7 +4608,7 @@
         <v>52</v>
       </c>
       <c r="D197" s="3">
-        <f t="shared" ref="D197:D226" si="3">C197/B197</f>
+        <f t="shared" ref="D197:D249" si="3">C197/B197</f>
         <v>0.9285714285714286</v>
       </c>
     </row>
@@ -4976,6 +5045,351 @@
       <c r="D226" s="3">
         <f t="shared" si="3"/>
         <v>0.91836734693877553</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" s="2">
+        <v>45</v>
+      </c>
+      <c r="C227" s="2">
+        <v>45</v>
+      </c>
+      <c r="D227" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" s="2">
+        <v>53</v>
+      </c>
+      <c r="C228" s="2">
+        <v>51</v>
+      </c>
+      <c r="D228" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96226415094339623</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" s="2">
+        <v>57</v>
+      </c>
+      <c r="C229" s="2">
+        <v>57</v>
+      </c>
+      <c r="D229" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" s="2">
+        <v>51</v>
+      </c>
+      <c r="C230" s="2">
+        <v>48</v>
+      </c>
+      <c r="D230" s="3">
+        <f t="shared" si="3"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" s="2">
+        <v>51</v>
+      </c>
+      <c r="C231" s="2">
+        <v>50</v>
+      </c>
+      <c r="D231" s="3">
+        <f t="shared" si="3"/>
+        <v>0.98039215686274506</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" s="2">
+        <v>49</v>
+      </c>
+      <c r="C232" s="2">
+        <v>46</v>
+      </c>
+      <c r="D232" s="3">
+        <f t="shared" si="3"/>
+        <v>0.93877551020408168</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" s="2">
+        <v>44</v>
+      </c>
+      <c r="C233" s="2">
+        <v>43</v>
+      </c>
+      <c r="D233" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" s="2">
+        <v>52</v>
+      </c>
+      <c r="C234" s="2">
+        <v>50</v>
+      </c>
+      <c r="D234" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" s="2">
+        <v>23</v>
+      </c>
+      <c r="C235" s="2">
+        <v>22</v>
+      </c>
+      <c r="D235" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" s="2">
+        <v>35</v>
+      </c>
+      <c r="C236" s="2">
+        <v>35</v>
+      </c>
+      <c r="D236" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" s="2">
+        <v>44</v>
+      </c>
+      <c r="C237" s="2">
+        <v>44</v>
+      </c>
+      <c r="D237" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" s="2">
+        <v>50</v>
+      </c>
+      <c r="C238" s="2">
+        <v>49</v>
+      </c>
+      <c r="D238" s="3">
+        <f t="shared" si="3"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" s="2">
+        <v>56</v>
+      </c>
+      <c r="C239" s="2">
+        <v>55</v>
+      </c>
+      <c r="D239" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9821428571428571</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" s="2">
+        <v>57</v>
+      </c>
+      <c r="C240" s="2">
+        <v>40</v>
+      </c>
+      <c r="D240" s="3">
+        <f t="shared" si="3"/>
+        <v>0.70175438596491224</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" s="2">
+        <v>40</v>
+      </c>
+      <c r="C241" s="2">
+        <v>36</v>
+      </c>
+      <c r="D241" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" s="2">
+        <v>53</v>
+      </c>
+      <c r="C242" s="2">
+        <v>50</v>
+      </c>
+      <c r="D242" s="3">
+        <f t="shared" si="3"/>
+        <v>0.94339622641509435</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" s="2">
+        <v>46</v>
+      </c>
+      <c r="C243" s="2">
+        <v>46</v>
+      </c>
+      <c r="D243" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" s="2">
+        <v>39</v>
+      </c>
+      <c r="C244" s="2">
+        <v>37</v>
+      </c>
+      <c r="D244" s="3">
+        <f t="shared" si="3"/>
+        <v>0.94871794871794868</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" s="2">
+        <v>50</v>
+      </c>
+      <c r="C245" s="2">
+        <v>50</v>
+      </c>
+      <c r="D245" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" s="2">
+        <v>46</v>
+      </c>
+      <c r="C246" s="2">
+        <v>43</v>
+      </c>
+      <c r="D246" s="3">
+        <f t="shared" si="3"/>
+        <v>0.93478260869565222</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" s="2">
+        <v>40</v>
+      </c>
+      <c r="C247" s="2">
+        <v>38</v>
+      </c>
+      <c r="D247" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" s="2">
+        <v>47</v>
+      </c>
+      <c r="C248" s="2">
+        <v>46</v>
+      </c>
+      <c r="D248" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97872340425531912</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" s="2">
+        <v>53</v>
+      </c>
+      <c r="C249" s="2">
+        <v>52</v>
+      </c>
+      <c r="D249" s="3">
+        <f t="shared" si="3"/>
+        <v>0.98113207547169812</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F5286-F202-8447-B12E-6AB86E28F417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB40B12-EE98-A64D-A5D6-D6A61231FA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
   <si>
     <t>Chart</t>
   </si>
@@ -783,6 +783,72 @@
   </si>
   <si>
     <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-12</t>
+  </si>
+  <si>
+    <t>2020-12-13</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
   </si>
 </sst>
 </file>
@@ -1654,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="I245" sqref="I245"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="G270" sqref="G269:G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4608,7 +4674,7 @@
         <v>52</v>
       </c>
       <c r="D197" s="3">
-        <f t="shared" ref="D197:D249" si="3">C197/B197</f>
+        <f t="shared" ref="D197:D260" si="3">C197/B197</f>
         <v>0.9285714285714286</v>
       </c>
     </row>
@@ -5390,6 +5456,336 @@
       <c r="D249" s="3">
         <f t="shared" si="3"/>
         <v>0.98113207547169812</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" s="2">
+        <v>45</v>
+      </c>
+      <c r="C250" s="2">
+        <v>43</v>
+      </c>
+      <c r="D250" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" s="2">
+        <v>40</v>
+      </c>
+      <c r="C251" s="2">
+        <v>37</v>
+      </c>
+      <c r="D251" s="3">
+        <f t="shared" si="3"/>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" s="2">
+        <v>49</v>
+      </c>
+      <c r="C252" s="2">
+        <v>48</v>
+      </c>
+      <c r="D252" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97959183673469385</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" s="2">
+        <v>39</v>
+      </c>
+      <c r="C253" s="2">
+        <v>39</v>
+      </c>
+      <c r="D253" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" s="2">
+        <v>36</v>
+      </c>
+      <c r="C254" s="2">
+        <v>36</v>
+      </c>
+      <c r="D254" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" s="2">
+        <v>49</v>
+      </c>
+      <c r="C255" s="2">
+        <v>46</v>
+      </c>
+      <c r="D255" s="3">
+        <f t="shared" si="3"/>
+        <v>0.93877551020408168</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" s="2">
+        <v>62</v>
+      </c>
+      <c r="C256" s="2">
+        <v>56</v>
+      </c>
+      <c r="D256" s="3">
+        <f t="shared" si="3"/>
+        <v>0.90322580645161288</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" s="2">
+        <v>60</v>
+      </c>
+      <c r="C257" s="2">
+        <v>58</v>
+      </c>
+      <c r="D257" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" s="2">
+        <v>64</v>
+      </c>
+      <c r="C258" s="2">
+        <v>61</v>
+      </c>
+      <c r="D258" s="3">
+        <f t="shared" si="3"/>
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" s="2">
+        <v>57</v>
+      </c>
+      <c r="C259" s="2">
+        <v>54</v>
+      </c>
+      <c r="D259" s="3">
+        <f t="shared" si="3"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" s="2">
+        <v>48</v>
+      </c>
+      <c r="C260" s="2">
+        <v>47</v>
+      </c>
+      <c r="D260" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" s="2">
+        <v>55</v>
+      </c>
+      <c r="C261" s="2">
+        <v>55</v>
+      </c>
+      <c r="D261" s="3">
+        <f t="shared" ref="D261:D271" si="4">C261/B261</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" s="2">
+        <v>56</v>
+      </c>
+      <c r="C262" s="2">
+        <v>51</v>
+      </c>
+      <c r="D262" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9107142857142857</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" s="2">
+        <v>38</v>
+      </c>
+      <c r="C263" s="2">
+        <v>37</v>
+      </c>
+      <c r="D263" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97368421052631582</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" s="2">
+        <v>23</v>
+      </c>
+      <c r="C264" s="2">
+        <v>23</v>
+      </c>
+      <c r="D264" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" s="2">
+        <v>54</v>
+      </c>
+      <c r="C265" s="2">
+        <v>52</v>
+      </c>
+      <c r="D265" s="3">
+        <f t="shared" si="4"/>
+        <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" s="2">
+        <v>45</v>
+      </c>
+      <c r="C266" s="2">
+        <v>44</v>
+      </c>
+      <c r="D266" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97777777777777775</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" s="2">
+        <v>49</v>
+      </c>
+      <c r="C267" s="2">
+        <v>46</v>
+      </c>
+      <c r="D267" s="3">
+        <f t="shared" si="4"/>
+        <v>0.93877551020408168</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" s="2">
+        <v>51</v>
+      </c>
+      <c r="C268" s="2">
+        <v>35</v>
+      </c>
+      <c r="D268" s="3">
+        <f t="shared" si="4"/>
+        <v>0.68627450980392157</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" s="2">
+        <v>57</v>
+      </c>
+      <c r="C269" s="2">
+        <v>46</v>
+      </c>
+      <c r="D269" s="3">
+        <f t="shared" si="4"/>
+        <v>0.80701754385964908</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" s="2">
+        <v>38</v>
+      </c>
+      <c r="C270" s="2">
+        <v>35</v>
+      </c>
+      <c r="D270" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92105263157894735</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" s="2">
+        <v>34</v>
+      </c>
+      <c r="C271" s="2">
+        <v>31</v>
+      </c>
+      <c r="D271" s="3">
+        <f t="shared" si="4"/>
+        <v>0.91176470588235292</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB40B12-EE98-A64D-A5D6-D6A61231FA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7108397B-D5BF-8A4F-A23B-BC94BE0F2940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="291">
   <si>
     <t>Chart</t>
   </si>
@@ -849,6 +849,60 @@
   </si>
   <si>
     <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-15</t>
+  </si>
+  <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
+    <t>2021-01-17</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
   </si>
 </sst>
 </file>
@@ -1720,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="G270" sqref="G269:G270"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="I279" sqref="I279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5634,7 +5688,7 @@
         <v>55</v>
       </c>
       <c r="D261" s="3">
-        <f t="shared" ref="D261:D271" si="4">C261/B261</f>
+        <f t="shared" ref="D261:D289" si="4">C261/B261</f>
         <v>1</v>
       </c>
     </row>
@@ -5786,6 +5840,276 @@
       <c r="D271" s="3">
         <f t="shared" si="4"/>
         <v>0.91176470588235292</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" s="2">
+        <v>57</v>
+      </c>
+      <c r="C272" s="2">
+        <v>54</v>
+      </c>
+      <c r="D272" s="3">
+        <f t="shared" si="4"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" s="2">
+        <v>52</v>
+      </c>
+      <c r="C273" s="2">
+        <v>50</v>
+      </c>
+      <c r="D273" s="3">
+        <f t="shared" si="4"/>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" s="2">
+        <v>55</v>
+      </c>
+      <c r="C274" s="2">
+        <v>49</v>
+      </c>
+      <c r="D274" s="3">
+        <f t="shared" si="4"/>
+        <v>0.89090909090909087</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" s="2">
+        <v>45</v>
+      </c>
+      <c r="C275" s="2">
+        <v>43</v>
+      </c>
+      <c r="D275" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" s="2">
+        <v>41</v>
+      </c>
+      <c r="C276" s="2">
+        <v>40</v>
+      </c>
+      <c r="D276" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97560975609756095</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" s="2">
+        <v>53</v>
+      </c>
+      <c r="C277" s="2">
+        <v>50</v>
+      </c>
+      <c r="D277" s="3">
+        <f t="shared" si="4"/>
+        <v>0.94339622641509435</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" s="2">
+        <v>48</v>
+      </c>
+      <c r="C278" s="2">
+        <v>47</v>
+      </c>
+      <c r="D278" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279" s="2">
+        <v>42</v>
+      </c>
+      <c r="C279" s="2">
+        <v>41</v>
+      </c>
+      <c r="D279" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97619047619047616</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" s="2">
+        <v>48</v>
+      </c>
+      <c r="C280" s="2">
+        <v>46</v>
+      </c>
+      <c r="D280" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" s="2">
+        <v>39</v>
+      </c>
+      <c r="C281" s="2">
+        <v>37</v>
+      </c>
+      <c r="D281" s="3">
+        <f t="shared" si="4"/>
+        <v>0.94871794871794868</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" s="2">
+        <v>49</v>
+      </c>
+      <c r="C282" s="2">
+        <v>47</v>
+      </c>
+      <c r="D282" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95918367346938771</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" s="2">
+        <v>47</v>
+      </c>
+      <c r="C283" s="2">
+        <v>45</v>
+      </c>
+      <c r="D283" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95744680851063835</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" s="2">
+        <v>48</v>
+      </c>
+      <c r="C284" s="2">
+        <v>48</v>
+      </c>
+      <c r="D284" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" s="2">
+        <v>38</v>
+      </c>
+      <c r="C285" s="2">
+        <v>38</v>
+      </c>
+      <c r="D285" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286" s="2">
+        <v>47</v>
+      </c>
+      <c r="C286" s="2">
+        <v>46</v>
+      </c>
+      <c r="D286" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97872340425531912</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" s="2">
+        <v>36</v>
+      </c>
+      <c r="C287" s="2">
+        <v>36</v>
+      </c>
+      <c r="D287" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" s="2">
+        <v>44</v>
+      </c>
+      <c r="C288" s="2">
+        <v>43</v>
+      </c>
+      <c r="D288" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" s="2">
+        <v>41</v>
+      </c>
+      <c r="C289" s="2">
+        <v>37</v>
+      </c>
+      <c r="D289" s="3">
+        <f t="shared" si="4"/>
+        <v>0.90243902439024393</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7108397B-D5BF-8A4F-A23B-BC94BE0F2940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F29429A-FC47-C749-AC7C-A77B4E370D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39540" yWindow="3080" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="291">
-  <si>
-    <t>Chart</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="303">
   <si>
     <t>DateTime</t>
   </si>
@@ -903,6 +900,45 @@
   </si>
   <si>
     <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
+    <t>2021-01-24</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1441,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1414,9 +1450,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1774,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:K301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="I279" sqref="I279"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I300" sqref="I300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1786,58 +1819,69 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2/B2</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>33</v>
       </c>
       <c r="D3" s="3">
-        <f>C3/B3</f>
-        <v>0.7857142857142857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D3:D67" si="0">C3/B3</f>
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D68" si="0">C4/B4</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1845,176 +1889,179 @@
         <v>34</v>
       </c>
       <c r="C5" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0.6470588235294118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0.47058823529411764</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0.59459459459459463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>26</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>0.76470588235294112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.63414634146341464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0.63414634146341464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.55102040816326525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0.55102040816326525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.51063829787234039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>0.51063829787234039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>0.52941176470588236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.48837209302325579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>0.48837209302325579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>0.48888888888888887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0.61904761904761907</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.45714285714285713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>0.45714285714285713</v>
+        <v>0.51063829787234039</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2022,14 +2069,14 @@
         <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>0.51063829787234039</v>
+        <v>0.51111111111111107</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2037,14 +2084,14 @@
         <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>0.51111111111111107</v>
+        <v>0.61764705882352944</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2052,14 +2099,14 @@
         <v>20</v>
       </c>
       <c r="B19" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
         <v>21</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>0.61764705882352944</v>
+        <v>0.51219512195121952</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2067,14 +2114,14 @@
         <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>0.51219512195121952</v>
+        <v>0.51282051282051277</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2097,14 +2144,14 @@
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>0.51282051282051277</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2112,14 +2159,14 @@
         <v>24</v>
       </c>
       <c r="B23" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>0.6428571428571429</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2127,14 +2174,14 @@
         <v>25</v>
       </c>
       <c r="B24" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.79069767441860461</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2142,14 +2189,14 @@
         <v>26</v>
       </c>
       <c r="B25" s="2">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>0.79069767441860461</v>
+        <v>0.86956521739130432</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2157,14 +2204,14 @@
         <v>27</v>
       </c>
       <c r="B26" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>0.86956521739130432</v>
+        <v>0.86206896551724133</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2172,14 +2219,14 @@
         <v>28</v>
       </c>
       <c r="B27" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>0.86206896551724133</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2190,11 +2237,11 @@
         <v>24</v>
       </c>
       <c r="C28" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2202,14 +2249,14 @@
         <v>30</v>
       </c>
       <c r="B29" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
+        <v>0.92592592592592593</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2217,14 +2264,14 @@
         <v>31</v>
       </c>
       <c r="B30" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="0"/>
-        <v>0.92592592592592593</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2232,14 +2279,14 @@
         <v>32</v>
       </c>
       <c r="B31" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.82857142857142863</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2247,14 +2294,14 @@
         <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>0.82857142857142863</v>
+        <v>0.80769230769230771</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2265,11 +2312,11 @@
         <v>26</v>
       </c>
       <c r="C33" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="0"/>
-        <v>0.80769230769230771</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2280,11 +2327,11 @@
         <v>26</v>
       </c>
       <c r="C34" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="0"/>
-        <v>0.84615384615384615</v>
+        <v>0.88461538461538458</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2292,14 +2339,14 @@
         <v>36</v>
       </c>
       <c r="B35" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="0"/>
-        <v>0.88461538461538458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2307,14 +2354,14 @@
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2322,14 +2369,14 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.93939393939393945</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2337,14 +2384,14 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" si="0"/>
-        <v>0.93939393939393945</v>
+        <v>0.82051282051282048</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2352,14 +2399,14 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
-        <v>0.82051282051282048</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2367,14 +2414,14 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C40" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="0"/>
-        <v>0.76923076923076927</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,14 +2429,14 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
+        <v>33</v>
+      </c>
+      <c r="C41" s="2">
         <v>28</v>
-      </c>
-      <c r="C41" s="2">
-        <v>24</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.84848484848484851</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2397,14 +2444,14 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C42" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="0"/>
-        <v>0.84848484848484851</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2412,14 +2459,14 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="0"/>
-        <v>0.96153846153846156</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2427,14 +2474,14 @@
         <v>45</v>
       </c>
       <c r="B44" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" s="2">
         <v>31</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="0"/>
-        <v>0.86111111111111116</v>
+        <v>0.91176470588235292</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2442,19 +2489,19 @@
         <v>46</v>
       </c>
       <c r="B45" s="2">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2">
         <v>34</v>
-      </c>
-      <c r="C45" s="2">
-        <v>31</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="0"/>
-        <v>0.91176470588235292</v>
+        <v>0.82926829268292679</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
         <v>41</v>
@@ -2469,17 +2516,17 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C47" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="0"/>
-        <v>0.82926829268292679</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2487,14 +2534,14 @@
         <v>49</v>
       </c>
       <c r="B48" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C48" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2502,14 +2549,14 @@
         <v>50</v>
       </c>
       <c r="B49" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C49" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
+        <v>0.84848484848484851</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2517,14 +2564,14 @@
         <v>51</v>
       </c>
       <c r="B50" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C50" s="2">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="0"/>
-        <v>0.84848484848484851</v>
+        <v>0.90476190476190477</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2532,14 +2579,14 @@
         <v>52</v>
       </c>
       <c r="B51" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C51" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="0"/>
-        <v>0.90476190476190477</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2547,14 +2594,14 @@
         <v>53</v>
       </c>
       <c r="B52" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C52" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>0.89655172413793105</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2562,14 +2609,14 @@
         <v>54</v>
       </c>
       <c r="B53" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="0"/>
-        <v>0.89655172413793105</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2577,14 +2624,14 @@
         <v>55</v>
       </c>
       <c r="B54" s="2">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C54" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" si="0"/>
-        <v>0.88372093023255816</v>
+        <v>0.80645161290322576</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2592,14 +2639,14 @@
         <v>56</v>
       </c>
       <c r="B55" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C55" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="0"/>
-        <v>0.80645161290322576</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2607,14 +2654,14 @@
         <v>57</v>
       </c>
       <c r="B56" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C56" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="0"/>
-        <v>0.94117647058823528</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2622,14 +2669,14 @@
         <v>58</v>
       </c>
       <c r="B57" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C57" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" si="0"/>
-        <v>0.90625</v>
+        <v>0.93939393939393945</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2637,14 +2684,14 @@
         <v>59</v>
       </c>
       <c r="B58" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C58" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" si="0"/>
-        <v>0.93939393939393945</v>
+        <v>0.91428571428571426</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2652,14 +2699,14 @@
         <v>60</v>
       </c>
       <c r="B59" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C59" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" si="0"/>
-        <v>0.91428571428571426</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2667,14 +2714,14 @@
         <v>61</v>
       </c>
       <c r="B60" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C60" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" si="0"/>
-        <v>0.86111111111111116</v>
+        <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2682,14 +2729,14 @@
         <v>62</v>
       </c>
       <c r="B61" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C61" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" si="0"/>
-        <v>0.89473684210526316</v>
+        <v>0.93548387096774188</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2697,14 +2744,14 @@
         <v>63</v>
       </c>
       <c r="B62" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C62" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" si="0"/>
-        <v>0.93548387096774188</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2712,14 +2759,14 @@
         <v>64</v>
       </c>
       <c r="B63" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C63" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" si="0"/>
-        <v>0.9642857142857143</v>
+        <v>0.86842105263157898</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2727,14 +2774,14 @@
         <v>65</v>
       </c>
       <c r="B64" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C64" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" si="0"/>
-        <v>0.86842105263157898</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2742,14 +2789,14 @@
         <v>66</v>
       </c>
       <c r="B65" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C65" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D65" s="3">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.93939393939393945</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2757,14 +2804,14 @@
         <v>67</v>
       </c>
       <c r="B66" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" si="0"/>
-        <v>0.93939393939393945</v>
+        <v>0.91489361702127658</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2772,14 +2819,14 @@
         <v>68</v>
       </c>
       <c r="B67" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C67" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D67" s="3">
         <f t="shared" si="0"/>
-        <v>0.91489361702127658</v>
+        <v>0.94871794871794868</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2787,14 +2834,14 @@
         <v>69</v>
       </c>
       <c r="B68" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D68" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94871794871794868</v>
+        <f t="shared" ref="D68:D131" si="1">C68/B68</f>
+        <v>0.93939393939393945</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2802,14 +2849,14 @@
         <v>70</v>
       </c>
       <c r="B69" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C69" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D69" s="3">
-        <f t="shared" ref="D69:D132" si="1">C69/B69</f>
-        <v>0.93939393939393945</v>
+        <f t="shared" si="1"/>
+        <v>0.93548387096774188</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2817,14 +2864,14 @@
         <v>71</v>
       </c>
       <c r="B70" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C70" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70" s="3">
         <f t="shared" si="1"/>
-        <v>0.93548387096774188</v>
+        <v>0.96551724137931039</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2832,14 +2879,14 @@
         <v>72</v>
       </c>
       <c r="B71" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D71" s="3">
         <f t="shared" si="1"/>
-        <v>0.96551724137931039</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2847,14 +2894,14 @@
         <v>73</v>
       </c>
       <c r="B72" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C72" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D72" s="3">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.96969696969696972</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2862,14 +2909,14 @@
         <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D73" s="3">
         <f t="shared" si="1"/>
-        <v>0.96969696969696972</v>
+        <v>0.95238095238095233</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2877,14 +2924,14 @@
         <v>75</v>
       </c>
       <c r="B74" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D74" s="3">
         <f t="shared" si="1"/>
-        <v>0.95238095238095233</v>
+        <v>0.92682926829268297</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2892,14 +2939,14 @@
         <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C75" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D75" s="3">
         <f t="shared" si="1"/>
-        <v>0.92682926829268297</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2907,14 +2954,14 @@
         <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C76" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76" s="3">
         <f t="shared" si="1"/>
-        <v>0.94117647058823528</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2922,14 +2969,14 @@
         <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C77" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D77" s="3">
         <f t="shared" si="1"/>
-        <v>0.96875</v>
+        <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2937,14 +2984,14 @@
         <v>79</v>
       </c>
       <c r="B78" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C78" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D78" s="3">
         <f t="shared" si="1"/>
-        <v>0.94736842105263153</v>
+        <v>0.88571428571428568</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2952,14 +2999,14 @@
         <v>80</v>
       </c>
       <c r="B79" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C79" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D79" s="3">
         <f t="shared" si="1"/>
-        <v>0.88571428571428568</v>
+        <v>0.87179487179487181</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2967,14 +3014,14 @@
         <v>81</v>
       </c>
       <c r="B80" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D80" s="3">
         <f t="shared" si="1"/>
-        <v>0.87179487179487181</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2982,14 +3029,14 @@
         <v>82</v>
       </c>
       <c r="B81" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C81" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D81" s="3">
         <f t="shared" si="1"/>
-        <v>0.9375</v>
+        <v>0.97368421052631582</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2997,14 +3044,14 @@
         <v>83</v>
       </c>
       <c r="B82" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C82" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D82" s="3">
         <f t="shared" si="1"/>
-        <v>0.97368421052631582</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3012,14 +3059,14 @@
         <v>84</v>
       </c>
       <c r="B83" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C83" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D83" s="3">
         <f t="shared" si="1"/>
-        <v>0.96875</v>
+        <v>0.93548387096774188</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3027,14 +3074,14 @@
         <v>85</v>
       </c>
       <c r="B84" s="2">
+        <v>34</v>
+      </c>
+      <c r="C84" s="2">
         <v>31</v>
-      </c>
-      <c r="C84" s="2">
-        <v>29</v>
       </c>
       <c r="D84" s="3">
         <f t="shared" si="1"/>
-        <v>0.93548387096774188</v>
+        <v>0.91176470588235292</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -3042,14 +3089,14 @@
         <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D85" s="3">
         <f t="shared" si="1"/>
-        <v>0.91176470588235292</v>
+        <v>0.94285714285714284</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3057,14 +3104,14 @@
         <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C86" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D86" s="3">
         <f t="shared" si="1"/>
-        <v>0.94285714285714284</v>
+        <v>0.91111111111111109</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -3072,14 +3119,14 @@
         <v>88</v>
       </c>
       <c r="B87" s="2">
+        <v>50</v>
+      </c>
+      <c r="C87" s="2">
         <v>45</v>
-      </c>
-      <c r="C87" s="2">
-        <v>41</v>
       </c>
       <c r="D87" s="3">
         <f t="shared" si="1"/>
-        <v>0.91111111111111109</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3087,14 +3134,14 @@
         <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C88" s="2">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D88" s="3">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.86486486486486491</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -3102,14 +3149,14 @@
         <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C89" s="2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D89" s="3">
         <f t="shared" si="1"/>
-        <v>0.86486486486486491</v>
+        <v>0.93103448275862066</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -3117,14 +3164,14 @@
         <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C90" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D90" s="3">
         <f t="shared" si="1"/>
-        <v>0.93103448275862066</v>
+        <v>0.96969696969696972</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3132,14 +3179,14 @@
         <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C91" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D91" s="3">
         <f t="shared" si="1"/>
-        <v>0.96969696969696972</v>
+        <v>0.97222222222222221</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -3147,14 +3194,14 @@
         <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C92" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D92" s="3">
         <f t="shared" si="1"/>
-        <v>0.97222222222222221</v>
+        <v>0.95238095238095233</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3162,14 +3209,14 @@
         <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C93" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D93" s="3">
         <f t="shared" si="1"/>
-        <v>0.95238095238095233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3177,14 +3224,14 @@
         <v>95</v>
       </c>
       <c r="B94" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D94" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.95081967213114749</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3192,14 +3239,14 @@
         <v>96</v>
       </c>
       <c r="B95" s="2">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C95" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D95" s="3">
         <f t="shared" si="1"/>
-        <v>0.95081967213114749</v>
+        <v>0.98181818181818181</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3207,14 +3254,14 @@
         <v>97</v>
       </c>
       <c r="B96" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C96" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D96" s="3">
         <f t="shared" si="1"/>
-        <v>0.98181818181818181</v>
+        <v>0.95348837209302328</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3222,14 +3269,14 @@
         <v>98</v>
       </c>
       <c r="B97" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D97" s="3">
         <f t="shared" si="1"/>
-        <v>0.95348837209302328</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3237,14 +3284,14 @@
         <v>99</v>
       </c>
       <c r="B98" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C98" s="2">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D98" s="3">
         <f t="shared" si="1"/>
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -3252,14 +3299,14 @@
         <v>100</v>
       </c>
       <c r="B99" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C99" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D99" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3282,14 +3329,14 @@
         <v>102</v>
       </c>
       <c r="B101" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C101" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D101" s="3">
         <f t="shared" si="1"/>
-        <v>0.91666666666666663</v>
+        <v>0.98113207547169812</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3297,14 +3344,14 @@
         <v>103</v>
       </c>
       <c r="B102" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C102" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D102" s="3">
         <f t="shared" si="1"/>
-        <v>0.98113207547169812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3312,14 +3359,14 @@
         <v>104</v>
       </c>
       <c r="B103" s="2">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C103" s="2">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D103" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -3327,14 +3374,14 @@
         <v>105</v>
       </c>
       <c r="B104" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C104" s="2">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D104" s="3">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -3342,10 +3389,10 @@
         <v>106</v>
       </c>
       <c r="B105" s="2">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D105" s="3">
         <f t="shared" si="1"/>
@@ -3360,11 +3407,11 @@
         <v>47</v>
       </c>
       <c r="C106" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D106" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97872340425531912</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -3372,14 +3419,14 @@
         <v>108</v>
       </c>
       <c r="B107" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D107" s="3">
         <f t="shared" si="1"/>
-        <v>0.97872340425531912</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -3387,14 +3434,14 @@
         <v>109</v>
       </c>
       <c r="B108" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D108" s="3">
         <f t="shared" si="1"/>
-        <v>0.94117647058823528</v>
+        <v>0.94339622641509435</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -3402,14 +3449,14 @@
         <v>110</v>
       </c>
       <c r="B109" s="2">
+        <v>54</v>
+      </c>
+      <c r="C109" s="2">
         <v>53</v>
-      </c>
-      <c r="C109" s="2">
-        <v>50</v>
       </c>
       <c r="D109" s="3">
         <f t="shared" si="1"/>
-        <v>0.94339622641509435</v>
+        <v>0.98148148148148151</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -3417,14 +3464,14 @@
         <v>111</v>
       </c>
       <c r="B110" s="2">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C110" s="2">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D110" s="3">
         <f t="shared" si="1"/>
-        <v>0.98148148148148151</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3432,14 +3479,14 @@
         <v>112</v>
       </c>
       <c r="B111" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D111" s="3">
         <f t="shared" si="1"/>
-        <v>0.97499999999999998</v>
+        <v>0.90740740740740744</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3447,14 +3494,14 @@
         <v>113</v>
       </c>
       <c r="B112" s="2">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D112" s="3">
         <f t="shared" si="1"/>
-        <v>0.90740740740740744</v>
+        <v>0.95918367346938771</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -3462,14 +3509,14 @@
         <v>114</v>
       </c>
       <c r="B113" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C113" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D113" s="3">
         <f t="shared" si="1"/>
-        <v>0.95918367346938771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3477,14 +3524,14 @@
         <v>115</v>
       </c>
       <c r="B114" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C114" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D114" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -3492,14 +3539,14 @@
         <v>116</v>
       </c>
       <c r="B115" s="2">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D115" s="3">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.91803278688524592</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3507,14 +3554,14 @@
         <v>117</v>
       </c>
       <c r="B116" s="2">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C116" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D116" s="3">
         <f t="shared" si="1"/>
-        <v>0.91803278688524592</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3522,14 +3569,14 @@
         <v>118</v>
       </c>
       <c r="B117" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C117" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D117" s="3">
         <f t="shared" si="1"/>
-        <v>0.95833333333333337</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3537,14 +3584,14 @@
         <v>119</v>
       </c>
       <c r="B118" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2">
         <v>47</v>
       </c>
       <c r="D118" s="3">
         <f t="shared" si="1"/>
-        <v>0.94</v>
+        <v>0.92156862745098034</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -3552,14 +3599,14 @@
         <v>120</v>
       </c>
       <c r="B119" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C119" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D119" s="3">
         <f t="shared" si="1"/>
-        <v>0.92156862745098034</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3567,14 +3614,14 @@
         <v>121</v>
       </c>
       <c r="B120" s="2">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C120" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D120" s="3">
         <f t="shared" si="1"/>
-        <v>0.9285714285714286</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3582,14 +3629,14 @@
         <v>122</v>
       </c>
       <c r="B121" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D121" s="3">
         <f t="shared" si="1"/>
-        <v>0.86</v>
+        <v>0.92982456140350878</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3597,14 +3644,14 @@
         <v>123</v>
       </c>
       <c r="B122" s="2">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C122" s="2">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D122" s="3">
         <f t="shared" si="1"/>
-        <v>0.92982456140350878</v>
+        <v>0.93650793650793651</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3612,14 +3659,14 @@
         <v>124</v>
       </c>
       <c r="B123" s="2">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C123" s="2">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D123" s="3">
         <f t="shared" si="1"/>
-        <v>0.93650793650793651</v>
+        <v>0.94230769230769229</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3627,14 +3674,14 @@
         <v>125</v>
       </c>
       <c r="B124" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C124" s="2">
         <v>49</v>
       </c>
       <c r="D124" s="3">
         <f t="shared" si="1"/>
-        <v>0.94230769230769229</v>
+        <v>0.90740740740740744</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3642,14 +3689,14 @@
         <v>126</v>
       </c>
       <c r="B125" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2">
         <v>49</v>
       </c>
       <c r="D125" s="3">
         <f t="shared" si="1"/>
-        <v>0.90740740740740744</v>
+        <v>0.92452830188679247</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3660,11 +3707,11 @@
         <v>53</v>
       </c>
       <c r="C126" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D126" s="3">
         <f t="shared" si="1"/>
-        <v>0.92452830188679247</v>
+        <v>0.84905660377358494</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3672,14 +3719,14 @@
         <v>128</v>
       </c>
       <c r="B127" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D127" s="3">
         <f t="shared" si="1"/>
-        <v>0.84905660377358494</v>
+        <v>0.82456140350877194</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3687,14 +3734,14 @@
         <v>129</v>
       </c>
       <c r="B128" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C128" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D128" s="3">
         <f t="shared" si="1"/>
-        <v>0.82456140350877194</v>
+        <v>0.89830508474576276</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3702,14 +3749,14 @@
         <v>130</v>
       </c>
       <c r="B129" s="2">
+        <v>64</v>
+      </c>
+      <c r="C129" s="2">
         <v>59</v>
-      </c>
-      <c r="C129" s="2">
-        <v>53</v>
       </c>
       <c r="D129" s="3">
         <f t="shared" si="1"/>
-        <v>0.89830508474576276</v>
+        <v>0.921875</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3732,14 +3779,14 @@
         <v>132</v>
       </c>
       <c r="B131" s="2">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D131" s="3">
         <f t="shared" si="1"/>
-        <v>0.921875</v>
+        <v>0.87037037037037035</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3747,14 +3794,14 @@
         <v>133</v>
       </c>
       <c r="B132" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D132" s="3">
-        <f t="shared" si="1"/>
-        <v>0.87037037037037035</v>
+        <f t="shared" ref="D132:D195" si="2">C132/B132</f>
+        <v>0.92982456140350878</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3762,14 +3809,14 @@
         <v>134</v>
       </c>
       <c r="B133" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C133" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D133" s="3">
-        <f t="shared" ref="D133:D196" si="2">C133/B133</f>
-        <v>0.92982456140350878</v>
+        <f t="shared" si="2"/>
+        <v>0.9152542372881356</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3777,14 +3824,14 @@
         <v>135</v>
       </c>
       <c r="B134" s="2">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C134" s="2">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D134" s="3">
         <f t="shared" si="2"/>
-        <v>0.9152542372881356</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3792,14 +3839,14 @@
         <v>136</v>
       </c>
       <c r="B135" s="2">
+        <v>50</v>
+      </c>
+      <c r="C135" s="2">
         <v>48</v>
-      </c>
-      <c r="C135" s="2">
-        <v>46</v>
       </c>
       <c r="D135" s="3">
         <f t="shared" si="2"/>
-        <v>0.95833333333333337</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3807,14 +3854,14 @@
         <v>137</v>
       </c>
       <c r="B136" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C136" s="2">
         <v>48</v>
       </c>
       <c r="D136" s="3">
         <f t="shared" si="2"/>
-        <v>0.96</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3822,14 +3869,14 @@
         <v>138</v>
       </c>
       <c r="B137" s="2">
+        <v>58</v>
+      </c>
+      <c r="C137" s="2">
         <v>52</v>
-      </c>
-      <c r="C137" s="2">
-        <v>48</v>
       </c>
       <c r="D137" s="3">
         <f t="shared" si="2"/>
-        <v>0.92307692307692313</v>
+        <v>0.89655172413793105</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3837,14 +3884,14 @@
         <v>139</v>
       </c>
       <c r="B138" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C138" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D138" s="3">
         <f t="shared" si="2"/>
-        <v>0.89655172413793105</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -3852,14 +3899,14 @@
         <v>140</v>
       </c>
       <c r="B139" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C139" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D139" s="3">
         <f t="shared" si="2"/>
-        <v>0.94117647058823528</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -3867,14 +3914,14 @@
         <v>141</v>
       </c>
       <c r="B140" s="2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C140" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D140" s="3">
         <f t="shared" si="2"/>
-        <v>0.91666666666666663</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -3882,14 +3929,14 @@
         <v>142</v>
       </c>
       <c r="B141" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C141" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D141" s="3">
         <f t="shared" si="2"/>
-        <v>0.9285714285714286</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -3897,14 +3944,14 @@
         <v>143</v>
       </c>
       <c r="B142" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C142" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D142" s="3">
         <f t="shared" si="2"/>
-        <v>0.93333333333333335</v>
+        <v>0.88461538461538458</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -3912,14 +3959,14 @@
         <v>144</v>
       </c>
       <c r="B143" s="2">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C143" s="2">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D143" s="3">
         <f t="shared" si="2"/>
-        <v>0.88461538461538458</v>
+        <v>0.90140845070422537</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -3927,14 +3974,14 @@
         <v>145</v>
       </c>
       <c r="B144" s="2">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D144" s="3">
         <f t="shared" si="2"/>
-        <v>0.90140845070422537</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -3942,14 +3989,14 @@
         <v>146</v>
       </c>
       <c r="B145" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C145" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D145" s="3">
         <f t="shared" si="2"/>
-        <v>0.90909090909090906</v>
+        <v>0.93478260869565222</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -3957,14 +4004,14 @@
         <v>147</v>
       </c>
       <c r="B146" s="2">
+        <v>51</v>
+      </c>
+      <c r="C146" s="2">
         <v>46</v>
-      </c>
-      <c r="C146" s="2">
-        <v>43</v>
       </c>
       <c r="D146" s="3">
         <f t="shared" si="2"/>
-        <v>0.93478260869565222</v>
+        <v>0.90196078431372551</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -3972,14 +4019,14 @@
         <v>148</v>
       </c>
       <c r="B147" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C147" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D147" s="3">
         <f t="shared" si="2"/>
-        <v>0.90196078431372551</v>
+        <v>0.94230769230769229</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -3987,14 +4034,14 @@
         <v>149</v>
       </c>
       <c r="B148" s="2">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C148" s="2">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D148" s="3">
         <f t="shared" si="2"/>
-        <v>0.94230769230769229</v>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -4002,14 +4049,14 @@
         <v>150</v>
       </c>
       <c r="B149" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C149" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D149" s="3">
         <f t="shared" si="2"/>
-        <v>0.97777777777777775</v>
+        <v>0.97727272727272729</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -4017,14 +4064,14 @@
         <v>151</v>
       </c>
       <c r="B150" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C150" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D150" s="3">
         <f t="shared" si="2"/>
-        <v>0.97727272727272729</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -4032,14 +4079,14 @@
         <v>152</v>
       </c>
       <c r="B151" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C151" s="2">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D151" s="3">
         <f t="shared" si="2"/>
-        <v>0.96153846153846156</v>
+        <v>0.98461538461538467</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -4047,14 +4094,14 @@
         <v>153</v>
       </c>
       <c r="B152" s="2">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C152" s="2">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D152" s="3">
         <f t="shared" si="2"/>
-        <v>0.98461538461538467</v>
+        <v>0.94871794871794868</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -4062,14 +4109,14 @@
         <v>154</v>
       </c>
       <c r="B153" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C153" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D153" s="3">
         <f t="shared" si="2"/>
-        <v>0.94871794871794868</v>
+        <v>0.97058823529411764</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -4077,14 +4124,14 @@
         <v>155</v>
       </c>
       <c r="B154" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C154" s="2">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D154" s="3">
         <f t="shared" si="2"/>
-        <v>0.97058823529411764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -4092,14 +4139,14 @@
         <v>156</v>
       </c>
       <c r="B155" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C155" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D155" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -4107,14 +4154,14 @@
         <v>157</v>
       </c>
       <c r="B156" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C156" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D156" s="3">
         <f t="shared" si="2"/>
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -4122,14 +4169,14 @@
         <v>158</v>
       </c>
       <c r="B157" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C157" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D157" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.97727272727272729</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -4137,14 +4184,14 @@
         <v>159</v>
       </c>
       <c r="B158" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C158" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D158" s="3">
         <f t="shared" si="2"/>
-        <v>0.97727272727272729</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -4152,14 +4199,14 @@
         <v>160</v>
       </c>
       <c r="B159" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C159" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D159" s="3">
         <f t="shared" si="2"/>
-        <v>0.96153846153846156</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -4167,14 +4214,14 @@
         <v>161</v>
       </c>
       <c r="B160" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C160" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D160" s="3">
         <f t="shared" si="2"/>
-        <v>0.96</v>
+        <v>0.96078431372549022</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -4182,14 +4229,14 @@
         <v>162</v>
       </c>
       <c r="B161" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C161" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D161" s="3">
         <f t="shared" si="2"/>
-        <v>0.96078431372549022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -4197,14 +4244,14 @@
         <v>163</v>
       </c>
       <c r="B162" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C162" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D162" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.95454545454545459</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -4212,14 +4259,14 @@
         <v>164</v>
       </c>
       <c r="B163" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C163" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D163" s="3">
         <f t="shared" si="2"/>
-        <v>0.95454545454545459</v>
+        <v>0.96226415094339623</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -4227,14 +4274,14 @@
         <v>165</v>
       </c>
       <c r="B164" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C164" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D164" s="3">
         <f t="shared" si="2"/>
-        <v>0.96226415094339623</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -4257,14 +4304,14 @@
         <v>167</v>
       </c>
       <c r="B166" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C166" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D166" s="3">
         <f t="shared" si="2"/>
-        <v>0.96153846153846156</v>
+        <v>0.97674418604651159</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -4272,14 +4319,14 @@
         <v>168</v>
       </c>
       <c r="B167" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C167" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D167" s="3">
         <f t="shared" si="2"/>
-        <v>0.97674418604651159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -4287,14 +4334,14 @@
         <v>169</v>
       </c>
       <c r="B168" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C168" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D168" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -4305,11 +4352,11 @@
         <v>50</v>
       </c>
       <c r="C169" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D169" s="3">
         <f t="shared" si="2"/>
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -4317,14 +4364,14 @@
         <v>171</v>
       </c>
       <c r="B170" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C170" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D170" s="3">
         <f t="shared" si="2"/>
-        <v>0.98</v>
+        <v>0.98076923076923073</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -4332,14 +4379,14 @@
         <v>172</v>
       </c>
       <c r="B171" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C171" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D171" s="3">
         <f t="shared" si="2"/>
-        <v>0.98076923076923073</v>
+        <v>0.92982456140350878</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -4347,14 +4394,14 @@
         <v>173</v>
       </c>
       <c r="B172" s="2">
+        <v>58</v>
+      </c>
+      <c r="C172" s="2">
         <v>57</v>
-      </c>
-      <c r="C172" s="2">
-        <v>53</v>
       </c>
       <c r="D172" s="3">
         <f t="shared" si="2"/>
-        <v>0.92982456140350878</v>
+        <v>0.98275862068965514</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -4362,14 +4409,14 @@
         <v>174</v>
       </c>
       <c r="B173" s="2">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C173" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D173" s="3">
         <f t="shared" si="2"/>
-        <v>0.98275862068965514</v>
+        <v>0.93617021276595747</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -4377,14 +4424,14 @@
         <v>175</v>
       </c>
       <c r="B174" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C174" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D174" s="3">
         <f t="shared" si="2"/>
-        <v>0.93617021276595747</v>
+        <v>0.93181818181818177</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -4392,14 +4439,14 @@
         <v>176</v>
       </c>
       <c r="B175" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C175" s="2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D175" s="3">
         <f t="shared" si="2"/>
-        <v>0.93181818181818177</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -4407,14 +4454,14 @@
         <v>177</v>
       </c>
       <c r="B176" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C176" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D176" s="3">
         <f t="shared" si="2"/>
-        <v>0.58823529411764708</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -4422,14 +4469,14 @@
         <v>178</v>
       </c>
       <c r="B177" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C177" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D177" s="3">
         <f t="shared" si="2"/>
-        <v>0.8928571428571429</v>
+        <v>0.91379310344827591</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -4437,14 +4484,14 @@
         <v>179</v>
       </c>
       <c r="B178" s="2">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C178" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D178" s="3">
         <f t="shared" si="2"/>
-        <v>0.91379310344827591</v>
+        <v>0.9538461538461539</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -4452,14 +4499,14 @@
         <v>180</v>
       </c>
       <c r="B179" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C179" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D179" s="3">
         <f t="shared" si="2"/>
-        <v>0.9538461538461539</v>
+        <v>0.95522388059701491</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -4467,14 +4514,14 @@
         <v>181</v>
       </c>
       <c r="B180" s="2">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C180" s="2">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D180" s="3">
         <f t="shared" si="2"/>
-        <v>0.95522388059701491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -4482,14 +4529,14 @@
         <v>182</v>
       </c>
       <c r="B181" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C181" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D181" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.90740740740740744</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -4497,14 +4544,14 @@
         <v>183</v>
       </c>
       <c r="B182" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C182" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D182" s="3">
         <f t="shared" si="2"/>
-        <v>0.90740740740740744</v>
+        <v>0.94339622641509435</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -4512,14 +4559,14 @@
         <v>184</v>
       </c>
       <c r="B183" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C183" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D183" s="3">
         <f t="shared" si="2"/>
-        <v>0.94339622641509435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -4527,14 +4574,14 @@
         <v>185</v>
       </c>
       <c r="B184" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C184" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D184" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -4542,14 +4589,14 @@
         <v>186</v>
       </c>
       <c r="B185" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C185" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D185" s="3">
         <f t="shared" si="2"/>
-        <v>0.9555555555555556</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -4557,14 +4604,14 @@
         <v>187</v>
       </c>
       <c r="B186" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C186" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D186" s="3">
         <f t="shared" si="2"/>
-        <v>0.9642857142857143</v>
+        <v>0.95161290322580649</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -4572,14 +4619,14 @@
         <v>188</v>
       </c>
       <c r="B187" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C187" s="2">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D187" s="3">
         <f t="shared" si="2"/>
-        <v>0.95161290322580649</v>
+        <v>0.97619047619047616</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -4587,14 +4634,14 @@
         <v>189</v>
       </c>
       <c r="B188" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C188" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D188" s="3">
         <f t="shared" si="2"/>
-        <v>0.97619047619047616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -4602,14 +4649,14 @@
         <v>190</v>
       </c>
       <c r="B189" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C189" s="2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D189" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.94915254237288138</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -4617,14 +4664,14 @@
         <v>191</v>
       </c>
       <c r="B190" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C190" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D190" s="3">
         <f t="shared" si="2"/>
-        <v>0.94915254237288138</v>
+        <v>0.96491228070175439</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -4632,14 +4679,14 @@
         <v>192</v>
       </c>
       <c r="B191" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C191" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D191" s="3">
         <f t="shared" si="2"/>
-        <v>0.96491228070175439</v>
+        <v>0.95652173913043481</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -4647,14 +4694,14 @@
         <v>193</v>
       </c>
       <c r="B192" s="2">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C192" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D192" s="3">
         <f t="shared" si="2"/>
-        <v>0.95652173913043481</v>
+        <v>0.96923076923076923</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -4662,14 +4709,14 @@
         <v>194</v>
       </c>
       <c r="B193" s="2">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C193" s="2">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D193" s="3">
         <f t="shared" si="2"/>
-        <v>0.96923076923076923</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -4677,14 +4724,14 @@
         <v>195</v>
       </c>
       <c r="B194" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C194" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D194" s="3">
         <f t="shared" si="2"/>
-        <v>0.9642857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -4692,14 +4739,14 @@
         <v>196</v>
       </c>
       <c r="B195" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C195" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D195" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.96226415094339623</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -4707,14 +4754,14 @@
         <v>197</v>
       </c>
       <c r="B196" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C196" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D196" s="3">
-        <f t="shared" si="2"/>
-        <v>0.96226415094339623</v>
+        <f t="shared" ref="D196:D259" si="3">C196/B196</f>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -4722,14 +4769,14 @@
         <v>198</v>
       </c>
       <c r="B197" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C197" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D197" s="3">
-        <f t="shared" ref="D197:D260" si="3">C197/B197</f>
-        <v>0.9285714285714286</v>
+        <f t="shared" si="3"/>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -4737,14 +4784,14 @@
         <v>199</v>
       </c>
       <c r="B198" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C198" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D198" s="3">
         <f t="shared" si="3"/>
-        <v>0.9555555555555556</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -4752,14 +4799,14 @@
         <v>200</v>
       </c>
       <c r="B199" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C199" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D199" s="3">
         <f t="shared" si="3"/>
-        <v>0.95833333333333337</v>
+        <v>0.92156862745098034</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -4767,14 +4814,14 @@
         <v>201</v>
       </c>
       <c r="B200" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C200" s="2">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D200" s="3">
         <f t="shared" si="3"/>
-        <v>0.92156862745098034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -4782,14 +4829,14 @@
         <v>202</v>
       </c>
       <c r="B201" s="2">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C201" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D201" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.93617021276595747</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -4797,14 +4844,14 @@
         <v>203</v>
       </c>
       <c r="B202" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C202" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D202" s="3">
         <f t="shared" si="3"/>
-        <v>0.93617021276595747</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -4815,11 +4862,11 @@
         <v>48</v>
       </c>
       <c r="C203" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D203" s="3">
         <f t="shared" si="3"/>
-        <v>0.89583333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -4827,14 +4874,14 @@
         <v>205</v>
       </c>
       <c r="B204" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C204" s="2">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D204" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -4842,14 +4889,14 @@
         <v>206</v>
       </c>
       <c r="B205" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C205" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D205" s="3">
         <f t="shared" si="3"/>
-        <v>0.9555555555555556</v>
+        <v>0.95454545454545459</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -4857,14 +4904,14 @@
         <v>207</v>
       </c>
       <c r="B206" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C206" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D206" s="3">
         <f t="shared" si="3"/>
-        <v>0.95454545454545459</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -4875,11 +4922,11 @@
         <v>55</v>
       </c>
       <c r="C207" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D207" s="3">
         <f t="shared" si="3"/>
-        <v>0.90909090909090906</v>
+        <v>0.96363636363636362</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -4887,14 +4934,14 @@
         <v>209</v>
       </c>
       <c r="B208" s="2">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C208" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D208" s="3">
         <f t="shared" si="3"/>
-        <v>0.96363636363636362</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -4902,14 +4949,14 @@
         <v>210</v>
       </c>
       <c r="B209" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C209" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D209" s="3">
         <f t="shared" si="3"/>
-        <v>0.96875</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -4917,14 +4964,14 @@
         <v>211</v>
       </c>
       <c r="B210" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C210" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D210" s="3">
         <f t="shared" si="3"/>
-        <v>0.9285714285714286</v>
+        <v>0.95348837209302328</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -4947,14 +4994,14 @@
         <v>213</v>
       </c>
       <c r="B212" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C212" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D212" s="3">
         <f t="shared" si="3"/>
-        <v>0.95348837209302328</v>
+        <v>0.91836734693877553</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -4962,14 +5009,14 @@
         <v>214</v>
       </c>
       <c r="B213" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C213" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D213" s="3">
         <f t="shared" si="3"/>
-        <v>0.91836734693877553</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -4977,14 +5024,14 @@
         <v>215</v>
       </c>
       <c r="B214" s="2">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C214" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D214" s="3">
         <f t="shared" si="3"/>
-        <v>0.95833333333333337</v>
+        <v>0.96551724137931039</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -4992,14 +5039,14 @@
         <v>216</v>
       </c>
       <c r="B215" s="2">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C215" s="2">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D215" s="3">
         <f t="shared" si="3"/>
-        <v>0.96551724137931039</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -5007,14 +5054,14 @@
         <v>217</v>
       </c>
       <c r="B216" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C216" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D216" s="3">
         <f t="shared" si="3"/>
-        <v>0.97499999999999998</v>
+        <v>0.97959183673469385</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -5022,14 +5069,14 @@
         <v>218</v>
       </c>
       <c r="B217" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C217" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D217" s="3">
         <f t="shared" si="3"/>
-        <v>0.97959183673469385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -5037,14 +5084,14 @@
         <v>219</v>
       </c>
       <c r="B218" s="2">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C218" s="2">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D218" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.97297297297297303</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -5052,14 +5099,14 @@
         <v>220</v>
       </c>
       <c r="B219" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C219" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D219" s="3">
         <f t="shared" si="3"/>
-        <v>0.97297297297297303</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -5067,14 +5114,14 @@
         <v>221</v>
       </c>
       <c r="B220" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C220" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D220" s="3">
         <f t="shared" si="3"/>
-        <v>0.95833333333333337</v>
+        <v>0.94915254237288138</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -5082,14 +5129,14 @@
         <v>222</v>
       </c>
       <c r="B221" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C221" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D221" s="3">
         <f t="shared" si="3"/>
-        <v>0.94915254237288138</v>
+        <v>0.94827586206896552</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -5097,14 +5144,14 @@
         <v>223</v>
       </c>
       <c r="B222" s="2">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C222" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D222" s="3">
         <f t="shared" si="3"/>
-        <v>0.94827586206896552</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -5112,14 +5159,14 @@
         <v>224</v>
       </c>
       <c r="B223" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C223" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D223" s="3">
         <f t="shared" si="3"/>
-        <v>0.85416666666666663</v>
+        <v>0.97727272727272729</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -5127,14 +5174,14 @@
         <v>225</v>
       </c>
       <c r="B224" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C224" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D224" s="3">
         <f t="shared" si="3"/>
-        <v>0.97727272727272729</v>
+        <v>0.94230769230769229</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -5142,14 +5189,14 @@
         <v>226</v>
       </c>
       <c r="B225" s="2">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C225" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D225" s="3">
         <f t="shared" si="3"/>
-        <v>0.94230769230769229</v>
+        <v>0.91836734693877553</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -5157,14 +5204,14 @@
         <v>227</v>
       </c>
       <c r="B226" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C226" s="2">
         <v>45</v>
       </c>
       <c r="D226" s="3">
         <f t="shared" si="3"/>
-        <v>0.91836734693877553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -5172,14 +5219,14 @@
         <v>228</v>
       </c>
       <c r="B227" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C227" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D227" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.96226415094339623</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -5187,14 +5234,14 @@
         <v>229</v>
       </c>
       <c r="B228" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C228" s="2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D228" s="3">
         <f t="shared" si="3"/>
-        <v>0.96226415094339623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -5202,14 +5249,14 @@
         <v>230</v>
       </c>
       <c r="B229" s="2">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C229" s="2">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D229" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -5220,11 +5267,11 @@
         <v>51</v>
       </c>
       <c r="C230" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D230" s="3">
         <f t="shared" si="3"/>
-        <v>0.94117647058823528</v>
+        <v>0.98039215686274506</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -5232,14 +5279,14 @@
         <v>232</v>
       </c>
       <c r="B231" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C231" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D231" s="3">
         <f t="shared" si="3"/>
-        <v>0.98039215686274506</v>
+        <v>0.93877551020408168</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -5247,14 +5294,14 @@
         <v>233</v>
       </c>
       <c r="B232" s="2">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C232" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D232" s="3">
         <f t="shared" si="3"/>
-        <v>0.93877551020408168</v>
+        <v>0.97727272727272729</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -5262,14 +5309,14 @@
         <v>234</v>
       </c>
       <c r="B233" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C233" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D233" s="3">
         <f t="shared" si="3"/>
-        <v>0.97727272727272729</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -5277,14 +5324,14 @@
         <v>235</v>
       </c>
       <c r="B234" s="2">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C234" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D234" s="3">
         <f t="shared" si="3"/>
-        <v>0.96153846153846156</v>
+        <v>0.95652173913043481</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -5292,14 +5339,14 @@
         <v>236</v>
       </c>
       <c r="B235" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C235" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D235" s="3">
         <f t="shared" si="3"/>
-        <v>0.95652173913043481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -5307,10 +5354,10 @@
         <v>237</v>
       </c>
       <c r="B236" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C236" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D236" s="3">
         <f t="shared" si="3"/>
@@ -5322,14 +5369,14 @@
         <v>238</v>
       </c>
       <c r="B237" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C237" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D237" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -5337,14 +5384,14 @@
         <v>239</v>
       </c>
       <c r="B238" s="2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C238" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D238" s="3">
         <f t="shared" si="3"/>
-        <v>0.98</v>
+        <v>0.9821428571428571</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -5352,14 +5399,14 @@
         <v>240</v>
       </c>
       <c r="B239" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C239" s="2">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D239" s="3">
         <f t="shared" si="3"/>
-        <v>0.9821428571428571</v>
+        <v>0.70175438596491224</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -5367,14 +5414,14 @@
         <v>241</v>
       </c>
       <c r="B240" s="2">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C240" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D240" s="3">
         <f t="shared" si="3"/>
-        <v>0.70175438596491224</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -5382,14 +5429,14 @@
         <v>242</v>
       </c>
       <c r="B241" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C241" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D241" s="3">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.94339622641509435</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -5397,14 +5444,14 @@
         <v>243</v>
       </c>
       <c r="B242" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C242" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D242" s="3">
         <f t="shared" si="3"/>
-        <v>0.94339622641509435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -5412,14 +5459,14 @@
         <v>244</v>
       </c>
       <c r="B243" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C243" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D243" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.94871794871794868</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -5427,14 +5474,14 @@
         <v>245</v>
       </c>
       <c r="B244" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C244" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D244" s="3">
         <f t="shared" si="3"/>
-        <v>0.94871794871794868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -5442,14 +5489,14 @@
         <v>246</v>
       </c>
       <c r="B245" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C245" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D245" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.93478260869565222</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -5457,14 +5504,14 @@
         <v>247</v>
       </c>
       <c r="B246" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C246" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D246" s="3">
         <f t="shared" si="3"/>
-        <v>0.93478260869565222</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -5472,14 +5519,14 @@
         <v>248</v>
       </c>
       <c r="B247" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C247" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D247" s="3">
         <f t="shared" si="3"/>
-        <v>0.95</v>
+        <v>0.97872340425531912</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -5487,14 +5534,14 @@
         <v>249</v>
       </c>
       <c r="B248" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C248" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D248" s="3">
         <f t="shared" si="3"/>
-        <v>0.97872340425531912</v>
+        <v>0.98113207547169812</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -5502,14 +5549,14 @@
         <v>250</v>
       </c>
       <c r="B249" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C249" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D249" s="3">
         <f t="shared" si="3"/>
-        <v>0.98113207547169812</v>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -5517,14 +5564,14 @@
         <v>251</v>
       </c>
       <c r="B250" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C250" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D250" s="3">
         <f t="shared" si="3"/>
-        <v>0.9555555555555556</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -5532,14 +5579,14 @@
         <v>252</v>
       </c>
       <c r="B251" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C251" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D251" s="3">
         <f t="shared" si="3"/>
-        <v>0.92500000000000004</v>
+        <v>0.97959183673469385</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -5547,14 +5594,14 @@
         <v>253</v>
       </c>
       <c r="B252" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C252" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D252" s="3">
         <f t="shared" si="3"/>
-        <v>0.97959183673469385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -5562,10 +5609,10 @@
         <v>254</v>
       </c>
       <c r="B253" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C253" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D253" s="3">
         <f t="shared" si="3"/>
@@ -5577,14 +5624,14 @@
         <v>255</v>
       </c>
       <c r="B254" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C254" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D254" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.93877551020408168</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -5592,14 +5639,14 @@
         <v>256</v>
       </c>
       <c r="B255" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C255" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D255" s="3">
         <f t="shared" si="3"/>
-        <v>0.93877551020408168</v>
+        <v>0.90322580645161288</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -5607,14 +5654,14 @@
         <v>257</v>
       </c>
       <c r="B256" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C256" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D256" s="3">
         <f t="shared" si="3"/>
-        <v>0.90322580645161288</v>
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -5622,14 +5669,14 @@
         <v>258</v>
       </c>
       <c r="B257" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C257" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D257" s="3">
         <f t="shared" si="3"/>
-        <v>0.96666666666666667</v>
+        <v>0.953125</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -5637,14 +5684,14 @@
         <v>259</v>
       </c>
       <c r="B258" s="2">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C258" s="2">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D258" s="3">
         <f t="shared" si="3"/>
-        <v>0.953125</v>
+        <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -5652,14 +5699,14 @@
         <v>260</v>
       </c>
       <c r="B259" s="2">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C259" s="2">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D259" s="3">
         <f t="shared" si="3"/>
-        <v>0.94736842105263153</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -5667,14 +5714,14 @@
         <v>261</v>
       </c>
       <c r="B260" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C260" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D260" s="3">
-        <f t="shared" si="3"/>
-        <v>0.97916666666666663</v>
+        <f t="shared" ref="D260:D301" si="4">C260/B260</f>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -5682,14 +5729,14 @@
         <v>262</v>
       </c>
       <c r="B261" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C261" s="2">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D261" s="3">
-        <f t="shared" ref="D261:D289" si="4">C261/B261</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.9107142857142857</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -5697,14 +5744,14 @@
         <v>263</v>
       </c>
       <c r="B262" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C262" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D262" s="3">
         <f t="shared" si="4"/>
-        <v>0.9107142857142857</v>
+        <v>0.97368421052631582</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -5712,14 +5759,14 @@
         <v>264</v>
       </c>
       <c r="B263" s="2">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C263" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D263" s="3">
         <f t="shared" si="4"/>
-        <v>0.97368421052631582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -5727,14 +5774,14 @@
         <v>265</v>
       </c>
       <c r="B264" s="2">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C264" s="2">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D264" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.96296296296296291</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -5742,14 +5789,14 @@
         <v>266</v>
       </c>
       <c r="B265" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C265" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D265" s="3">
         <f t="shared" si="4"/>
-        <v>0.96296296296296291</v>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -5757,14 +5804,14 @@
         <v>267</v>
       </c>
       <c r="B266" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C266" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D266" s="3">
         <f t="shared" si="4"/>
-        <v>0.97777777777777775</v>
+        <v>0.93877551020408168</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -5772,14 +5819,14 @@
         <v>268</v>
       </c>
       <c r="B267" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C267" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D267" s="3">
         <f t="shared" si="4"/>
-        <v>0.93877551020408168</v>
+        <v>0.68627450980392157</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -5787,14 +5834,14 @@
         <v>269</v>
       </c>
       <c r="B268" s="2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C268" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D268" s="3">
         <f t="shared" si="4"/>
-        <v>0.68627450980392157</v>
+        <v>0.80701754385964908</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -5802,14 +5849,14 @@
         <v>270</v>
       </c>
       <c r="B269" s="2">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C269" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D269" s="3">
         <f t="shared" si="4"/>
-        <v>0.80701754385964908</v>
+        <v>0.92105263157894735</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -5817,14 +5864,14 @@
         <v>271</v>
       </c>
       <c r="B270" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C270" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D270" s="3">
         <f t="shared" si="4"/>
-        <v>0.92105263157894735</v>
+        <v>0.91176470588235292</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -5832,14 +5879,14 @@
         <v>272</v>
       </c>
       <c r="B271" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C271" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D271" s="3">
         <f t="shared" si="4"/>
-        <v>0.91176470588235292</v>
+        <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -5847,14 +5894,14 @@
         <v>273</v>
       </c>
       <c r="B272" s="2">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C272" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D272" s="3">
         <f t="shared" si="4"/>
-        <v>0.94736842105263153</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -5862,14 +5909,14 @@
         <v>274</v>
       </c>
       <c r="B273" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C273" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D273" s="3">
         <f t="shared" si="4"/>
-        <v>0.96153846153846156</v>
+        <v>0.89090909090909087</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -5877,14 +5924,14 @@
         <v>275</v>
       </c>
       <c r="B274" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C274" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D274" s="3">
         <f t="shared" si="4"/>
-        <v>0.89090909090909087</v>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -5892,14 +5939,14 @@
         <v>276</v>
       </c>
       <c r="B275" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C275" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D275" s="3">
         <f t="shared" si="4"/>
-        <v>0.9555555555555556</v>
+        <v>0.97560975609756095</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -5907,14 +5954,14 @@
         <v>277</v>
       </c>
       <c r="B276" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C276" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D276" s="3">
         <f t="shared" si="4"/>
-        <v>0.97560975609756095</v>
+        <v>0.94339622641509435</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -5922,14 +5969,14 @@
         <v>278</v>
       </c>
       <c r="B277" s="2">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C277" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D277" s="3">
         <f t="shared" si="4"/>
-        <v>0.94339622641509435</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -5937,14 +5984,14 @@
         <v>279</v>
       </c>
       <c r="B278" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C278" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D278" s="3">
         <f t="shared" si="4"/>
-        <v>0.97916666666666663</v>
+        <v>0.97619047619047616</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -5952,14 +5999,14 @@
         <v>280</v>
       </c>
       <c r="B279" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C279" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D279" s="3">
         <f t="shared" si="4"/>
-        <v>0.97619047619047616</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -5967,14 +6014,14 @@
         <v>281</v>
       </c>
       <c r="B280" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C280" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D280" s="3">
         <f t="shared" si="4"/>
-        <v>0.95833333333333337</v>
+        <v>0.94871794871794868</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -5982,14 +6029,14 @@
         <v>282</v>
       </c>
       <c r="B281" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C281" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D281" s="3">
         <f t="shared" si="4"/>
-        <v>0.94871794871794868</v>
+        <v>0.95918367346938771</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -5997,14 +6044,14 @@
         <v>283</v>
       </c>
       <c r="B282" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C282" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D282" s="3">
         <f t="shared" si="4"/>
-        <v>0.95918367346938771</v>
+        <v>0.95744680851063835</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -6012,14 +6059,14 @@
         <v>284</v>
       </c>
       <c r="B283" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C283" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D283" s="3">
         <f t="shared" si="4"/>
-        <v>0.95744680851063835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -6027,10 +6074,10 @@
         <v>285</v>
       </c>
       <c r="B284" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C284" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D284" s="3">
         <f t="shared" si="4"/>
@@ -6042,14 +6089,14 @@
         <v>286</v>
       </c>
       <c r="B285" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C285" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D285" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.97872340425531912</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -6057,14 +6104,14 @@
         <v>287</v>
       </c>
       <c r="B286" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C286" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D286" s="3">
         <f t="shared" si="4"/>
-        <v>0.97872340425531912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -6072,14 +6119,14 @@
         <v>288</v>
       </c>
       <c r="B287" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C287" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D287" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.97727272727272729</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -6087,14 +6134,14 @@
         <v>289</v>
       </c>
       <c r="B288" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C288" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D288" s="3">
         <f t="shared" si="4"/>
-        <v>0.97727272727272729</v>
+        <v>0.90243902439024393</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -6102,20 +6149,197 @@
         <v>290</v>
       </c>
       <c r="B289" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C289" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D289" s="3">
         <f t="shared" si="4"/>
-        <v>0.90243902439024393</v>
+        <v>0.91489361702127658</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" s="2">
+        <v>46</v>
+      </c>
+      <c r="C290" s="2">
+        <v>44</v>
+      </c>
+      <c r="D290" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" s="2">
+        <v>48</v>
+      </c>
+      <c r="C291" s="2">
+        <v>48</v>
+      </c>
+      <c r="D291" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" s="2">
+        <v>40</v>
+      </c>
+      <c r="C292" s="2">
+        <v>40</v>
+      </c>
+      <c r="D292" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" s="2">
+        <v>45</v>
+      </c>
+      <c r="C293" s="2">
+        <v>44</v>
+      </c>
+      <c r="D293" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97777777777777775</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294" s="2">
+        <v>38</v>
+      </c>
+      <c r="C294" s="2">
+        <v>28</v>
+      </c>
+      <c r="D294" s="3">
+        <f t="shared" si="4"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" s="2">
+        <v>44</v>
+      </c>
+      <c r="C295" s="2">
+        <v>36</v>
+      </c>
+      <c r="D295" s="3">
+        <f t="shared" si="4"/>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296" s="2">
+        <v>39</v>
+      </c>
+      <c r="C296" s="2">
+        <v>39</v>
+      </c>
+      <c r="D296" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297" s="2">
+        <v>58</v>
+      </c>
+      <c r="C297" s="2">
+        <v>55</v>
+      </c>
+      <c r="D297" s="3">
+        <f t="shared" si="4"/>
+        <v>0.94827586206896552</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298" s="2">
+        <v>47</v>
+      </c>
+      <c r="C298" s="2">
+        <v>46</v>
+      </c>
+      <c r="D298" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97872340425531912</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" s="2">
+        <v>41</v>
+      </c>
+      <c r="C299" s="2">
+        <v>38</v>
+      </c>
+      <c r="D299" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92682926829268297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300" s="2">
+        <v>51</v>
+      </c>
+      <c r="C300" s="2">
+        <v>47</v>
+      </c>
+      <c r="D300" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92156862745098034</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301" s="2">
+        <v>48</v>
+      </c>
+      <c r="C301" s="2">
+        <v>46</v>
+      </c>
+      <c r="D301" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95833333333333337</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F29429A-FC47-C749-AC7C-A77B4E370D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DAB0FE-46DB-044A-B702-E2784C5B982F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39540" yWindow="3080" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="322">
   <si>
     <t>DateTime</t>
   </si>
@@ -939,6 +939,63 @@
   </si>
   <si>
     <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>2021-02-12</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
+    <t>2021-02-14</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-02-19</t>
+  </si>
+  <si>
+    <t>2021-02-20</t>
   </si>
 </sst>
 </file>
@@ -1807,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K301"/>
+  <dimension ref="A1:K320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I300" sqref="I300"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="F319" sqref="F319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5720,7 +5777,7 @@
         <v>55</v>
       </c>
       <c r="D260" s="3">
-        <f t="shared" ref="D260:D301" si="4">C260/B260</f>
+        <f t="shared" ref="D260:D320" si="4">C260/B260</f>
         <v>1</v>
       </c>
     </row>
@@ -6337,6 +6394,291 @@
       <c r="D301" s="3">
         <f t="shared" si="4"/>
         <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302" s="2">
+        <v>43</v>
+      </c>
+      <c r="C302" s="2">
+        <v>41</v>
+      </c>
+      <c r="D302" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95348837209302328</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303" s="2">
+        <v>42</v>
+      </c>
+      <c r="C303" s="2">
+        <v>40</v>
+      </c>
+      <c r="D303" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304" s="2">
+        <v>40</v>
+      </c>
+      <c r="C304" s="2">
+        <v>39</v>
+      </c>
+      <c r="D304" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305" s="2">
+        <v>63</v>
+      </c>
+      <c r="C305" s="2">
+        <v>59</v>
+      </c>
+      <c r="D305" s="3">
+        <f t="shared" si="4"/>
+        <v>0.93650793650793651</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306" s="2">
+        <v>40</v>
+      </c>
+      <c r="C306" s="2">
+        <v>38</v>
+      </c>
+      <c r="D306" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" s="2">
+        <v>38</v>
+      </c>
+      <c r="C307" s="2">
+        <v>37</v>
+      </c>
+      <c r="D307" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97368421052631582</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308" s="2">
+        <v>48</v>
+      </c>
+      <c r="C308" s="2">
+        <v>45</v>
+      </c>
+      <c r="D308" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309" s="2">
+        <v>39</v>
+      </c>
+      <c r="C309" s="2">
+        <v>39</v>
+      </c>
+      <c r="D309" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310" s="2">
+        <v>48</v>
+      </c>
+      <c r="C310" s="2">
+        <v>43</v>
+      </c>
+      <c r="D310" s="3">
+        <f t="shared" si="4"/>
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311" s="2">
+        <v>58</v>
+      </c>
+      <c r="C311" s="2">
+        <v>56</v>
+      </c>
+      <c r="D311" s="3">
+        <f t="shared" si="4"/>
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312" s="2">
+        <v>51</v>
+      </c>
+      <c r="C312" s="2">
+        <v>50</v>
+      </c>
+      <c r="D312" s="3">
+        <f t="shared" si="4"/>
+        <v>0.98039215686274506</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313" s="2">
+        <v>38</v>
+      </c>
+      <c r="C313" s="2">
+        <v>38</v>
+      </c>
+      <c r="D313" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314" s="2">
+        <v>46</v>
+      </c>
+      <c r="C314" s="2">
+        <v>40</v>
+      </c>
+      <c r="D314" s="3">
+        <f t="shared" si="4"/>
+        <v>0.86956521739130432</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315" s="2">
+        <v>52</v>
+      </c>
+      <c r="C315" s="2">
+        <v>37</v>
+      </c>
+      <c r="D315" s="3">
+        <f t="shared" si="4"/>
+        <v>0.71153846153846156</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316" s="2">
+        <v>52</v>
+      </c>
+      <c r="C316" s="2">
+        <v>38</v>
+      </c>
+      <c r="D316" s="3">
+        <f t="shared" si="4"/>
+        <v>0.73076923076923073</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317" s="2">
+        <v>55</v>
+      </c>
+      <c r="C317" s="2">
+        <v>40</v>
+      </c>
+      <c r="D317" s="3">
+        <f t="shared" si="4"/>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318" s="2">
+        <v>61</v>
+      </c>
+      <c r="C318" s="2">
+        <v>53</v>
+      </c>
+      <c r="D318" s="3">
+        <f t="shared" si="4"/>
+        <v>0.86885245901639341</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319" s="2">
+        <v>59</v>
+      </c>
+      <c r="C319" s="2">
+        <v>50</v>
+      </c>
+      <c r="D319" s="3">
+        <f t="shared" si="4"/>
+        <v>0.84745762711864403</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320" s="2">
+        <v>42</v>
+      </c>
+      <c r="C320" s="2">
+        <v>40</v>
+      </c>
+      <c r="D320" s="3">
+        <f t="shared" si="4"/>
+        <v>0.95238095238095233</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DAB0FE-46DB-044A-B702-E2784C5B982F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F42931E-F142-AF4C-9D19-EB96367F4C1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="330">
   <si>
     <t>DateTime</t>
   </si>
@@ -996,6 +996,30 @@
   </si>
   <si>
     <t>2021-02-20</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>2021-02-24</t>
+  </si>
+  <si>
+    <t>2021-02-25</t>
+  </si>
+  <si>
+    <t>2021-02-26</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
   </si>
 </sst>
 </file>
@@ -1864,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K320"/>
+  <dimension ref="A1:K328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="F319" sqref="F319"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="F325" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5777,7 +5801,7 @@
         <v>55</v>
       </c>
       <c r="D260" s="3">
-        <f t="shared" ref="D260:D320" si="4">C260/B260</f>
+        <f t="shared" ref="D260:D323" si="4">C260/B260</f>
         <v>1</v>
       </c>
     </row>
@@ -6679,6 +6703,126 @@
       <c r="D320" s="3">
         <f t="shared" si="4"/>
         <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321" s="2">
+        <v>50</v>
+      </c>
+      <c r="C321" s="2">
+        <v>48</v>
+      </c>
+      <c r="D321" s="3">
+        <f t="shared" si="4"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322" s="2">
+        <v>61</v>
+      </c>
+      <c r="C322" s="2">
+        <v>60</v>
+      </c>
+      <c r="D322" s="3">
+        <f t="shared" si="4"/>
+        <v>0.98360655737704916</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B323" s="2">
+        <v>52</v>
+      </c>
+      <c r="C323" s="2">
+        <v>49</v>
+      </c>
+      <c r="D323" s="3">
+        <f t="shared" si="4"/>
+        <v>0.94230769230769229</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324" s="2">
+        <v>52</v>
+      </c>
+      <c r="C324" s="2">
+        <v>47</v>
+      </c>
+      <c r="D324" s="3">
+        <f t="shared" ref="D324:D328" si="5">C324/B324</f>
+        <v>0.90384615384615385</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B325" s="2">
+        <v>53</v>
+      </c>
+      <c r="C325" s="2">
+        <v>52</v>
+      </c>
+      <c r="D325" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98113207547169812</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B326" s="2">
+        <v>49</v>
+      </c>
+      <c r="C326" s="2">
+        <v>49</v>
+      </c>
+      <c r="D326" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B327" s="2">
+        <v>45</v>
+      </c>
+      <c r="C327" s="2">
+        <v>45</v>
+      </c>
+      <c r="D327" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328" s="2">
+        <v>44</v>
+      </c>
+      <c r="C328" s="2">
+        <v>44</v>
+      </c>
+      <c r="D328" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F42931E-F142-AF4C-9D19-EB96367F4C1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAA5837-FC86-EE4D-8B4F-018C4F443CC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="3240" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="347">
   <si>
     <t>DateTime</t>
   </si>
@@ -1020,6 +1020,57 @@
   </si>
   <si>
     <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-03-02</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>2021-03-05</t>
+  </si>
+  <si>
+    <t>2021-03-06</t>
+  </si>
+  <si>
+    <t>2021-03-07</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>2021-03-11</t>
+  </si>
+  <si>
+    <t>2021-03-12</t>
+  </si>
+  <si>
+    <t>2021-03-13</t>
+  </si>
+  <si>
+    <t>2021-03-14</t>
+  </si>
+  <si>
+    <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>2021-03-17</t>
   </si>
 </sst>
 </file>
@@ -1888,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K328"/>
+  <dimension ref="A1:K345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="F325" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="O203" sqref="O203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6761,7 +6812,7 @@
         <v>47</v>
       </c>
       <c r="D324" s="3">
-        <f t="shared" ref="D324:D328" si="5">C324/B324</f>
+        <f t="shared" ref="D324:D345" si="5">C324/B324</f>
         <v>0.90384615384615385</v>
       </c>
     </row>
@@ -6823,6 +6874,261 @@
       <c r="D328" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329" s="2">
+        <v>52</v>
+      </c>
+      <c r="C329" s="2">
+        <v>50</v>
+      </c>
+      <c r="D329" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330" s="2">
+        <v>53</v>
+      </c>
+      <c r="C330" s="2">
+        <v>52</v>
+      </c>
+      <c r="D330" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98113207547169812</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331" s="2">
+        <v>50</v>
+      </c>
+      <c r="C331" s="2">
+        <v>47</v>
+      </c>
+      <c r="D331" s="3">
+        <f t="shared" si="5"/>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332" s="2">
+        <v>58</v>
+      </c>
+      <c r="C332" s="2">
+        <v>57</v>
+      </c>
+      <c r="D332" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98275862068965514</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333" s="2">
+        <v>68</v>
+      </c>
+      <c r="C333" s="2">
+        <v>64</v>
+      </c>
+      <c r="D333" s="3">
+        <f t="shared" si="5"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334" s="2">
+        <v>42</v>
+      </c>
+      <c r="C334" s="2">
+        <v>41</v>
+      </c>
+      <c r="D334" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97619047619047616</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335" s="2">
+        <v>47</v>
+      </c>
+      <c r="C335" s="2">
+        <v>47</v>
+      </c>
+      <c r="D335" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336" s="2">
+        <v>56</v>
+      </c>
+      <c r="C336" s="2">
+        <v>55</v>
+      </c>
+      <c r="D336" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9821428571428571</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337" s="2">
+        <v>49</v>
+      </c>
+      <c r="C337" s="2">
+        <v>44</v>
+      </c>
+      <c r="D337" s="3">
+        <f t="shared" si="5"/>
+        <v>0.89795918367346939</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338" s="2">
+        <v>57</v>
+      </c>
+      <c r="C338" s="2">
+        <v>56</v>
+      </c>
+      <c r="D338" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98245614035087714</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339" s="2">
+        <v>60</v>
+      </c>
+      <c r="C339" s="2">
+        <v>59</v>
+      </c>
+      <c r="D339" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340" s="2">
+        <v>81</v>
+      </c>
+      <c r="C340" s="2">
+        <v>77</v>
+      </c>
+      <c r="D340" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95061728395061729</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341" s="2">
+        <v>56</v>
+      </c>
+      <c r="C341" s="2">
+        <v>52</v>
+      </c>
+      <c r="D341" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342" s="2">
+        <v>53</v>
+      </c>
+      <c r="C342" s="2">
+        <v>45</v>
+      </c>
+      <c r="D342" s="3">
+        <f t="shared" si="5"/>
+        <v>0.84905660377358494</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343" s="2">
+        <v>47</v>
+      </c>
+      <c r="C343" s="2">
+        <v>39</v>
+      </c>
+      <c r="D343" s="3">
+        <f t="shared" si="5"/>
+        <v>0.82978723404255317</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344" s="2">
+        <v>49</v>
+      </c>
+      <c r="C344" s="2">
+        <v>46</v>
+      </c>
+      <c r="D344" s="3">
+        <f t="shared" si="5"/>
+        <v>0.93877551020408168</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345" s="2">
+        <v>59</v>
+      </c>
+      <c r="C345" s="2">
+        <v>58</v>
+      </c>
+      <c r="D345" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98305084745762716</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAA5837-FC86-EE4D-8B4F-018C4F443CC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C346334-1BCC-C248-A6A5-A9010E882E30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="3240" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="363">
   <si>
     <t>DateTime</t>
   </si>
@@ -173,9 +173,6 @@
     <t>2020-05-22</t>
   </si>
   <si>
-    <t>percent</t>
-  </si>
-  <si>
     <t>2020-05-23</t>
   </si>
   <si>
@@ -1071,6 +1068,57 @@
   </si>
   <si>
     <t>2021-03-17</t>
+  </si>
+  <si>
+    <t>2021-03-18</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-03-23</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>2021-03-27</t>
+  </si>
+  <si>
+    <t>2021-03-28</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-03-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-04-02</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
@@ -1939,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:K361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="O203" sqref="O203"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1962,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2648,7 +2696,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
         <v>32</v>
@@ -2663,7 +2711,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
         <v>24</v>
@@ -2678,7 +2726,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2">
         <v>33</v>
@@ -2693,7 +2741,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
         <v>21</v>
@@ -2708,7 +2756,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
         <v>32</v>
@@ -2723,7 +2771,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2">
         <v>29</v>
@@ -2738,7 +2786,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2">
         <v>43</v>
@@ -2753,7 +2801,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2">
         <v>31</v>
@@ -2768,7 +2816,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
         <v>34</v>
@@ -2783,7 +2831,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2">
         <v>32</v>
@@ -2798,7 +2846,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
         <v>33</v>
@@ -2813,7 +2861,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2">
         <v>35</v>
@@ -2828,7 +2876,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
         <v>36</v>
@@ -2843,7 +2891,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2">
         <v>38</v>
@@ -2858,7 +2906,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2">
         <v>31</v>
@@ -2873,7 +2921,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2">
         <v>28</v>
@@ -2888,7 +2936,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2">
         <v>38</v>
@@ -2903,7 +2951,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2">
         <v>30</v>
@@ -2918,7 +2966,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2">
         <v>33</v>
@@ -2933,7 +2981,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2">
         <v>47</v>
@@ -2948,7 +2996,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2">
         <v>39</v>
@@ -2963,7 +3011,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2">
         <v>33</v>
@@ -2978,7 +3026,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2">
         <v>31</v>
@@ -2993,7 +3041,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2">
         <v>29</v>
@@ -3008,7 +3056,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2">
         <v>40</v>
@@ -3023,7 +3071,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2">
         <v>33</v>
@@ -3038,7 +3086,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2">
         <v>42</v>
@@ -3053,7 +3101,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2">
         <v>41</v>
@@ -3068,7 +3116,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2">
         <v>34</v>
@@ -3083,7 +3131,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2">
         <v>32</v>
@@ -3098,7 +3146,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2">
         <v>38</v>
@@ -3113,7 +3161,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2">
         <v>35</v>
@@ -3128,7 +3176,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2">
         <v>39</v>
@@ -3143,7 +3191,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2">
         <v>48</v>
@@ -3158,7 +3206,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2">
         <v>38</v>
@@ -3173,7 +3221,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2">
         <v>32</v>
@@ -3188,7 +3236,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2">
         <v>31</v>
@@ -3203,7 +3251,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2">
         <v>34</v>
@@ -3218,7 +3266,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2">
         <v>35</v>
@@ -3233,7 +3281,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2">
         <v>45</v>
@@ -3248,7 +3296,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2">
         <v>50</v>
@@ -3263,7 +3311,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2">
         <v>37</v>
@@ -3278,7 +3326,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2">
         <v>29</v>
@@ -3293,7 +3341,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2">
         <v>33</v>
@@ -3308,7 +3356,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2">
         <v>36</v>
@@ -3323,7 +3371,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2">
         <v>42</v>
@@ -3338,7 +3386,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2">
         <v>38</v>
@@ -3353,7 +3401,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2">
         <v>61</v>
@@ -3368,7 +3416,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2">
         <v>55</v>
@@ -3383,7 +3431,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2">
         <v>43</v>
@@ -3398,7 +3446,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2">
         <v>54</v>
@@ -3413,7 +3461,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2">
         <v>43</v>
@@ -3428,7 +3476,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2">
         <v>48</v>
@@ -3443,7 +3491,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2">
         <v>48</v>
@@ -3458,7 +3506,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2">
         <v>53</v>
@@ -3473,7 +3521,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2">
         <v>54</v>
@@ -3488,7 +3536,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2">
         <v>40</v>
@@ -3503,7 +3551,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2">
         <v>53</v>
@@ -3518,7 +3566,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2">
         <v>47</v>
@@ -3533,7 +3581,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2">
         <v>47</v>
@@ -3548,7 +3596,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2">
         <v>51</v>
@@ -3563,7 +3611,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2">
         <v>53</v>
@@ -3578,7 +3626,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2">
         <v>54</v>
@@ -3593,7 +3641,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2">
         <v>40</v>
@@ -3608,7 +3656,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2">
         <v>54</v>
@@ -3623,7 +3671,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2">
         <v>49</v>
@@ -3638,7 +3686,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2">
         <v>39</v>
@@ -3653,7 +3701,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2">
         <v>50</v>
@@ -3668,7 +3716,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2">
         <v>61</v>
@@ -3683,7 +3731,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2">
         <v>48</v>
@@ -3698,7 +3746,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2">
         <v>50</v>
@@ -3713,7 +3761,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2">
         <v>51</v>
@@ -3728,7 +3776,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2">
         <v>56</v>
@@ -3743,7 +3791,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2">
         <v>50</v>
@@ -3758,7 +3806,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2">
         <v>57</v>
@@ -3773,7 +3821,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2">
         <v>63</v>
@@ -3788,7 +3836,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2">
         <v>52</v>
@@ -3803,7 +3851,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2">
         <v>54</v>
@@ -3818,7 +3866,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2">
         <v>53</v>
@@ -3833,7 +3881,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2">
         <v>53</v>
@@ -3848,7 +3896,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2">
         <v>57</v>
@@ -3863,7 +3911,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2">
         <v>59</v>
@@ -3878,7 +3926,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2">
         <v>64</v>
@@ -3893,7 +3941,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2">
         <v>64</v>
@@ -3908,7 +3956,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2">
         <v>54</v>
@@ -3923,7 +3971,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2">
         <v>57</v>
@@ -3938,7 +3986,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2">
         <v>59</v>
@@ -3953,7 +4001,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2">
         <v>48</v>
@@ -3968,7 +4016,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2">
         <v>50</v>
@@ -3983,7 +4031,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2">
         <v>52</v>
@@ -3998,7 +4046,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2">
         <v>58</v>
@@ -4013,7 +4061,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2">
         <v>51</v>
@@ -4028,7 +4076,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2">
         <v>48</v>
@@ -4043,7 +4091,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2">
         <v>56</v>
@@ -4058,7 +4106,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2">
         <v>45</v>
@@ -4073,7 +4121,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2">
         <v>52</v>
@@ -4088,7 +4136,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2">
         <v>71</v>
@@ -4103,7 +4151,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2">
         <v>55</v>
@@ -4118,7 +4166,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2">
         <v>46</v>
@@ -4133,7 +4181,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2">
         <v>51</v>
@@ -4148,7 +4196,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2">
         <v>52</v>
@@ -4163,7 +4211,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2">
         <v>45</v>
@@ -4178,7 +4226,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2">
         <v>44</v>
@@ -4193,7 +4241,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2">
         <v>52</v>
@@ -4208,7 +4256,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2">
         <v>65</v>
@@ -4223,7 +4271,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2">
         <v>39</v>
@@ -4238,7 +4286,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" s="2">
         <v>34</v>
@@ -4253,7 +4301,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2">
         <v>42</v>
@@ -4268,7 +4316,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155" s="2">
         <v>40</v>
@@ -4283,7 +4331,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156" s="2">
         <v>46</v>
@@ -4298,7 +4346,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="2">
         <v>44</v>
@@ -4313,7 +4361,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2">
         <v>52</v>
@@ -4328,7 +4376,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2">
         <v>50</v>
@@ -4343,7 +4391,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" s="2">
         <v>51</v>
@@ -4358,7 +4406,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161" s="2">
         <v>50</v>
@@ -4373,7 +4421,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2">
         <v>44</v>
@@ -4388,7 +4436,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163" s="2">
         <v>53</v>
@@ -4403,7 +4451,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2">
         <v>52</v>
@@ -4418,7 +4466,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="2">
         <v>52</v>
@@ -4433,7 +4481,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="2">
         <v>43</v>
@@ -4448,7 +4496,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2">
         <v>44</v>
@@ -4463,7 +4511,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" s="2">
         <v>50</v>
@@ -4478,7 +4526,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" s="2">
         <v>50</v>
@@ -4493,7 +4541,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170" s="2">
         <v>52</v>
@@ -4508,7 +4556,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="2">
         <v>57</v>
@@ -4523,7 +4571,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" s="2">
         <v>58</v>
@@ -4538,7 +4586,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" s="2">
         <v>47</v>
@@ -4553,7 +4601,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="2">
         <v>44</v>
@@ -4568,7 +4616,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" s="2">
         <v>51</v>
@@ -4583,7 +4631,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" s="2">
         <v>56</v>
@@ -4598,7 +4646,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" s="2">
         <v>58</v>
@@ -4613,7 +4661,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" s="2">
         <v>65</v>
@@ -4628,7 +4676,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" s="2">
         <v>67</v>
@@ -4643,7 +4691,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" s="2">
         <v>38</v>
@@ -4658,7 +4706,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" s="2">
         <v>54</v>
@@ -4673,7 +4721,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" s="2">
         <v>53</v>
@@ -4688,7 +4736,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" s="2">
         <v>42</v>
@@ -4703,7 +4751,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" s="2">
         <v>45</v>
@@ -4718,7 +4766,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" s="2">
         <v>56</v>
@@ -4733,7 +4781,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="2">
         <v>62</v>
@@ -4748,7 +4796,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" s="2">
         <v>42</v>
@@ -4763,7 +4811,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" s="2">
         <v>48</v>
@@ -4778,7 +4826,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" s="2">
         <v>59</v>
@@ -4793,7 +4841,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" s="2">
         <v>57</v>
@@ -4808,7 +4856,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" s="2">
         <v>46</v>
@@ -4823,7 +4871,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" s="2">
         <v>65</v>
@@ -4838,7 +4886,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" s="2">
         <v>56</v>
@@ -4853,7 +4901,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="2">
         <v>43</v>
@@ -4868,7 +4916,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" s="2">
         <v>53</v>
@@ -4883,7 +4931,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" s="2">
         <v>56</v>
@@ -4898,7 +4946,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" s="2">
         <v>45</v>
@@ -4913,7 +4961,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" s="2">
         <v>48</v>
@@ -4928,7 +4976,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="2">
         <v>51</v>
@@ -4943,7 +4991,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" s="2">
         <v>56</v>
@@ -4958,7 +5006,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" s="2">
         <v>47</v>
@@ -4973,7 +5021,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="2">
         <v>48</v>
@@ -4988,7 +5036,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="2">
         <v>48</v>
@@ -5003,7 +5051,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="2">
         <v>45</v>
@@ -5018,7 +5066,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="2">
         <v>44</v>
@@ -5033,7 +5081,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" s="2">
         <v>55</v>
@@ -5048,7 +5096,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" s="2">
         <v>55</v>
@@ -5063,7 +5111,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="2">
         <v>32</v>
@@ -5078,7 +5126,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="2">
         <v>42</v>
@@ -5093,7 +5141,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="2">
         <v>43</v>
@@ -5108,7 +5156,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="2">
         <v>43</v>
@@ -5123,7 +5171,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="2">
         <v>49</v>
@@ -5138,7 +5186,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="2">
         <v>48</v>
@@ -5153,7 +5201,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="2">
         <v>58</v>
@@ -5168,7 +5216,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="2">
         <v>40</v>
@@ -5183,7 +5231,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="2">
         <v>49</v>
@@ -5198,7 +5246,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="2">
         <v>52</v>
@@ -5213,7 +5261,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="2">
         <v>37</v>
@@ -5228,7 +5276,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="2">
         <v>48</v>
@@ -5243,7 +5291,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" s="2">
         <v>59</v>
@@ -5258,7 +5306,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" s="2">
         <v>58</v>
@@ -5273,7 +5321,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="2">
         <v>48</v>
@@ -5288,7 +5336,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" s="2">
         <v>44</v>
@@ -5303,7 +5351,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" s="2">
         <v>52</v>
@@ -5318,7 +5366,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" s="2">
         <v>49</v>
@@ -5333,7 +5381,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="2">
         <v>45</v>
@@ -5348,7 +5396,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" s="2">
         <v>53</v>
@@ -5363,7 +5411,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" s="2">
         <v>57</v>
@@ -5378,7 +5426,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" s="2">
         <v>51</v>
@@ -5393,7 +5441,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" s="2">
         <v>51</v>
@@ -5408,7 +5456,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" s="2">
         <v>49</v>
@@ -5423,7 +5471,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="2">
         <v>44</v>
@@ -5438,7 +5486,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" s="2">
         <v>52</v>
@@ -5453,7 +5501,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234" s="2">
         <v>23</v>
@@ -5468,7 +5516,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235" s="2">
         <v>35</v>
@@ -5483,7 +5531,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236" s="2">
         <v>44</v>
@@ -5498,7 +5546,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" s="2">
         <v>50</v>
@@ -5513,7 +5561,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238" s="2">
         <v>56</v>
@@ -5528,7 +5576,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239" s="2">
         <v>57</v>
@@ -5543,7 +5591,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240" s="2">
         <v>40</v>
@@ -5558,7 +5606,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241" s="2">
         <v>53</v>
@@ -5573,7 +5621,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242" s="2">
         <v>46</v>
@@ -5588,7 +5636,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243" s="2">
         <v>39</v>
@@ -5603,7 +5651,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244" s="2">
         <v>50</v>
@@ -5618,7 +5666,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245" s="2">
         <v>46</v>
@@ -5633,7 +5681,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246" s="2">
         <v>40</v>
@@ -5648,7 +5696,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247" s="2">
         <v>47</v>
@@ -5663,7 +5711,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" s="2">
         <v>53</v>
@@ -5678,7 +5726,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="2">
         <v>45</v>
@@ -5693,7 +5741,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250" s="2">
         <v>40</v>
@@ -5708,7 +5756,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251" s="2">
         <v>49</v>
@@ -5723,7 +5771,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B252" s="2">
         <v>39</v>
@@ -5738,7 +5786,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253" s="2">
         <v>36</v>
@@ -5753,7 +5801,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" s="2">
         <v>49</v>
@@ -5768,7 +5816,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255" s="2">
         <v>62</v>
@@ -5783,7 +5831,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B256" s="2">
         <v>60</v>
@@ -5798,7 +5846,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B257" s="2">
         <v>64</v>
@@ -5813,7 +5861,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B258" s="2">
         <v>57</v>
@@ -5828,7 +5876,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B259" s="2">
         <v>48</v>
@@ -5843,7 +5891,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B260" s="2">
         <v>55</v>
@@ -5858,7 +5906,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B261" s="2">
         <v>56</v>
@@ -5873,7 +5921,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B262" s="2">
         <v>38</v>
@@ -5888,7 +5936,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B263" s="2">
         <v>23</v>
@@ -5903,7 +5951,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B264" s="2">
         <v>54</v>
@@ -5918,7 +5966,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B265" s="2">
         <v>45</v>
@@ -5933,7 +5981,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B266" s="2">
         <v>49</v>
@@ -5948,7 +5996,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B267" s="2">
         <v>51</v>
@@ -5963,7 +6011,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B268" s="2">
         <v>57</v>
@@ -5978,7 +6026,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B269" s="2">
         <v>38</v>
@@ -5993,7 +6041,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B270" s="2">
         <v>34</v>
@@ -6008,7 +6056,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B271" s="2">
         <v>57</v>
@@ -6023,7 +6071,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B272" s="2">
         <v>52</v>
@@ -6038,7 +6086,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B273" s="2">
         <v>55</v>
@@ -6053,7 +6101,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B274" s="2">
         <v>45</v>
@@ -6068,7 +6116,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B275" s="2">
         <v>41</v>
@@ -6083,7 +6131,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B276" s="2">
         <v>53</v>
@@ -6098,7 +6146,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B277" s="2">
         <v>48</v>
@@ -6113,7 +6161,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B278" s="2">
         <v>42</v>
@@ -6128,7 +6176,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B279" s="2">
         <v>48</v>
@@ -6143,7 +6191,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B280" s="2">
         <v>39</v>
@@ -6158,7 +6206,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B281" s="2">
         <v>49</v>
@@ -6173,7 +6221,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B282" s="2">
         <v>47</v>
@@ -6188,7 +6236,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B283" s="2">
         <v>48</v>
@@ -6203,7 +6251,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B284" s="2">
         <v>38</v>
@@ -6218,7 +6266,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B285" s="2">
         <v>47</v>
@@ -6233,7 +6281,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B286" s="2">
         <v>36</v>
@@ -6248,7 +6296,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B287" s="2">
         <v>44</v>
@@ -6263,7 +6311,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B288" s="2">
         <v>41</v>
@@ -6278,7 +6326,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B289" s="2">
         <v>47</v>
@@ -6293,7 +6341,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B290" s="2">
         <v>46</v>
@@ -6308,7 +6356,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B291" s="2">
         <v>48</v>
@@ -6323,7 +6371,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B292" s="2">
         <v>40</v>
@@ -6338,7 +6386,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B293" s="2">
         <v>45</v>
@@ -6353,7 +6401,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B294" s="2">
         <v>38</v>
@@ -6368,7 +6416,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B295" s="2">
         <v>44</v>
@@ -6383,7 +6431,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B296" s="2">
         <v>39</v>
@@ -6398,7 +6446,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B297" s="2">
         <v>58</v>
@@ -6413,7 +6461,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B298" s="2">
         <v>47</v>
@@ -6428,7 +6476,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B299" s="2">
         <v>41</v>
@@ -6443,7 +6491,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B300" s="2">
         <v>51</v>
@@ -6458,7 +6506,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B301" s="2">
         <v>48</v>
@@ -6473,7 +6521,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B302" s="2">
         <v>43</v>
@@ -6488,7 +6536,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B303" s="2">
         <v>42</v>
@@ -6503,7 +6551,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B304" s="2">
         <v>40</v>
@@ -6518,7 +6566,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B305" s="2">
         <v>63</v>
@@ -6533,7 +6581,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B306" s="2">
         <v>40</v>
@@ -6548,7 +6596,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B307" s="2">
         <v>38</v>
@@ -6563,7 +6611,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B308" s="2">
         <v>48</v>
@@ -6578,7 +6626,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B309" s="2">
         <v>39</v>
@@ -6593,7 +6641,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B310" s="2">
         <v>48</v>
@@ -6608,7 +6656,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B311" s="2">
         <v>58</v>
@@ -6623,7 +6671,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B312" s="2">
         <v>51</v>
@@ -6638,7 +6686,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B313" s="2">
         <v>38</v>
@@ -6653,7 +6701,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B314" s="2">
         <v>46</v>
@@ -6668,7 +6716,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B315" s="2">
         <v>52</v>
@@ -6683,7 +6731,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B316" s="2">
         <v>52</v>
@@ -6698,7 +6746,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B317" s="2">
         <v>55</v>
@@ -6713,7 +6761,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B318" s="2">
         <v>61</v>
@@ -6728,7 +6776,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B319" s="2">
         <v>59</v>
@@ -6743,7 +6791,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B320" s="2">
         <v>42</v>
@@ -6758,7 +6806,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B321" s="2">
         <v>50</v>
@@ -6773,7 +6821,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B322" s="2">
         <v>61</v>
@@ -6788,7 +6836,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B323" s="2">
         <v>52</v>
@@ -6803,7 +6851,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B324" s="2">
         <v>52</v>
@@ -6812,13 +6860,13 @@
         <v>47</v>
       </c>
       <c r="D324" s="3">
-        <f t="shared" ref="D324:D345" si="5">C324/B324</f>
+        <f t="shared" ref="D324:D361" si="5">C324/B324</f>
         <v>0.90384615384615385</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B325" s="2">
         <v>53</v>
@@ -6833,7 +6881,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B326" s="2">
         <v>49</v>
@@ -6848,7 +6896,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B327" s="2">
         <v>45</v>
@@ -6863,7 +6911,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B328" s="2">
         <v>44</v>
@@ -6878,7 +6926,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B329" s="2">
         <v>52</v>
@@ -6893,7 +6941,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B330" s="2">
         <v>53</v>
@@ -6908,7 +6956,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B331" s="2">
         <v>50</v>
@@ -6923,7 +6971,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B332" s="2">
         <v>58</v>
@@ -6938,7 +6986,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B333" s="2">
         <v>68</v>
@@ -6953,7 +7001,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B334" s="2">
         <v>42</v>
@@ -6968,7 +7016,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B335" s="2">
         <v>47</v>
@@ -6983,7 +7031,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B336" s="2">
         <v>56</v>
@@ -6998,7 +7046,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B337" s="2">
         <v>49</v>
@@ -7013,7 +7061,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B338" s="2">
         <v>57</v>
@@ -7028,7 +7076,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B339" s="2">
         <v>60</v>
@@ -7043,7 +7091,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B340" s="2">
         <v>81</v>
@@ -7058,7 +7106,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B341" s="2">
         <v>56</v>
@@ -7073,7 +7121,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B342" s="2">
         <v>53</v>
@@ -7088,7 +7136,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B343" s="2">
         <v>47</v>
@@ -7103,7 +7151,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B344" s="2">
         <v>49</v>
@@ -7118,7 +7166,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B345" s="2">
         <v>59</v>
@@ -7129,6 +7177,246 @@
       <c r="D345" s="3">
         <f t="shared" si="5"/>
         <v>0.98305084745762716</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" s="2">
+        <v>63</v>
+      </c>
+      <c r="C346" s="2">
+        <v>60</v>
+      </c>
+      <c r="D346" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" s="2">
+        <v>63</v>
+      </c>
+      <c r="C347" s="2">
+        <v>61</v>
+      </c>
+      <c r="D347" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96825396825396826</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" s="2">
+        <v>58</v>
+      </c>
+      <c r="C348" s="2">
+        <v>58</v>
+      </c>
+      <c r="D348" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" s="2">
+        <v>57</v>
+      </c>
+      <c r="C349" s="2">
+        <v>56</v>
+      </c>
+      <c r="D349" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98245614035087714</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" s="2">
+        <v>60</v>
+      </c>
+      <c r="C350" s="2">
+        <v>56</v>
+      </c>
+      <c r="D350" s="3">
+        <f t="shared" si="5"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" s="2">
+        <v>49</v>
+      </c>
+      <c r="C351" s="2">
+        <v>46</v>
+      </c>
+      <c r="D351" s="3">
+        <f t="shared" si="5"/>
+        <v>0.93877551020408168</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" s="2">
+        <v>57</v>
+      </c>
+      <c r="C352" s="2">
+        <v>56</v>
+      </c>
+      <c r="D352" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98245614035087714</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" s="2">
+        <v>52</v>
+      </c>
+      <c r="C353" s="2">
+        <v>52</v>
+      </c>
+      <c r="D353" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" s="2">
+        <v>62</v>
+      </c>
+      <c r="C354" s="2">
+        <v>59</v>
+      </c>
+      <c r="D354" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95161290322580649</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" s="2">
+        <v>46</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45</v>
+      </c>
+      <c r="D355" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97826086956521741</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" s="2">
+        <v>51</v>
+      </c>
+      <c r="C356" s="2">
+        <v>50</v>
+      </c>
+      <c r="D356" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98039215686274506</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357" s="2">
+        <v>51</v>
+      </c>
+      <c r="C357" s="2">
+        <v>49</v>
+      </c>
+      <c r="D357" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96078431372549022</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" s="2">
+        <v>51</v>
+      </c>
+      <c r="C358" s="2">
+        <v>49</v>
+      </c>
+      <c r="D358" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96078431372549022</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" s="2">
+        <v>63</v>
+      </c>
+      <c r="C359" s="2">
+        <v>57</v>
+      </c>
+      <c r="D359" s="3">
+        <f t="shared" si="5"/>
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" s="2">
+        <v>59</v>
+      </c>
+      <c r="C360" s="2">
+        <v>57</v>
+      </c>
+      <c r="D360" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96610169491525422</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" s="2">
+        <v>62</v>
+      </c>
+      <c r="C361" s="2">
+        <v>58</v>
+      </c>
+      <c r="D361" s="3">
+        <f t="shared" si="5"/>
+        <v>0.93548387096774188</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C346334-1BCC-C248-A6A5-A9010E882E30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03BF736-217F-F74E-B556-362A2DB5095C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="2300" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="382">
   <si>
     <t>DateTime</t>
   </si>
@@ -1119,6 +1119,63 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>2021-04-03</t>
+  </si>
+  <si>
+    <t>2021-04-04</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>2021-04-11</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2021-04-16</t>
+  </si>
+  <si>
+    <t>2021-04-17</t>
+  </si>
+  <si>
+    <t>2021-04-18</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1678,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1631,6 +1688,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1987,19 +2048,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K361"/>
+  <dimension ref="A1:K381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="G370" sqref="G370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2071,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6860,7 +6922,7 @@
         <v>47</v>
       </c>
       <c r="D324" s="3">
-        <f t="shared" ref="D324:D361" si="5">C324/B324</f>
+        <f t="shared" ref="D324:D381" si="5">C324/B324</f>
         <v>0.90384615384615385</v>
       </c>
     </row>
@@ -7417,6 +7479,306 @@
       <c r="D361" s="3">
         <f t="shared" si="5"/>
         <v>0.93548387096774188</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362" s="2">
+        <v>62</v>
+      </c>
+      <c r="C362" s="2">
+        <v>58</v>
+      </c>
+      <c r="D362" s="3">
+        <f t="shared" si="5"/>
+        <v>0.93548387096774188</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363" s="2">
+        <v>41</v>
+      </c>
+      <c r="C363" s="2">
+        <v>39</v>
+      </c>
+      <c r="D363" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95121951219512191</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364" s="2">
+        <v>46</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45</v>
+      </c>
+      <c r="D364" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97826086956521741</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365" s="2">
+        <v>54</v>
+      </c>
+      <c r="C365" s="2">
+        <v>53</v>
+      </c>
+      <c r="D365" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98148148148148151</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366" s="2">
+        <v>47</v>
+      </c>
+      <c r="C366" s="2">
+        <v>47</v>
+      </c>
+      <c r="D366" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367" s="2">
+        <v>56</v>
+      </c>
+      <c r="C367" s="2">
+        <v>52</v>
+      </c>
+      <c r="D367" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368" s="2">
+        <v>59</v>
+      </c>
+      <c r="C368" s="2">
+        <v>58</v>
+      </c>
+      <c r="D368" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98305084745762716</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" s="2">
+        <v>62</v>
+      </c>
+      <c r="C369" s="2">
+        <v>60</v>
+      </c>
+      <c r="D369" s="3">
+        <f t="shared" si="5"/>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" s="2">
+        <v>47</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45</v>
+      </c>
+      <c r="D370" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95744680851063835</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" s="2">
+        <v>53</v>
+      </c>
+      <c r="C371" s="2">
+        <v>51</v>
+      </c>
+      <c r="D371" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96226415094339623</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" s="2">
+        <v>51</v>
+      </c>
+      <c r="C372" s="2">
+        <v>48</v>
+      </c>
+      <c r="D372" s="3">
+        <f t="shared" si="5"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" s="2">
+        <v>53</v>
+      </c>
+      <c r="C373" s="2">
+        <v>49</v>
+      </c>
+      <c r="D373" s="3">
+        <f t="shared" si="5"/>
+        <v>0.92452830188679247</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" s="2">
+        <v>48</v>
+      </c>
+      <c r="C374" s="2">
+        <v>46</v>
+      </c>
+      <c r="D374" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" s="2">
+        <v>63</v>
+      </c>
+      <c r="C375" s="2">
+        <v>63</v>
+      </c>
+      <c r="D375" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" s="2">
+        <v>56</v>
+      </c>
+      <c r="C376" s="2">
+        <v>52</v>
+      </c>
+      <c r="D376" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" s="2">
+        <v>48</v>
+      </c>
+      <c r="C377" s="2">
+        <v>46</v>
+      </c>
+      <c r="D377" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" s="2">
+        <v>53</v>
+      </c>
+      <c r="C378" s="2">
+        <v>50</v>
+      </c>
+      <c r="D378" s="3">
+        <f t="shared" si="5"/>
+        <v>0.94339622641509435</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" s="2">
+        <v>56</v>
+      </c>
+      <c r="C379" s="2">
+        <v>52</v>
+      </c>
+      <c r="D379" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" s="2">
+        <v>50</v>
+      </c>
+      <c r="C380" s="2">
+        <v>49</v>
+      </c>
+      <c r="D380" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" s="2">
+        <v>53</v>
+      </c>
+      <c r="C381" s="2">
+        <v>51</v>
+      </c>
+      <c r="D381" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96226415094339623</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03BF736-217F-F74E-B556-362A2DB5095C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E39869-7E8F-EB4B-BF0F-BF1B4F5663CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2300" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="393">
   <si>
     <t>DateTime</t>
   </si>
@@ -1176,6 +1176,39 @@
   </si>
   <si>
     <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
+  </si>
+  <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>2021-04-24</t>
+  </si>
+  <si>
+    <t>2021-04-25</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-04-29</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+  </si>
+  <si>
+    <t>2021-05-02</t>
   </si>
 </sst>
 </file>
@@ -2048,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K381"/>
+  <dimension ref="A1:K392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="G370" sqref="G370"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="A381" sqref="A381:XFD381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6922,7 +6955,7 @@
         <v>47</v>
       </c>
       <c r="D324" s="3">
-        <f t="shared" ref="D324:D381" si="5">C324/B324</f>
+        <f t="shared" ref="D324:D386" si="5">C324/B324</f>
         <v>0.90384615384615385</v>
       </c>
     </row>
@@ -7779,6 +7812,171 @@
       <c r="D381" s="3">
         <f t="shared" si="5"/>
         <v>0.96226415094339623</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" s="2">
+        <v>66</v>
+      </c>
+      <c r="C382" s="2">
+        <v>64</v>
+      </c>
+      <c r="D382" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96969696969696972</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" s="2">
+        <v>67</v>
+      </c>
+      <c r="C383" s="2">
+        <v>63</v>
+      </c>
+      <c r="D383" s="3">
+        <f t="shared" si="5"/>
+        <v>0.94029850746268662</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" s="2">
+        <v>51</v>
+      </c>
+      <c r="C384" s="2">
+        <v>49</v>
+      </c>
+      <c r="D384" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96078431372549022</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" s="2">
+        <v>53</v>
+      </c>
+      <c r="C385" s="2">
+        <v>48</v>
+      </c>
+      <c r="D385" s="3">
+        <f t="shared" si="5"/>
+        <v>0.90566037735849059</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" s="2">
+        <v>58</v>
+      </c>
+      <c r="C386" s="2">
+        <v>56</v>
+      </c>
+      <c r="D386" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" s="2">
+        <v>50</v>
+      </c>
+      <c r="C387" s="2">
+        <v>49</v>
+      </c>
+      <c r="D387" s="3">
+        <f t="shared" ref="D387:D392" si="6">C387/B387</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" s="2">
+        <v>65</v>
+      </c>
+      <c r="C388" s="2">
+        <v>64</v>
+      </c>
+      <c r="D388" s="3">
+        <f t="shared" si="6"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" s="2">
+        <v>68</v>
+      </c>
+      <c r="C389" s="2">
+        <v>64</v>
+      </c>
+      <c r="D389" s="3">
+        <f t="shared" si="6"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" s="2">
+        <v>59</v>
+      </c>
+      <c r="C390" s="2">
+        <v>55</v>
+      </c>
+      <c r="D390" s="3">
+        <f t="shared" si="6"/>
+        <v>0.93220338983050843</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" s="2">
+        <v>48</v>
+      </c>
+      <c r="C391" s="2">
+        <v>45</v>
+      </c>
+      <c r="D391" s="3">
+        <f t="shared" si="6"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" s="2">
+        <v>57</v>
+      </c>
+      <c r="C392" s="2">
+        <v>56</v>
+      </c>
+      <c r="D392" s="3">
+        <f t="shared" si="6"/>
+        <v>0.98245614035087714</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E39869-7E8F-EB4B-BF0F-BF1B4F5663CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92BF387-BA15-AB48-8560-B58CB998398B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="407">
   <si>
     <t>DateTime</t>
   </si>
@@ -1209,6 +1209,48 @@
   </si>
   <si>
     <t>2021-05-02</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>2021-05-05</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-05-08</t>
+  </si>
+  <si>
+    <t>2021-05-09</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>2021-05-12</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-05-14</t>
+  </si>
+  <si>
+    <t>2021-05-15</t>
+  </si>
+  <si>
+    <t>2021-05-16</t>
   </si>
 </sst>
 </file>
@@ -2081,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K392"/>
+  <dimension ref="A1:K406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="A381" sqref="A381:XFD381"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="D392" sqref="D392:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7900,7 +7942,7 @@
         <v>49</v>
       </c>
       <c r="D387" s="3">
-        <f t="shared" ref="D387:D392" si="6">C387/B387</f>
+        <f t="shared" ref="D387:D406" si="6">C387/B387</f>
         <v>0.98</v>
       </c>
     </row>
@@ -7977,6 +8019,216 @@
       <c r="D392" s="3">
         <f t="shared" si="6"/>
         <v>0.98245614035087714</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" s="2">
+        <v>50</v>
+      </c>
+      <c r="C393" s="2">
+        <v>50</v>
+      </c>
+      <c r="D393" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" s="2">
+        <v>57</v>
+      </c>
+      <c r="C394" s="2">
+        <v>52</v>
+      </c>
+      <c r="D394" s="3">
+        <f t="shared" si="6"/>
+        <v>0.91228070175438591</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" s="2">
+        <v>62</v>
+      </c>
+      <c r="C395" s="2">
+        <v>59</v>
+      </c>
+      <c r="D395" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95161290322580649</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" s="2">
+        <v>64</v>
+      </c>
+      <c r="C396" s="2">
+        <v>63</v>
+      </c>
+      <c r="D396" s="3">
+        <f t="shared" si="6"/>
+        <v>0.984375</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" s="2">
+        <v>66</v>
+      </c>
+      <c r="C397" s="2">
+        <v>60</v>
+      </c>
+      <c r="D397" s="3">
+        <f t="shared" si="6"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" s="2">
+        <v>41</v>
+      </c>
+      <c r="C398" s="2">
+        <v>40</v>
+      </c>
+      <c r="D398" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97560975609756095</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" s="2">
+        <v>48</v>
+      </c>
+      <c r="C399" s="2">
+        <v>47</v>
+      </c>
+      <c r="D399" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" s="2">
+        <v>67</v>
+      </c>
+      <c r="C400" s="2">
+        <v>62</v>
+      </c>
+      <c r="D400" s="3">
+        <f t="shared" si="6"/>
+        <v>0.92537313432835822</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" s="2">
+        <v>58</v>
+      </c>
+      <c r="C401" s="2">
+        <v>52</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="6"/>
+        <v>0.89655172413793105</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" s="2">
+        <v>65</v>
+      </c>
+      <c r="C402" s="2">
+        <v>60</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="6"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" s="2">
+        <v>66</v>
+      </c>
+      <c r="C403" s="2">
+        <v>66</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" s="2">
+        <v>65</v>
+      </c>
+      <c r="C404" s="2">
+        <v>61</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="6"/>
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" s="2">
+        <v>50</v>
+      </c>
+      <c r="C405" s="2">
+        <v>47</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="6"/>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" s="2">
+        <v>53</v>
+      </c>
+      <c r="C406" s="2">
+        <v>52</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="6"/>
+        <v>0.98113207547169812</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92BF387-BA15-AB48-8560-B58CB998398B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FEDA1A-E38A-984B-8224-E28D11355DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10580" yWindow="680" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="432">
   <si>
     <t>DateTime</t>
   </si>
@@ -1251,6 +1251,81 @@
   </si>
   <si>
     <t>2021-05-16</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>2021-05-19</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>2021-05-23</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-05-25</t>
+  </si>
+  <si>
+    <t>2021-05-26</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>2021-05-30</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>2021-06-05</t>
+  </si>
+  <si>
+    <t>2021-06-06</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
   </si>
 </sst>
 </file>
@@ -2123,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K406"/>
+  <dimension ref="A1:K431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="D392" sqref="D392:D406"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="G430" sqref="G430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7942,7 +8017,7 @@
         <v>49</v>
       </c>
       <c r="D387" s="3">
-        <f t="shared" ref="D387:D406" si="6">C387/B387</f>
+        <f t="shared" ref="D387:D431" si="6">C387/B387</f>
         <v>0.98</v>
       </c>
     </row>
@@ -8229,6 +8304,381 @@
       <c r="D406" s="3">
         <f t="shared" si="6"/>
         <v>0.98113207547169812</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" s="2">
+        <v>59</v>
+      </c>
+      <c r="C407" s="2">
+        <v>55</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="6"/>
+        <v>0.93220338983050843</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" s="2">
+        <v>59</v>
+      </c>
+      <c r="C408" s="2">
+        <v>55</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="6"/>
+        <v>0.93220338983050843</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" s="2">
+        <v>56</v>
+      </c>
+      <c r="C409" s="2">
+        <v>53</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="6"/>
+        <v>0.9464285714285714</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" s="2">
+        <v>70</v>
+      </c>
+      <c r="C410" s="2">
+        <v>68</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" s="2">
+        <v>69</v>
+      </c>
+      <c r="C411" s="2">
+        <v>65</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="6"/>
+        <v>0.94202898550724634</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" s="2">
+        <v>60</v>
+      </c>
+      <c r="C412" s="2">
+        <v>57</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" s="2">
+        <v>62</v>
+      </c>
+      <c r="C413" s="2">
+        <v>57</v>
+      </c>
+      <c r="D413" s="3">
+        <f t="shared" si="6"/>
+        <v>0.91935483870967738</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" s="2">
+        <v>56</v>
+      </c>
+      <c r="C414" s="2">
+        <v>53</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="6"/>
+        <v>0.9464285714285714</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" s="2">
+        <v>64</v>
+      </c>
+      <c r="C415" s="2">
+        <v>61</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="6"/>
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" s="2">
+        <v>62</v>
+      </c>
+      <c r="C416" s="2">
+        <v>61</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="6"/>
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" s="2">
+        <v>66</v>
+      </c>
+      <c r="C417" s="2">
+        <v>65</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="6"/>
+        <v>0.98484848484848486</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418" s="2">
+        <v>68</v>
+      </c>
+      <c r="C418" s="2">
+        <v>65</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95588235294117652</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419" s="2">
+        <v>48</v>
+      </c>
+      <c r="C419" s="2">
+        <v>46</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420" s="2">
+        <v>41</v>
+      </c>
+      <c r="C420" s="2">
+        <v>41</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421" s="2">
+        <v>63</v>
+      </c>
+      <c r="C421" s="2">
+        <v>60</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422" s="2">
+        <v>66</v>
+      </c>
+      <c r="C422" s="2">
+        <v>60</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="6"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423" s="2">
+        <v>62</v>
+      </c>
+      <c r="C423" s="2">
+        <v>59</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95161290322580649</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" s="2">
+        <v>78</v>
+      </c>
+      <c r="C424" s="2">
+        <v>70</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="6"/>
+        <v>0.89743589743589747</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425" s="2">
+        <v>77</v>
+      </c>
+      <c r="C425" s="2">
+        <v>72</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="6"/>
+        <v>0.93506493506493504</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426" s="2">
+        <v>58</v>
+      </c>
+      <c r="C426" s="2">
+        <v>55</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="6"/>
+        <v>0.94827586206896552</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427" s="2">
+        <v>69</v>
+      </c>
+      <c r="C427" s="2">
+        <v>68</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="6"/>
+        <v>0.98550724637681164</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428" s="2">
+        <v>67</v>
+      </c>
+      <c r="C428" s="2">
+        <v>63</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="6"/>
+        <v>0.94029850746268662</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429" s="2">
+        <v>68</v>
+      </c>
+      <c r="C429" s="2">
+        <v>66</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" s="2">
+        <v>74</v>
+      </c>
+      <c r="C430" s="2">
+        <v>69</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="6"/>
+        <v>0.93243243243243246</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431" s="2">
+        <v>81</v>
+      </c>
+      <c r="C431" s="2">
+        <v>80</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="6"/>
+        <v>0.98765432098765427</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FEDA1A-E38A-984B-8224-E28D11355DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B55B2E6-C7CF-7742-B7AE-779117747725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="680" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="454">
   <si>
     <t>DateTime</t>
   </si>
@@ -1326,6 +1326,72 @@
   </si>
   <si>
     <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>2021-06-12</t>
+  </si>
+  <si>
+    <t>2021-06-13</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>2021-06-20</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-06-22</t>
+  </si>
+  <si>
+    <t>2021-06-23</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>2021-06-25</t>
+  </si>
+  <si>
+    <t>2021-06-26</t>
+  </si>
+  <si>
+    <t>2021-06-27</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
   </si>
 </sst>
 </file>
@@ -2198,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K431"/>
+  <dimension ref="A1:K453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="G430" sqref="G430"/>
+    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="D437" sqref="D437:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8017,7 +8083,7 @@
         <v>49</v>
       </c>
       <c r="D387" s="3">
-        <f t="shared" ref="D387:D431" si="6">C387/B387</f>
+        <f t="shared" ref="D387:D450" si="6">C387/B387</f>
         <v>0.98</v>
       </c>
     </row>
@@ -8679,6 +8745,336 @@
       <c r="D431" s="3">
         <f t="shared" si="6"/>
         <v>0.98765432098765427</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432" s="2">
+        <v>76</v>
+      </c>
+      <c r="C432" s="2">
+        <v>74</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97368421052631582</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433" s="2">
+        <v>55</v>
+      </c>
+      <c r="C433" s="2">
+        <v>52</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="6"/>
+        <v>0.94545454545454544</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434" s="2">
+        <v>63</v>
+      </c>
+      <c r="C434" s="2">
+        <v>63</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" s="2">
+        <v>68</v>
+      </c>
+      <c r="C435" s="2">
+        <v>63</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="6"/>
+        <v>0.92647058823529416</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436" s="2">
+        <v>81</v>
+      </c>
+      <c r="C436" s="2">
+        <v>73</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="6"/>
+        <v>0.90123456790123457</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" s="2">
+        <v>76</v>
+      </c>
+      <c r="C437" s="2">
+        <v>69</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="6"/>
+        <v>0.90789473684210531</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438" s="2">
+        <v>74</v>
+      </c>
+      <c r="C438" s="2">
+        <v>71</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95945945945945943</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439" s="2">
+        <v>73</v>
+      </c>
+      <c r="C439" s="2">
+        <v>70</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95890410958904104</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440" s="2">
+        <v>64</v>
+      </c>
+      <c r="C440" s="2">
+        <v>59</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="6"/>
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441" s="2">
+        <v>72</v>
+      </c>
+      <c r="C441" s="2">
+        <v>69</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442" s="2">
+        <v>72</v>
+      </c>
+      <c r="C442" s="2">
+        <v>67</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="6"/>
+        <v>0.93055555555555558</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443" s="2">
+        <v>68</v>
+      </c>
+      <c r="C443" s="2">
+        <v>66</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444" s="2">
+        <v>72</v>
+      </c>
+      <c r="C444" s="2">
+        <v>67</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="6"/>
+        <v>0.93055555555555558</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" s="2">
+        <v>81</v>
+      </c>
+      <c r="C445" s="2">
+        <v>73</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="6"/>
+        <v>0.90123456790123457</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446" s="2">
+        <v>83</v>
+      </c>
+      <c r="C446" s="2">
+        <v>72</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="6"/>
+        <v>0.86746987951807231</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447" s="2">
+        <v>61</v>
+      </c>
+      <c r="C447" s="2">
+        <v>56</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="6"/>
+        <v>0.91803278688524592</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448" s="2">
+        <v>73</v>
+      </c>
+      <c r="C448" s="2">
+        <v>69</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="6"/>
+        <v>0.9452054794520548</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A449" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449" s="2">
+        <v>67</v>
+      </c>
+      <c r="C449" s="2">
+        <v>66</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="6"/>
+        <v>0.9850746268656716</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450" s="2">
+        <v>68</v>
+      </c>
+      <c r="C450" s="2">
+        <v>66</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451" s="2">
+        <v>72</v>
+      </c>
+      <c r="C451" s="2">
+        <v>69</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" ref="D451:D453" si="7">C451/B451</f>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" s="2">
+        <v>90</v>
+      </c>
+      <c r="C452" s="2">
+        <v>76</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="7"/>
+        <v>0.84444444444444444</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453" s="2">
+        <v>73</v>
+      </c>
+      <c r="C453" s="2">
+        <v>69</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="7"/>
+        <v>0.9452054794520548</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B55B2E6-C7CF-7742-B7AE-779117747725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFFE113-467F-BF4E-A3A4-ADBB7D9F156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="3820" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="473">
   <si>
     <t>DateTime</t>
   </si>
@@ -1392,6 +1392,63 @@
   </si>
   <si>
     <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>2021-07-03</t>
+  </si>
+  <si>
+    <t>2021-07-04</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>2021-07-07</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>2021-07-10</t>
+  </si>
+  <si>
+    <t>2021-07-11</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
+  </si>
+  <si>
+    <t>2021-07-16</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>2021-07-18</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>2021-07-20</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
   </si>
 </sst>
 </file>
@@ -2264,10 +2321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K453"/>
+  <dimension ref="A1:K472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="D437" sqref="D437:D453"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="H468" sqref="H468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9043,7 +9100,7 @@
         <v>69</v>
       </c>
       <c r="D451" s="3">
-        <f t="shared" ref="D451:D453" si="7">C451/B451</f>
+        <f t="shared" ref="D451:D472" si="7">C451/B451</f>
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -9075,6 +9132,291 @@
       <c r="D453" s="3">
         <f t="shared" si="7"/>
         <v>0.9452054794520548</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454" s="2">
+        <v>57</v>
+      </c>
+      <c r="C454" s="2">
+        <v>56</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="7"/>
+        <v>0.98245614035087714</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455" s="2">
+        <v>48</v>
+      </c>
+      <c r="C455" s="2">
+        <v>46</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="7"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" s="2">
+        <v>65</v>
+      </c>
+      <c r="C456" s="2">
+        <v>61</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="7"/>
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" s="2">
+        <v>58</v>
+      </c>
+      <c r="C457" s="2">
+        <v>56</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="7"/>
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" s="2">
+        <v>68</v>
+      </c>
+      <c r="C458" s="2">
+        <v>67</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="7"/>
+        <v>0.98529411764705888</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459" s="2">
+        <v>85</v>
+      </c>
+      <c r="C459" s="2">
+        <v>83</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97647058823529409</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460" s="2">
+        <v>74</v>
+      </c>
+      <c r="C460" s="2">
+        <v>67</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="7"/>
+        <v>0.90540540540540537</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461" s="2">
+        <v>66</v>
+      </c>
+      <c r="C461" s="2">
+        <v>62</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="7"/>
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462" s="2">
+        <v>73</v>
+      </c>
+      <c r="C462" s="2">
+        <v>68</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="7"/>
+        <v>0.93150684931506844</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463" s="2">
+        <v>70</v>
+      </c>
+      <c r="C463" s="2">
+        <v>67</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="7"/>
+        <v>0.95714285714285718</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464" s="2">
+        <v>66</v>
+      </c>
+      <c r="C464" s="2">
+        <v>64</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="7"/>
+        <v>0.96969696969696972</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465" s="2">
+        <v>74</v>
+      </c>
+      <c r="C465" s="2">
+        <v>68</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="7"/>
+        <v>0.91891891891891897</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466" s="2">
+        <v>83</v>
+      </c>
+      <c r="C466" s="2">
+        <v>78</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="7"/>
+        <v>0.93975903614457834</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467" s="2">
+        <v>83</v>
+      </c>
+      <c r="C467" s="2">
+        <v>80</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="7"/>
+        <v>0.96385542168674698</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468" s="2">
+        <v>65</v>
+      </c>
+      <c r="C468" s="2">
+        <v>61</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="7"/>
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469" s="2">
+        <v>69</v>
+      </c>
+      <c r="C469" s="2">
+        <v>66</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="7"/>
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470" s="2">
+        <v>68</v>
+      </c>
+      <c r="C470" s="2">
+        <v>65</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="7"/>
+        <v>0.95588235294117652</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471" s="2">
+        <v>77</v>
+      </c>
+      <c r="C471" s="2">
+        <v>72</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="7"/>
+        <v>0.93506493506493504</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472" s="2">
+        <v>79</v>
+      </c>
+      <c r="C472" s="2">
+        <v>75</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="7"/>
+        <v>0.94936708860759489</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFFE113-467F-BF4E-A3A4-ADBB7D9F156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34417B36-E126-8742-9805-2C7C3DE8AF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="3820" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3620" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="491">
   <si>
     <t>DateTime</t>
   </si>
@@ -1449,6 +1449,60 @@
   </si>
   <si>
     <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>2021-07-23</t>
+  </si>
+  <si>
+    <t>2021-07-24</t>
+  </si>
+  <si>
+    <t>2021-07-25</t>
+  </si>
+  <si>
+    <t>2021-07-26</t>
+  </si>
+  <si>
+    <t>2021-07-27</t>
+  </si>
+  <si>
+    <t>2021-07-28</t>
+  </si>
+  <si>
+    <t>2021-07-29</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>2021-08-03</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>2021-08-05</t>
+  </si>
+  <si>
+    <t>2021-08-06</t>
+  </si>
+  <si>
+    <t>2021-08-07</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
   </si>
 </sst>
 </file>
@@ -2321,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K472"/>
+  <dimension ref="A1:K490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="H468" sqref="H468"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="G488" sqref="G488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9100,7 +9154,7 @@
         <v>69</v>
       </c>
       <c r="D451" s="3">
-        <f t="shared" ref="D451:D472" si="7">C451/B451</f>
+        <f t="shared" ref="D451:D490" si="7">C451/B451</f>
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -9417,6 +9471,276 @@
       <c r="D472" s="3">
         <f t="shared" si="7"/>
         <v>0.94936708860759489</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473" s="2">
+        <v>75</v>
+      </c>
+      <c r="C473" s="2">
+        <v>73</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97333333333333338</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474" s="2">
+        <v>90</v>
+      </c>
+      <c r="C474" s="2">
+        <v>84</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="7"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475" s="2">
+        <v>68</v>
+      </c>
+      <c r="C475" s="2">
+        <v>63</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="7"/>
+        <v>0.92647058823529416</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B476" s="2">
+        <v>83</v>
+      </c>
+      <c r="C476" s="2">
+        <v>80</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="7"/>
+        <v>0.96385542168674698</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B477" s="2">
+        <v>65</v>
+      </c>
+      <c r="C477" s="2">
+        <v>62</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="7"/>
+        <v>0.9538461538461539</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B478" s="2">
+        <v>71</v>
+      </c>
+      <c r="C478" s="2">
+        <v>66</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="7"/>
+        <v>0.92957746478873238</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479" s="2">
+        <v>88</v>
+      </c>
+      <c r="C479" s="2">
+        <v>82</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="7"/>
+        <v>0.93181818181818177</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B480" s="2">
+        <v>88</v>
+      </c>
+      <c r="C480" s="2">
+        <v>81</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="7"/>
+        <v>0.92045454545454541</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B481" s="2">
+        <v>84</v>
+      </c>
+      <c r="C481" s="2">
+        <v>75</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="7"/>
+        <v>0.8928571428571429</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B482" s="2">
+        <v>62</v>
+      </c>
+      <c r="C482" s="2">
+        <v>60</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="7"/>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B483" s="2">
+        <v>75</v>
+      </c>
+      <c r="C483" s="2">
+        <v>71</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="7"/>
+        <v>0.94666666666666666</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484" s="2">
+        <v>71</v>
+      </c>
+      <c r="C484" s="2">
+        <v>65</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="7"/>
+        <v>0.91549295774647887</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B485" s="2">
+        <v>77</v>
+      </c>
+      <c r="C485" s="2">
+        <v>71</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="7"/>
+        <v>0.92207792207792205</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B486" s="2">
+        <v>64</v>
+      </c>
+      <c r="C486" s="2">
+        <v>61</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="7"/>
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487" s="2">
+        <v>72</v>
+      </c>
+      <c r="C487" s="2">
+        <v>71</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="7"/>
+        <v>0.98611111111111116</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B488" s="2">
+        <v>79</v>
+      </c>
+      <c r="C488" s="2">
+        <v>77</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97468354430379744</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B489" s="2">
+        <v>60</v>
+      </c>
+      <c r="C489" s="2">
+        <v>57</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="7"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B490" s="2">
+        <v>70</v>
+      </c>
+      <c r="C490" s="2">
+        <v>68</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97142857142857142</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34417B36-E126-8742-9805-2C7C3DE8AF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF74E0A1-C6EE-9B45-AEDE-37B022B9A7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3620" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="517">
   <si>
     <t>DateTime</t>
   </si>
@@ -1503,6 +1503,84 @@
   </si>
   <si>
     <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>2021-08-11</t>
+  </si>
+  <si>
+    <t>2021-08-12</t>
+  </si>
+  <si>
+    <t>2021-08-13</t>
+  </si>
+  <si>
+    <t>2021-08-14</t>
+  </si>
+  <si>
+    <t>2021-08-15</t>
+  </si>
+  <si>
+    <t>2021-08-16</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>2021-08-18</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>2021-08-20</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>2021-08-22</t>
+  </si>
+  <si>
+    <t>2021-08-23</t>
+  </si>
+  <si>
+    <t>2021-08-24</t>
+  </si>
+  <si>
+    <t>2021-08-25</t>
+  </si>
+  <si>
+    <t>2021-08-26</t>
+  </si>
+  <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <t>2021-08-28</t>
+  </si>
+  <si>
+    <t>2021-08-29</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-09-02</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
   </si>
 </sst>
 </file>
@@ -2375,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K490"/>
+  <dimension ref="A1:K516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="G488" sqref="G488"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="F514" sqref="F514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9154,7 +9232,7 @@
         <v>69</v>
       </c>
       <c r="D451" s="3">
-        <f t="shared" ref="D451:D490" si="7">C451/B451</f>
+        <f t="shared" ref="D451:D514" si="7">C451/B451</f>
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -9741,6 +9819,396 @@
       <c r="D490" s="3">
         <f t="shared" si="7"/>
         <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B491" s="2">
+        <v>73</v>
+      </c>
+      <c r="C491" s="2">
+        <v>65</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="7"/>
+        <v>0.8904109589041096</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B492" s="2">
+        <v>69</v>
+      </c>
+      <c r="C492" s="2">
+        <v>61</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="7"/>
+        <v>0.88405797101449279</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B493" s="2">
+        <v>77</v>
+      </c>
+      <c r="C493" s="2">
+        <v>70</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="7"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B494" s="2">
+        <v>81</v>
+      </c>
+      <c r="C494" s="2">
+        <v>80</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="7"/>
+        <v>0.98765432098765427</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B495" s="2">
+        <v>81</v>
+      </c>
+      <c r="C495" s="2">
+        <v>74</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="7"/>
+        <v>0.9135802469135802</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B496" s="2">
+        <v>64</v>
+      </c>
+      <c r="C496" s="2">
+        <v>62</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="7"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B497" s="2">
+        <v>75</v>
+      </c>
+      <c r="C497" s="2">
+        <v>71</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="7"/>
+        <v>0.94666666666666666</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B498" s="2">
+        <v>72</v>
+      </c>
+      <c r="C498" s="2">
+        <v>70</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B499" s="2">
+        <v>68</v>
+      </c>
+      <c r="C499" s="2">
+        <v>66</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B500" s="2">
+        <v>73</v>
+      </c>
+      <c r="C500" s="2">
+        <v>66</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="7"/>
+        <v>0.90410958904109584</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B501" s="2">
+        <v>85</v>
+      </c>
+      <c r="C501" s="2">
+        <v>83</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97647058823529409</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B502" s="2">
+        <v>67</v>
+      </c>
+      <c r="C502" s="2">
+        <v>63</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="7"/>
+        <v>0.94029850746268662</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B503" s="2">
+        <v>64</v>
+      </c>
+      <c r="C503" s="2">
+        <v>61</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="7"/>
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B504" s="2">
+        <v>67</v>
+      </c>
+      <c r="C504" s="2">
+        <v>63</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="7"/>
+        <v>0.94029850746268662</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B505" s="2">
+        <v>67</v>
+      </c>
+      <c r="C505" s="2">
+        <v>67</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B506" s="2">
+        <v>74</v>
+      </c>
+      <c r="C506" s="2">
+        <v>65</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="7"/>
+        <v>0.8783783783783784</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B507" s="2">
+        <v>67</v>
+      </c>
+      <c r="C507" s="2">
+        <v>64</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="7"/>
+        <v>0.95522388059701491</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B508" s="2">
+        <v>73</v>
+      </c>
+      <c r="C508" s="2">
+        <v>70</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="7"/>
+        <v>0.95890410958904104</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B509" s="2">
+        <v>63</v>
+      </c>
+      <c r="C509" s="2">
+        <v>61</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="7"/>
+        <v>0.96825396825396826</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B510" s="2">
+        <v>61</v>
+      </c>
+      <c r="C510" s="2">
+        <v>58</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="7"/>
+        <v>0.95081967213114749</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B511" s="2">
+        <v>65</v>
+      </c>
+      <c r="C511" s="2">
+        <v>64</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="7"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B512" s="2">
+        <v>77</v>
+      </c>
+      <c r="C512" s="2">
+        <v>69</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="7"/>
+        <v>0.89610389610389607</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B513" s="2">
+        <v>69</v>
+      </c>
+      <c r="C513" s="2">
+        <v>67</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97101449275362317</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B514" s="2">
+        <v>73</v>
+      </c>
+      <c r="C514" s="2">
+        <v>66</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="7"/>
+        <v>0.90410958904109584</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B515" s="2">
+        <v>80</v>
+      </c>
+      <c r="C515" s="2">
+        <v>74</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" ref="D515:D516" si="8">C515/B515</f>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B516" s="2">
+        <v>71</v>
+      </c>
+      <c r="C516" s="2">
+        <v>70</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="8"/>
+        <v>0.9859154929577465</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF74E0A1-C6EE-9B45-AEDE-37B022B9A7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09A79C6-5909-FB46-B854-C92C9B82A58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="1860" windowWidth="10980" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="546">
   <si>
     <t>DateTime</t>
   </si>
@@ -1581,6 +1581,93 @@
   </si>
   <si>
     <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>2021-09-04</t>
+  </si>
+  <si>
+    <t>2021-09-05</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>2021-09-09</t>
+  </si>
+  <si>
+    <t>2021-09-10</t>
+  </si>
+  <si>
+    <t>2021-09-11</t>
+  </si>
+  <si>
+    <t>2021-09-12</t>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+  </si>
+  <si>
+    <t>2021-09-14</t>
+  </si>
+  <si>
+    <t>2021-09-15</t>
+  </si>
+  <si>
+    <t>2021-09-16</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>2021-09-19</t>
+  </si>
+  <si>
+    <t>2021-09-20</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>2021-09-22</t>
+  </si>
+  <si>
+    <t>2021-09-23</t>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+  </si>
+  <si>
+    <t>2021-09-25</t>
+  </si>
+  <si>
+    <t>2021-09-26</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-09-28</t>
+  </si>
+  <si>
+    <t>2021-09-29</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-10-02</t>
   </si>
 </sst>
 </file>
@@ -2453,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K516"/>
+  <dimension ref="A1:K545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="F514" sqref="F514"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="B512" sqref="B512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10192,7 +10279,7 @@
         <v>74</v>
       </c>
       <c r="D515" s="3">
-        <f t="shared" ref="D515:D516" si="8">C515/B515</f>
+        <f t="shared" ref="D515:D545" si="8">C515/B515</f>
         <v>0.92500000000000004</v>
       </c>
     </row>
@@ -10209,6 +10296,441 @@
       <c r="D516" s="3">
         <f t="shared" si="8"/>
         <v>0.9859154929577465</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B517" s="2">
+        <v>53</v>
+      </c>
+      <c r="C517" s="2">
+        <v>50</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="8"/>
+        <v>0.94339622641509435</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B518" s="2">
+        <v>49</v>
+      </c>
+      <c r="C518" s="2">
+        <v>47</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95918367346938771</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B519" s="2">
+        <v>58</v>
+      </c>
+      <c r="C519" s="2">
+        <v>52</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="8"/>
+        <v>0.89655172413793105</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B520" s="2">
+        <v>63</v>
+      </c>
+      <c r="C520" s="2">
+        <v>59</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="8"/>
+        <v>0.93650793650793651</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B521" s="2">
+        <v>69</v>
+      </c>
+      <c r="C521" s="2">
+        <v>62</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="8"/>
+        <v>0.89855072463768115</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B522" s="2">
+        <v>86</v>
+      </c>
+      <c r="C522" s="2">
+        <v>85</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98837209302325579</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B523" s="2">
+        <v>79</v>
+      </c>
+      <c r="C523" s="2">
+        <v>75</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="8"/>
+        <v>0.94936708860759489</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B524" s="2">
+        <v>56</v>
+      </c>
+      <c r="C524" s="2">
+        <v>54</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="8"/>
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B525" s="2">
+        <v>65</v>
+      </c>
+      <c r="C525" s="2">
+        <v>63</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="8"/>
+        <v>0.96923076923076923</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B526" s="2">
+        <v>73</v>
+      </c>
+      <c r="C526" s="2">
+        <v>71</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="8"/>
+        <v>0.9726027397260274</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B527" s="2">
+        <v>69</v>
+      </c>
+      <c r="C527" s="2">
+        <v>64</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="8"/>
+        <v>0.92753623188405798</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B528" s="2">
+        <v>76</v>
+      </c>
+      <c r="C528" s="2">
+        <v>72</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="8"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B529" s="2">
+        <v>86</v>
+      </c>
+      <c r="C529" s="2">
+        <v>81</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="8"/>
+        <v>0.94186046511627908</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B530" s="2">
+        <v>86</v>
+      </c>
+      <c r="C530" s="2">
+        <v>83</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="8"/>
+        <v>0.96511627906976749</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B531" s="2">
+        <v>63</v>
+      </c>
+      <c r="C531" s="2">
+        <v>61</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="8"/>
+        <v>0.96825396825396826</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B532" s="2">
+        <v>78</v>
+      </c>
+      <c r="C532" s="2">
+        <v>71</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="8"/>
+        <v>0.91025641025641024</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B533" s="2">
+        <v>74</v>
+      </c>
+      <c r="C533" s="2">
+        <v>71</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95945945945945943</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B534" s="2">
+        <v>66</v>
+      </c>
+      <c r="C534" s="2">
+        <v>62</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="8"/>
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B535" s="2">
+        <v>72</v>
+      </c>
+      <c r="C535" s="2">
+        <v>69</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B536" s="2">
+        <v>80</v>
+      </c>
+      <c r="C536" s="2">
+        <v>76</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B537" s="2">
+        <v>81</v>
+      </c>
+      <c r="C537" s="2">
+        <v>77</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95061728395061729</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B538" s="2">
+        <v>62</v>
+      </c>
+      <c r="C538" s="2">
+        <v>60</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="8"/>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B539" s="2">
+        <v>62</v>
+      </c>
+      <c r="C539" s="2">
+        <v>61</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="8"/>
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B540" s="2">
+        <v>71</v>
+      </c>
+      <c r="C540" s="2">
+        <v>71</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B541" s="2">
+        <v>63</v>
+      </c>
+      <c r="C541" s="2">
+        <v>62</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98412698412698407</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B542" s="2">
+        <v>59</v>
+      </c>
+      <c r="C542" s="2">
+        <v>58</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98305084745762716</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B543" s="2">
+        <v>88</v>
+      </c>
+      <c r="C543" s="2">
+        <v>84</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B544" s="2">
+        <v>85</v>
+      </c>
+      <c r="C544" s="2">
+        <v>79</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="8"/>
+        <v>0.92941176470588238</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B545" s="2">
+        <v>63</v>
+      </c>
+      <c r="C545" s="2">
+        <v>60</v>
+      </c>
+      <c r="D545" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95238095238095233</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09A79C6-5909-FB46-B854-C92C9B82A58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21492DFA-23A3-E54F-8708-8973AEEF26F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="1860" windowWidth="10980" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="500" windowWidth="14300" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="569">
   <si>
     <t>DateTime</t>
   </si>
@@ -1668,6 +1668,75 @@
   </si>
   <si>
     <t>2021-10-02</t>
+  </si>
+  <si>
+    <t>2021-10-03</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
+  </si>
+  <si>
+    <t>2021-10-08</t>
+  </si>
+  <si>
+    <t>2021-10-09</t>
+  </si>
+  <si>
+    <t>2021-10-10</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
+  <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>2021-10-14</t>
+  </si>
+  <si>
+    <t>2021-10-15</t>
+  </si>
+  <si>
+    <t>2021-10-16</t>
+  </si>
+  <si>
+    <t>2021-10-17</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021-10-19</t>
+  </si>
+  <si>
+    <t>2021-10-20</t>
+  </si>
+  <si>
+    <t>2021-10-21</t>
+  </si>
+  <si>
+    <t>2021-10-22</t>
+  </si>
+  <si>
+    <t>2021-10-23</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
   </si>
 </sst>
 </file>
@@ -2540,10 +2609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K545"/>
+  <dimension ref="A1:K568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="B512" sqref="B512"/>
+    <sheetView tabSelected="1" topLeftCell="A539" workbookViewId="0">
+      <selection activeCell="I557" sqref="I557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10279,7 +10348,7 @@
         <v>74</v>
       </c>
       <c r="D515" s="3">
-        <f t="shared" ref="D515:D545" si="8">C515/B515</f>
+        <f t="shared" ref="D515:D568" si="8">C515/B515</f>
         <v>0.92500000000000004</v>
       </c>
     </row>
@@ -10731,6 +10800,351 @@
       <c r="D545" s="3">
         <f t="shared" si="8"/>
         <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B546" s="2">
+        <v>60</v>
+      </c>
+      <c r="C546" s="2">
+        <v>59</v>
+      </c>
+      <c r="D546" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B547" s="2">
+        <v>68</v>
+      </c>
+      <c r="C547" s="2">
+        <v>68</v>
+      </c>
+      <c r="D547" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B548" s="2">
+        <v>66</v>
+      </c>
+      <c r="C548" s="2">
+        <v>65</v>
+      </c>
+      <c r="D548" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98484848484848486</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B549" s="2">
+        <v>67</v>
+      </c>
+      <c r="C549" s="2">
+        <v>66</v>
+      </c>
+      <c r="D549" s="3">
+        <f t="shared" si="8"/>
+        <v>0.9850746268656716</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B550" s="2">
+        <v>76</v>
+      </c>
+      <c r="C550" s="2">
+        <v>71</v>
+      </c>
+      <c r="D550" s="3">
+        <f t="shared" si="8"/>
+        <v>0.93421052631578949</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B551" s="2">
+        <v>76</v>
+      </c>
+      <c r="C551" s="2">
+        <v>70</v>
+      </c>
+      <c r="D551" s="3">
+        <f t="shared" si="8"/>
+        <v>0.92105263157894735</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B552" s="2">
+        <v>63</v>
+      </c>
+      <c r="C552" s="2">
+        <v>60</v>
+      </c>
+      <c r="D552" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B553" s="2">
+        <v>67</v>
+      </c>
+      <c r="C553" s="2">
+        <v>61</v>
+      </c>
+      <c r="D553" s="3">
+        <f t="shared" si="8"/>
+        <v>0.91044776119402981</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B554" s="2">
+        <v>66</v>
+      </c>
+      <c r="C554" s="2">
+        <v>61</v>
+      </c>
+      <c r="D554" s="3">
+        <f t="shared" si="8"/>
+        <v>0.9242424242424242</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B555" s="2">
+        <v>65</v>
+      </c>
+      <c r="C555" s="2">
+        <v>61</v>
+      </c>
+      <c r="D555" s="3">
+        <f t="shared" si="8"/>
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B556" s="2">
+        <v>61</v>
+      </c>
+      <c r="C556" s="2">
+        <v>58</v>
+      </c>
+      <c r="D556" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95081967213114749</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B557" s="2">
+        <v>74</v>
+      </c>
+      <c r="C557" s="2">
+        <v>70</v>
+      </c>
+      <c r="D557" s="3">
+        <f t="shared" si="8"/>
+        <v>0.94594594594594594</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B558" s="2">
+        <v>69</v>
+      </c>
+      <c r="C558" s="2">
+        <v>68</v>
+      </c>
+      <c r="D558" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98550724637681164</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B559" s="2">
+        <v>57</v>
+      </c>
+      <c r="C559" s="2">
+        <v>55</v>
+      </c>
+      <c r="D559" s="3">
+        <f t="shared" si="8"/>
+        <v>0.96491228070175439</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A560" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B560" s="2">
+        <v>60</v>
+      </c>
+      <c r="C560" s="2">
+        <v>57</v>
+      </c>
+      <c r="D560" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B561" s="2">
+        <v>80</v>
+      </c>
+      <c r="C561" s="2">
+        <v>77</v>
+      </c>
+      <c r="D561" s="3">
+        <f t="shared" si="8"/>
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B562" s="2">
+        <v>81</v>
+      </c>
+      <c r="C562" s="2">
+        <v>75</v>
+      </c>
+      <c r="D562" s="3">
+        <f t="shared" si="8"/>
+        <v>0.92592592592592593</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B563" s="2">
+        <v>77</v>
+      </c>
+      <c r="C563" s="2">
+        <v>70</v>
+      </c>
+      <c r="D563" s="3">
+        <f t="shared" si="8"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B564" s="2">
+        <v>76</v>
+      </c>
+      <c r="C564" s="2">
+        <v>68</v>
+      </c>
+      <c r="D564" s="3">
+        <f t="shared" si="8"/>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B565" s="2">
+        <v>89</v>
+      </c>
+      <c r="C565" s="2">
+        <v>75</v>
+      </c>
+      <c r="D565" s="3">
+        <f t="shared" si="8"/>
+        <v>0.84269662921348309</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B566" s="2">
+        <v>61</v>
+      </c>
+      <c r="C566" s="2">
+        <v>59</v>
+      </c>
+      <c r="D566" s="3">
+        <f t="shared" si="8"/>
+        <v>0.96721311475409832</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B567" s="2">
+        <v>67</v>
+      </c>
+      <c r="C567" s="2">
+        <v>62</v>
+      </c>
+      <c r="D567" s="3">
+        <f t="shared" si="8"/>
+        <v>0.92537313432835822</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B568" s="2">
+        <v>78</v>
+      </c>
+      <c r="C568" s="2">
+        <v>70</v>
+      </c>
+      <c r="D568" s="3">
+        <f t="shared" si="8"/>
+        <v>0.89743589743589747</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21492DFA-23A3-E54F-8708-8973AEEF26F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F050DC8-E252-754E-B634-64CF0EBCD34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="500" windowWidth="14300" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="589">
   <si>
     <t>DateTime</t>
   </si>
@@ -1737,6 +1737,66 @@
   </si>
   <si>
     <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2021-10-26</t>
+  </si>
+  <si>
+    <t>2021-10-27</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>2021-10-29</t>
+  </si>
+  <si>
+    <t>2021-10-30</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
+    <t>2021-11-03</t>
+  </si>
+  <si>
+    <t>2021-11-04</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>2021-11-06</t>
+  </si>
+  <si>
+    <t>2021-11-07</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>2021-11-09</t>
+  </si>
+  <si>
+    <t>2021-11-10</t>
+  </si>
+  <si>
+    <t>2021-11-11</t>
+  </si>
+  <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
+    <t>2021-11-13</t>
+  </si>
+  <si>
+    <t>2021-11-14</t>
   </si>
 </sst>
 </file>
@@ -2609,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K568"/>
+  <dimension ref="A1:K588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A539" workbookViewId="0">
-      <selection activeCell="I557" sqref="I557"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="B600" sqref="B600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10348,7 +10408,7 @@
         <v>74</v>
       </c>
       <c r="D515" s="3">
-        <f t="shared" ref="D515:D568" si="8">C515/B515</f>
+        <f t="shared" ref="D515:D578" si="8">C515/B515</f>
         <v>0.92500000000000004</v>
       </c>
     </row>
@@ -11140,11 +11200,311 @@
         <v>78</v>
       </c>
       <c r="C568" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D568" s="3">
         <f t="shared" si="8"/>
-        <v>0.89743589743589747</v>
+        <v>0.91025641025641024</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A569" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B569" s="2">
+        <v>73</v>
+      </c>
+      <c r="C569" s="2">
+        <v>68</v>
+      </c>
+      <c r="D569" s="3">
+        <f t="shared" si="8"/>
+        <v>0.93150684931506844</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A570" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B570" s="2">
+        <v>64</v>
+      </c>
+      <c r="C570" s="2">
+        <v>62</v>
+      </c>
+      <c r="D570" s="3">
+        <f t="shared" si="8"/>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A571" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B571" s="2">
+        <v>69</v>
+      </c>
+      <c r="C571" s="2">
+        <v>65</v>
+      </c>
+      <c r="D571" s="3">
+        <f t="shared" si="8"/>
+        <v>0.94202898550724634</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B572" s="2">
+        <v>82</v>
+      </c>
+      <c r="C572" s="2">
+        <v>76</v>
+      </c>
+      <c r="D572" s="3">
+        <f t="shared" si="8"/>
+        <v>0.92682926829268297</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B573" s="2">
+        <v>59</v>
+      </c>
+      <c r="C573" s="2">
+        <v>57</v>
+      </c>
+      <c r="D573" s="3">
+        <f t="shared" si="8"/>
+        <v>0.96610169491525422</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B574" s="2">
+        <v>48</v>
+      </c>
+      <c r="C574" s="2">
+        <v>47</v>
+      </c>
+      <c r="D574" s="3">
+        <f t="shared" si="8"/>
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A575" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B575" s="2">
+        <v>69</v>
+      </c>
+      <c r="C575" s="2">
+        <v>63</v>
+      </c>
+      <c r="D575" s="3">
+        <f t="shared" si="8"/>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B576" s="2">
+        <v>68</v>
+      </c>
+      <c r="C576" s="2">
+        <v>64</v>
+      </c>
+      <c r="D576" s="3">
+        <f t="shared" si="8"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B577" s="2">
+        <v>61</v>
+      </c>
+      <c r="C577" s="2">
+        <v>54</v>
+      </c>
+      <c r="D577" s="3">
+        <f t="shared" si="8"/>
+        <v>0.88524590163934425</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B578" s="2">
+        <v>78</v>
+      </c>
+      <c r="C578" s="2">
+        <v>73</v>
+      </c>
+      <c r="D578" s="3">
+        <f t="shared" si="8"/>
+        <v>0.9358974358974359</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B579" s="2">
+        <v>75</v>
+      </c>
+      <c r="C579" s="2">
+        <v>72</v>
+      </c>
+      <c r="D579" s="3">
+        <f t="shared" ref="D579:D588" si="9">C579/B579</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B580" s="2">
+        <v>59</v>
+      </c>
+      <c r="C580" s="2">
+        <v>57</v>
+      </c>
+      <c r="D580" s="3">
+        <f t="shared" si="9"/>
+        <v>0.96610169491525422</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B581" s="2">
+        <v>61</v>
+      </c>
+      <c r="C581" s="2">
+        <v>57</v>
+      </c>
+      <c r="D581" s="3">
+        <f t="shared" si="9"/>
+        <v>0.93442622950819676</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A582" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B582" s="2">
+        <v>67</v>
+      </c>
+      <c r="C582" s="2">
+        <v>65</v>
+      </c>
+      <c r="D582" s="3">
+        <f t="shared" si="9"/>
+        <v>0.97014925373134331</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B583" s="2">
+        <v>65</v>
+      </c>
+      <c r="C583" s="2">
+        <v>64</v>
+      </c>
+      <c r="D583" s="3">
+        <f t="shared" si="9"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A584" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B584" s="2">
+        <v>71</v>
+      </c>
+      <c r="C584" s="2">
+        <v>66</v>
+      </c>
+      <c r="D584" s="3">
+        <f t="shared" si="9"/>
+        <v>0.92957746478873238</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A585" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B585" s="2">
+        <v>84</v>
+      </c>
+      <c r="C585" s="2">
+        <v>78</v>
+      </c>
+      <c r="D585" s="3">
+        <f t="shared" si="9"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A586" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B586" s="2">
+        <v>81</v>
+      </c>
+      <c r="C586" s="2">
+        <v>72</v>
+      </c>
+      <c r="D586" s="3">
+        <f t="shared" si="9"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A587" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B587" s="2">
+        <v>63</v>
+      </c>
+      <c r="C587" s="2">
+        <v>60</v>
+      </c>
+      <c r="D587" s="3">
+        <f t="shared" si="9"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B588" s="2">
+        <v>60</v>
+      </c>
+      <c r="C588" s="2">
+        <v>58</v>
+      </c>
+      <c r="D588" s="3">
+        <f t="shared" si="9"/>
+        <v>0.96666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F050DC8-E252-754E-B634-64CF0EBCD34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4350A224-888B-2144-816C-AD69A80ECCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="500" windowWidth="14300" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11100" yWindow="2600" windowWidth="14300" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="603">
   <si>
     <t>DateTime</t>
   </si>
@@ -1797,6 +1797,48 @@
   </si>
   <si>
     <t>2021-11-14</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>2021-11-17</t>
+  </si>
+  <si>
+    <t>2021-11-18</t>
+  </si>
+  <si>
+    <t>2021-11-19</t>
+  </si>
+  <si>
+    <t>2021-11-20</t>
+  </si>
+  <si>
+    <t>2021-11-21</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>2021-11-23</t>
+  </si>
+  <si>
+    <t>2021-11-24</t>
+  </si>
+  <si>
+    <t>2021-11-25</t>
+  </si>
+  <si>
+    <t>2021-11-26</t>
+  </si>
+  <si>
+    <t>2021-11-27</t>
+  </si>
+  <si>
+    <t>2021-11-28</t>
   </si>
 </sst>
 </file>
@@ -2669,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K588"/>
+  <dimension ref="A1:K602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="B600" sqref="B600"/>
+    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11368,7 +11410,7 @@
         <v>72</v>
       </c>
       <c r="D579" s="3">
-        <f t="shared" ref="D579:D588" si="9">C579/B579</f>
+        <f t="shared" ref="D579:D602" si="9">C579/B579</f>
         <v>0.96</v>
       </c>
     </row>
@@ -11500,11 +11542,221 @@
         <v>60</v>
       </c>
       <c r="C588" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D588" s="3">
         <f t="shared" si="9"/>
-        <v>0.96666666666666667</v>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B589" s="2">
+        <v>64</v>
+      </c>
+      <c r="C589" s="2">
+        <v>61</v>
+      </c>
+      <c r="D589" s="3">
+        <f t="shared" si="9"/>
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A590" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B590" s="2">
+        <v>70</v>
+      </c>
+      <c r="C590" s="2">
+        <v>66</v>
+      </c>
+      <c r="D590" s="3">
+        <f t="shared" si="9"/>
+        <v>0.94285714285714284</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A591" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B591" s="2">
+        <v>62</v>
+      </c>
+      <c r="C591" s="2">
+        <v>62</v>
+      </c>
+      <c r="D591" s="3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A592" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B592" s="2">
+        <v>76</v>
+      </c>
+      <c r="C592" s="2">
+        <v>73</v>
+      </c>
+      <c r="D592" s="3">
+        <f t="shared" si="9"/>
+        <v>0.96052631578947367</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B593" s="2">
+        <v>80</v>
+      </c>
+      <c r="C593" s="2">
+        <v>78</v>
+      </c>
+      <c r="D593" s="3">
+        <f t="shared" si="9"/>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B594" s="2">
+        <v>62</v>
+      </c>
+      <c r="C594" s="2">
+        <v>61</v>
+      </c>
+      <c r="D594" s="3">
+        <f t="shared" si="9"/>
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B595" s="2">
+        <v>57</v>
+      </c>
+      <c r="C595" s="2">
+        <v>53</v>
+      </c>
+      <c r="D595" s="3">
+        <f t="shared" si="9"/>
+        <v>0.92982456140350878</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B596" s="2">
+        <v>68</v>
+      </c>
+      <c r="C596" s="2">
+        <v>66</v>
+      </c>
+      <c r="D596" s="3">
+        <f t="shared" si="9"/>
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B597" s="2">
+        <v>71</v>
+      </c>
+      <c r="C597" s="2">
+        <v>70</v>
+      </c>
+      <c r="D597" s="3">
+        <f t="shared" si="9"/>
+        <v>0.9859154929577465</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B598" s="2">
+        <v>65</v>
+      </c>
+      <c r="C598" s="2">
+        <v>62</v>
+      </c>
+      <c r="D598" s="3">
+        <f t="shared" si="9"/>
+        <v>0.9538461538461539</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B599" s="2">
+        <v>41</v>
+      </c>
+      <c r="C599" s="2">
+        <v>39</v>
+      </c>
+      <c r="D599" s="3">
+        <f t="shared" si="9"/>
+        <v>0.95121951219512191</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B600" s="2">
+        <v>49</v>
+      </c>
+      <c r="C600" s="2">
+        <v>46</v>
+      </c>
+      <c r="D600" s="3">
+        <f t="shared" si="9"/>
+        <v>0.93877551020408168</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B601" s="2">
+        <v>58</v>
+      </c>
+      <c r="C601" s="2">
+        <v>56</v>
+      </c>
+      <c r="D601" s="3">
+        <f t="shared" si="9"/>
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B602" s="2">
+        <v>55</v>
+      </c>
+      <c r="C602" s="2">
+        <v>51</v>
+      </c>
+      <c r="D602" s="3">
+        <f t="shared" si="9"/>
+        <v>0.92727272727272725</v>
       </c>
     </row>
   </sheetData>

--- a/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Scheduled Flights vs actual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4350A224-888B-2144-816C-AD69A80ECCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00297313-7C95-FD47-8407-C8A2DF033614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="2600" windowWidth="14300" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11100" yWindow="1380" windowWidth="14300" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="612">
   <si>
     <t>DateTime</t>
   </si>
@@ -1839,6 +1839,33 @@
   </si>
   <si>
     <t>2021-11-28</t>
+  </si>
+  <si>
+    <t>2021-11-29</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2021-12-02</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
   </si>
 </sst>
 </file>
@@ -2711,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K602"/>
+  <dimension ref="A1:K611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView tabSelected="1" topLeftCell="A598" workbookViewId="0">
+      <selection activeCell="D621" sqref="D621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11759,6 +11786,105 @@
         <v>0.92727272727272725</v>
       </c>
     </row>
+    <row r="603" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B603" s="2">
+        <v>74</v>
+      </c>
+      <c r="C603" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B604" s="2">
+        <v>70</v>
+      </c>
+      <c r="C604" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B605" s="2">
+        <v>65</v>
+      </c>
+      <c r="C605" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B606" s="2">
+        <v>77</v>
+      </c>
+      <c r="C606" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B607" s="2">
+        <v>82</v>
+      </c>
+      <c r="C607" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B608" s="2">
+        <v>55</v>
+      </c>
+      <c r="C608" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B609" s="2">
+        <v>63</v>
+      </c>
+      <c r="C609" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B610" s="2">
+        <v>69</v>
+      </c>
+      <c r="C610" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A611" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B611" s="2">
+        <v>60</v>
+      </c>
+      <c r="C611" s="2">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
